--- a/data/part_1_df_abstract_subset.xlsx
+++ b/data/part_1_df_abstract_subset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5C21E7-6805-6441-AB1C-B73819343AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DDE66A-A299-1548-8657-882992B87B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31100" yWindow="500" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31920" yWindow="1300" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4265,7 +4265,7 @@
   <cols>
     <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.1640625" customWidth="1"/>
+    <col min="4" max="4" width="62.33203125" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" customWidth="1"/>
     <col min="6" max="6" width="12.83203125" customWidth="1"/>
     <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>

--- a/data/part_1_df_abstract_subset.xlsx
+++ b/data/part_1_df_abstract_subset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DDE66A-A299-1548-8657-882992B87B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242766F7-F589-5A41-B725-CD39C404E515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31920" yWindow="1300" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44000" yWindow="820" windowWidth="24260" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="640">
   <si>
     <t>type</t>
   </si>
@@ -3881,6 +3881,207 @@
   <si>
     <t>notes</t>
   </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>includes figure, disclosures</t>
+  </si>
+  <si>
+    <t>original language but no language attribute</t>
+  </si>
+  <si>
+    <t>chemistry notation; MathML</t>
+  </si>
+  <si>
+    <t>includes table</t>
+  </si>
+  <si>
+    <t>table is wrapped in jats tags</t>
+  </si>
+  <si>
+    <t>includes both "ru" and "en" versions</t>
+  </si>
+  <si>
+    <t>lovely structured abstract</t>
+  </si>
+  <si>
+    <t>includes script from the landing page</t>
+  </si>
+  <si>
+    <t>includes links and script from the landing page that have been cut and paste into the abstract</t>
+  </si>
+  <si>
+    <t>includes figure, discosures; non-Latin char; MathML</t>
+  </si>
+  <si>
+    <t>has U+2008 General Punctuation non-Latin char; has journal level lang</t>
+  </si>
+  <si>
+    <t>non-Latin char; includes 3 languages in three &lt;jats:p&gt; elements</t>
+  </si>
+  <si>
+    <t>non-Latin char; includes disclosures</t>
+  </si>
+  <si>
+    <t>has U+2009 Thin Space General Punc char; lovely structured abstract</t>
+  </si>
+  <si>
+    <t>includes "ru", "key", "en" languages in metadata in that order, but no attributes; article in "ky" with "en" abstract, journal level is listed as "ru"</t>
+  </si>
+  <si>
+    <t>contains cyrillic char set; "ru","kz", "en",  languages in metadata in that order; should have had 3 abstracts each with their own language attribute</t>
+  </si>
+  <si>
+    <t>Not available</t>
+  </si>
+  <si>
+    <t>contains U+00A0 No Break Space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MathML; </t>
+  </si>
+  <si>
+    <t>includes U+2771 Dingbat char</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non-Latin char;  </t>
+  </si>
+  <si>
+    <t>includes links to png files but they are within the jats tags</t>
+  </si>
+  <si>
+    <t>article has "ru" and"en" versions</t>
+  </si>
+  <si>
+    <t>abstract does not render as full text for "ky" language; includes "ru", "ky","en" in that order</t>
+  </si>
+  <si>
+    <t>contains Latin-1 Supplement no break char</t>
+  </si>
+  <si>
+    <t>MathML; includes copyright statement</t>
+  </si>
+  <si>
+    <t>has &lt;jats: supplementary-material&gt; content</t>
+  </si>
+  <si>
+    <t>includes references</t>
+  </si>
+  <si>
+    <t>this is a medical abstract</t>
+  </si>
+  <si>
+    <t>includes U+200A Hair spaces, General Punctuation, includes hyperlinks</t>
+  </si>
+  <si>
+    <t>non-Latin char;  includes hyperlinnks</t>
+  </si>
+  <si>
+    <t>includes hyperlinks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">includes hyperlinks; includes funding acknowledgement; includes figures; </t>
+  </si>
+  <si>
+    <t>lovely structured abstract; poster abstract</t>
+  </si>
+  <si>
+    <t>XML_and_REST_agreement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">includes arabic, and latin char sets; Perfectly done with separate abstracts for each language and language attributes; the REST abstract only include "tr" while the XML response includes both "tr" and "en" versions. </t>
+  </si>
+  <si>
+    <t>"uk" and "en" included in the same abstract metadata element; latin and cyrillinc; language attribute was only "en"</t>
+  </si>
+  <si>
+    <t>"en"</t>
+  </si>
+  <si>
+    <t>"tr","en"</t>
+  </si>
+  <si>
+    <t>includes disclosures</t>
+  </si>
+  <si>
+    <t>includes 2 languages</t>
+  </si>
+  <si>
+    <t>includes 2 languages; non-Latin char</t>
+  </si>
+  <si>
+    <t>includes 2 languages; "ru" assigned to journal level but missing in abstract</t>
+  </si>
+  <si>
+    <t>"ru" and "en" included in the same abstract metadata element; latin and cyrillinc;</t>
+  </si>
+  <si>
+    <t>includes jats tagged bulleted list</t>
+  </si>
+  <si>
+    <t>U+2008 punctuation space from general punc</t>
+  </si>
+  <si>
+    <t>non-Latin char;  includes figure; includes disclosures</t>
+  </si>
+  <si>
+    <t>all in same element; includes U+200A Hair spaces; includes keywords</t>
+  </si>
+  <si>
+    <t>includes 3 languages; non-Latin char</t>
+  </si>
+  <si>
+    <t>"en", "kz", "ru" in article and same metadata element; Latin and Cyrillic char sets</t>
+  </si>
+  <si>
+    <t>includes full citation format in the abstract</t>
+  </si>
+  <si>
+    <t>medical abstract</t>
+  </si>
+  <si>
+    <t>poster abstract</t>
+  </si>
+  <si>
+    <t>includes figure, acknowledgements</t>
+  </si>
+  <si>
+    <t>non-Latin char; includes disclosures; includes figure</t>
+  </si>
+  <si>
+    <t>U+2009 thin space from general punc; lovely structured abstract</t>
+  </si>
+  <si>
+    <t>U+2008 punctuation space from general punc; lovely structured abstract</t>
+  </si>
+  <si>
+    <t>U+2009 thin space from general punc; whole medical abstract</t>
+  </si>
+  <si>
+    <t>No problems</t>
+  </si>
+  <si>
+    <t>no problems, marked correctly as retracted in metadata</t>
+  </si>
+  <si>
+    <t>marked as retracted</t>
+  </si>
+  <si>
+    <t>U+200a hair space and U+2009 thin space</t>
+  </si>
+  <si>
+    <t>non-Latin char; includes hyperlinks</t>
+  </si>
+  <si>
+    <t>front matter; includes personal contact information</t>
+  </si>
+  <si>
+    <t>includes funding acknowledgement</t>
+  </si>
 </sst>
 </file>
 
@@ -3901,12 +4102,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -3945,14 +4152,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4255,26 +4469,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L301"/>
+  <dimension ref="A1:M301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.33203125" customWidth="1"/>
+    <col min="4" max="4" width="135.83203125" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" customWidth="1"/>
     <col min="6" max="6" width="12.83203125" customWidth="1"/>
     <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.1640625" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="42.1640625" customWidth="1"/>
+    <col min="13" max="13" width="75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4303,13 +4521,16 @@
         <v>571</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4319,14 +4540,35 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E2">
         <v>10871</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>573</v>
+      </c>
+      <c r="G2" t="s">
+        <v>574</v>
+      </c>
+      <c r="H2" t="s">
+        <v>573</v>
+      </c>
+      <c r="I2" t="s">
+        <v>573</v>
+      </c>
+      <c r="J2" t="s">
+        <v>574</v>
+      </c>
+      <c r="K2" t="s">
+        <v>573</v>
+      </c>
+      <c r="L2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4336,14 +4578,35 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E3">
         <v>10055</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>573</v>
+      </c>
+      <c r="G3" t="s">
+        <v>574</v>
+      </c>
+      <c r="H3" t="s">
+        <v>573</v>
+      </c>
+      <c r="I3" t="s">
+        <v>573</v>
+      </c>
+      <c r="J3" t="s">
+        <v>574</v>
+      </c>
+      <c r="K3" t="s">
+        <v>573</v>
+      </c>
+      <c r="L3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4359,8 +4622,29 @@
       <c r="E4">
         <v>9074</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>574</v>
+      </c>
+      <c r="G4" t="s">
+        <v>574</v>
+      </c>
+      <c r="H4" t="s">
+        <v>573</v>
+      </c>
+      <c r="I4" t="s">
+        <v>573</v>
+      </c>
+      <c r="J4" t="s">
+        <v>574</v>
+      </c>
+      <c r="K4" t="s">
+        <v>573</v>
+      </c>
+      <c r="L4" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4376,8 +4660,32 @@
       <c r="E5">
         <v>7376</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>574</v>
+      </c>
+      <c r="G5" t="s">
+        <v>574</v>
+      </c>
+      <c r="H5" t="s">
+        <v>573</v>
+      </c>
+      <c r="I5" t="s">
+        <v>573</v>
+      </c>
+      <c r="J5" t="s">
+        <v>574</v>
+      </c>
+      <c r="K5" t="s">
+        <v>573</v>
+      </c>
+      <c r="L5" t="s">
+        <v>578</v>
+      </c>
+      <c r="M5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4393,8 +4701,32 @@
       <c r="E6">
         <v>7351</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>574</v>
+      </c>
+      <c r="G6" t="s">
+        <v>574</v>
+      </c>
+      <c r="H6" t="s">
+        <v>573</v>
+      </c>
+      <c r="I6" t="s">
+        <v>573</v>
+      </c>
+      <c r="J6" t="s">
+        <v>574</v>
+      </c>
+      <c r="K6" t="s">
+        <v>573</v>
+      </c>
+      <c r="L6" t="s">
+        <v>617</v>
+      </c>
+      <c r="M6" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4410,8 +4742,29 @@
       <c r="E7">
         <v>7320</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>574</v>
+      </c>
+      <c r="G7" t="s">
+        <v>574</v>
+      </c>
+      <c r="H7" t="s">
+        <v>573</v>
+      </c>
+      <c r="I7" t="s">
+        <v>573</v>
+      </c>
+      <c r="J7" t="s">
+        <v>574</v>
+      </c>
+      <c r="K7" t="s">
+        <v>573</v>
+      </c>
+      <c r="L7" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4427,8 +4780,32 @@
       <c r="E8">
         <v>7077</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>574</v>
+      </c>
+      <c r="G8" t="s">
+        <v>574</v>
+      </c>
+      <c r="H8" t="s">
+        <v>573</v>
+      </c>
+      <c r="I8" t="s">
+        <v>573</v>
+      </c>
+      <c r="J8" t="s">
+        <v>574</v>
+      </c>
+      <c r="K8" t="s">
+        <v>573</v>
+      </c>
+      <c r="L8" t="s">
+        <v>633</v>
+      </c>
+      <c r="M8" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4444,8 +4821,32 @@
       <c r="E9">
         <v>6937</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>573</v>
+      </c>
+      <c r="G9" t="s">
+        <v>574</v>
+      </c>
+      <c r="H9" t="s">
+        <v>574</v>
+      </c>
+      <c r="I9" t="s">
+        <v>574</v>
+      </c>
+      <c r="J9" t="s">
+        <v>574</v>
+      </c>
+      <c r="K9" t="s">
+        <v>573</v>
+      </c>
+      <c r="L9" t="s">
+        <v>582</v>
+      </c>
+      <c r="M9" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4461,8 +4862,29 @@
       <c r="E10">
         <v>6602</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>573</v>
+      </c>
+      <c r="G10" t="s">
+        <v>573</v>
+      </c>
+      <c r="H10" t="s">
+        <v>573</v>
+      </c>
+      <c r="I10" t="s">
+        <v>573</v>
+      </c>
+      <c r="J10" t="s">
+        <v>574</v>
+      </c>
+      <c r="K10" t="s">
+        <v>573</v>
+      </c>
+      <c r="L10" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4478,8 +4900,32 @@
       <c r="E11">
         <v>6576</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>573</v>
+      </c>
+      <c r="G11" t="s">
+        <v>574</v>
+      </c>
+      <c r="H11" t="s">
+        <v>573</v>
+      </c>
+      <c r="I11" t="s">
+        <v>573</v>
+      </c>
+      <c r="J11" t="s">
+        <v>574</v>
+      </c>
+      <c r="K11" t="s">
+        <v>573</v>
+      </c>
+      <c r="L11" t="s">
+        <v>584</v>
+      </c>
+      <c r="M11" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4495,8 +4941,32 @@
       <c r="E12">
         <v>6561</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>574</v>
+      </c>
+      <c r="G12" t="s">
+        <v>574</v>
+      </c>
+      <c r="H12" t="s">
+        <v>573</v>
+      </c>
+      <c r="I12" t="s">
+        <v>573</v>
+      </c>
+      <c r="J12" t="s">
+        <v>574</v>
+      </c>
+      <c r="K12" t="s">
+        <v>573</v>
+      </c>
+      <c r="L12" t="s">
+        <v>586</v>
+      </c>
+      <c r="M12" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4512,8 +4982,32 @@
       <c r="E13">
         <v>6536</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>574</v>
+      </c>
+      <c r="G13" t="s">
+        <v>574</v>
+      </c>
+      <c r="H13" t="s">
+        <v>573</v>
+      </c>
+      <c r="I13" t="s">
+        <v>573</v>
+      </c>
+      <c r="J13" t="s">
+        <v>574</v>
+      </c>
+      <c r="K13" t="s">
+        <v>573</v>
+      </c>
+      <c r="L13" t="s">
+        <v>587</v>
+      </c>
+      <c r="M13" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4529,8 +5023,32 @@
       <c r="E14">
         <v>6391</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>574</v>
+      </c>
+      <c r="G14" t="s">
+        <v>574</v>
+      </c>
+      <c r="H14" t="s">
+        <v>591</v>
+      </c>
+      <c r="I14" t="s">
+        <v>574</v>
+      </c>
+      <c r="J14" t="s">
+        <v>574</v>
+      </c>
+      <c r="K14" t="s">
+        <v>573</v>
+      </c>
+      <c r="L14" t="s">
+        <v>586</v>
+      </c>
+      <c r="M14" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4546,8 +5064,29 @@
       <c r="E15">
         <v>5880</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>574</v>
+      </c>
+      <c r="G15" t="s">
+        <v>574</v>
+      </c>
+      <c r="H15" t="s">
+        <v>573</v>
+      </c>
+      <c r="I15" t="s">
+        <v>573</v>
+      </c>
+      <c r="J15" t="s">
+        <v>574</v>
+      </c>
+      <c r="K15" t="s">
+        <v>573</v>
+      </c>
+      <c r="L15" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4563,8 +5102,32 @@
       <c r="E16">
         <v>5878</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>573</v>
+      </c>
+      <c r="G16" t="s">
+        <v>574</v>
+      </c>
+      <c r="H16" t="s">
+        <v>573</v>
+      </c>
+      <c r="I16" t="s">
+        <v>573</v>
+      </c>
+      <c r="J16" t="s">
+        <v>574</v>
+      </c>
+      <c r="K16" t="s">
+        <v>573</v>
+      </c>
+      <c r="L16" t="s">
+        <v>593</v>
+      </c>
+      <c r="M16" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4580,8 +5143,32 @@
       <c r="E17">
         <v>5605</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>574</v>
+      </c>
+      <c r="G17" t="s">
+        <v>574</v>
+      </c>
+      <c r="H17" t="s">
+        <v>573</v>
+      </c>
+      <c r="I17" t="s">
+        <v>573</v>
+      </c>
+      <c r="J17" t="s">
+        <v>574</v>
+      </c>
+      <c r="K17" t="s">
+        <v>573</v>
+      </c>
+      <c r="L17" t="s">
+        <v>595</v>
+      </c>
+      <c r="M17" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4597,8 +5184,32 @@
       <c r="E18">
         <v>5526</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>573</v>
+      </c>
+      <c r="G18" t="s">
+        <v>574</v>
+      </c>
+      <c r="H18" t="s">
+        <v>573</v>
+      </c>
+      <c r="I18" t="s">
+        <v>573</v>
+      </c>
+      <c r="J18" t="s">
+        <v>574</v>
+      </c>
+      <c r="K18" t="s">
+        <v>573</v>
+      </c>
+      <c r="L18" t="s">
+        <v>606</v>
+      </c>
+      <c r="M18" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4614,8 +5225,32 @@
       <c r="E19">
         <v>5501</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>574</v>
+      </c>
+      <c r="G19" t="s">
+        <v>574</v>
+      </c>
+      <c r="H19" t="s">
+        <v>574</v>
+      </c>
+      <c r="I19" t="s">
+        <v>573</v>
+      </c>
+      <c r="J19" t="s">
+        <v>574</v>
+      </c>
+      <c r="K19" t="s">
+        <v>573</v>
+      </c>
+      <c r="L19" t="s">
+        <v>615</v>
+      </c>
+      <c r="M19" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4631,8 +5266,29 @@
       <c r="E20">
         <v>5490</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>573</v>
+      </c>
+      <c r="G20" t="s">
+        <v>574</v>
+      </c>
+      <c r="H20" t="s">
+        <v>573</v>
+      </c>
+      <c r="I20" t="s">
+        <v>573</v>
+      </c>
+      <c r="J20" t="s">
+        <v>574</v>
+      </c>
+      <c r="K20" t="s">
+        <v>573</v>
+      </c>
+      <c r="L20" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4642,14 +5298,38 @@
       <c r="C21" t="s">
         <v>43</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E21">
         <v>5421</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>574</v>
+      </c>
+      <c r="G21" t="s">
+        <v>574</v>
+      </c>
+      <c r="H21" t="s">
+        <v>591</v>
+      </c>
+      <c r="I21" t="s">
+        <v>573</v>
+      </c>
+      <c r="J21" t="s">
+        <v>574</v>
+      </c>
+      <c r="K21" t="s">
+        <v>573</v>
+      </c>
+      <c r="L21" t="s">
+        <v>586</v>
+      </c>
+      <c r="M21" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4665,8 +5345,32 @@
       <c r="E22">
         <v>5297</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>574</v>
+      </c>
+      <c r="G22" t="s">
+        <v>574</v>
+      </c>
+      <c r="H22" t="s">
+        <v>573</v>
+      </c>
+      <c r="I22" t="s">
+        <v>573</v>
+      </c>
+      <c r="J22" t="s">
+        <v>574</v>
+      </c>
+      <c r="K22" t="s">
+        <v>573</v>
+      </c>
+      <c r="L22" t="s">
+        <v>595</v>
+      </c>
+      <c r="M22" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4682,8 +5386,32 @@
       <c r="E23">
         <v>5272</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>573</v>
+      </c>
+      <c r="G23" t="s">
+        <v>574</v>
+      </c>
+      <c r="H23" t="s">
+        <v>573</v>
+      </c>
+      <c r="I23" t="s">
+        <v>573</v>
+      </c>
+      <c r="J23" t="s">
+        <v>574</v>
+      </c>
+      <c r="K23" t="s">
+        <v>573</v>
+      </c>
+      <c r="L23" t="s">
+        <v>593</v>
+      </c>
+      <c r="M23" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4699,8 +5427,32 @@
       <c r="E24">
         <v>5209</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>573</v>
+      </c>
+      <c r="G24" t="s">
+        <v>574</v>
+      </c>
+      <c r="H24" t="s">
+        <v>573</v>
+      </c>
+      <c r="I24" t="s">
+        <v>573</v>
+      </c>
+      <c r="J24" t="s">
+        <v>574</v>
+      </c>
+      <c r="K24" t="s">
+        <v>573</v>
+      </c>
+      <c r="L24" t="s">
+        <v>600</v>
+      </c>
+      <c r="M24" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4716,8 +5468,32 @@
       <c r="E25">
         <v>5186</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>574</v>
+      </c>
+      <c r="G25" t="s">
+        <v>612</v>
+      </c>
+      <c r="H25" t="s">
+        <v>573</v>
+      </c>
+      <c r="I25" t="s">
+        <v>573</v>
+      </c>
+      <c r="J25" t="s">
+        <v>574</v>
+      </c>
+      <c r="K25" t="s">
+        <v>573</v>
+      </c>
+      <c r="L25" t="s">
+        <v>633</v>
+      </c>
+      <c r="M25" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4733,8 +5509,32 @@
       <c r="E26">
         <v>5162</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>573</v>
+      </c>
+      <c r="G26" t="s">
+        <v>574</v>
+      </c>
+      <c r="H26" t="s">
+        <v>573</v>
+      </c>
+      <c r="I26" t="s">
+        <v>573</v>
+      </c>
+      <c r="J26" t="s">
+        <v>574</v>
+      </c>
+      <c r="K26" t="s">
+        <v>573</v>
+      </c>
+      <c r="L26" t="s">
+        <v>593</v>
+      </c>
+      <c r="M26" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4750,8 +5550,29 @@
       <c r="E27">
         <v>5140</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>574</v>
+      </c>
+      <c r="G27" t="s">
+        <v>612</v>
+      </c>
+      <c r="H27" t="s">
+        <v>573</v>
+      </c>
+      <c r="I27" t="s">
+        <v>573</v>
+      </c>
+      <c r="J27" t="s">
+        <v>574</v>
+      </c>
+      <c r="K27" t="s">
+        <v>573</v>
+      </c>
+      <c r="L27" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -4767,8 +5588,32 @@
       <c r="E28">
         <v>5103</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>574</v>
+      </c>
+      <c r="G28" t="s">
+        <v>574</v>
+      </c>
+      <c r="H28" t="s">
+        <v>573</v>
+      </c>
+      <c r="I28" t="s">
+        <v>573</v>
+      </c>
+      <c r="J28" t="s">
+        <v>574</v>
+      </c>
+      <c r="K28" t="s">
+        <v>573</v>
+      </c>
+      <c r="L28" t="s">
+        <v>602</v>
+      </c>
+      <c r="M28" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -4784,8 +5629,32 @@
       <c r="E29">
         <v>5091</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>574</v>
+      </c>
+      <c r="G29" t="s">
+        <v>574</v>
+      </c>
+      <c r="H29" t="s">
+        <v>573</v>
+      </c>
+      <c r="I29" t="s">
+        <v>573</v>
+      </c>
+      <c r="J29" t="s">
+        <v>574</v>
+      </c>
+      <c r="K29" t="s">
+        <v>573</v>
+      </c>
+      <c r="L29" t="s">
+        <v>605</v>
+      </c>
+      <c r="M29" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4801,8 +5670,29 @@
       <c r="E30">
         <v>5038</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>574</v>
+      </c>
+      <c r="G30" t="s">
+        <v>574</v>
+      </c>
+      <c r="H30" t="s">
+        <v>573</v>
+      </c>
+      <c r="I30" t="s">
+        <v>591</v>
+      </c>
+      <c r="J30" t="s">
+        <v>574</v>
+      </c>
+      <c r="K30" t="s">
+        <v>573</v>
+      </c>
+      <c r="L30" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4818,25 +5708,73 @@
       <c r="E31">
         <v>4912</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+      <c r="F31" t="s">
+        <v>574</v>
+      </c>
+      <c r="G31" t="s">
+        <v>574</v>
+      </c>
+      <c r="H31" t="s">
+        <v>573</v>
+      </c>
+      <c r="I31" t="s">
+        <v>573</v>
+      </c>
+      <c r="J31" t="s">
+        <v>574</v>
+      </c>
+      <c r="K31" t="s">
+        <v>573</v>
+      </c>
+      <c r="L31" t="s">
+        <v>633</v>
+      </c>
+      <c r="M31" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B32" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="5">
         <v>4899</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4852,8 +5790,32 @@
       <c r="E33">
         <v>4899</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>574</v>
+      </c>
+      <c r="G33" t="s">
+        <v>612</v>
+      </c>
+      <c r="H33" t="s">
+        <v>574</v>
+      </c>
+      <c r="I33" t="s">
+        <v>573</v>
+      </c>
+      <c r="J33" t="s">
+        <v>574</v>
+      </c>
+      <c r="K33" t="s">
+        <v>573</v>
+      </c>
+      <c r="L33" t="s">
+        <v>616</v>
+      </c>
+      <c r="M33" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4869,8 +5831,29 @@
       <c r="E34">
         <v>4893</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>574</v>
+      </c>
+      <c r="G34" t="s">
+        <v>574</v>
+      </c>
+      <c r="H34" t="s">
+        <v>573</v>
+      </c>
+      <c r="I34" t="s">
+        <v>591</v>
+      </c>
+      <c r="J34" t="s">
+        <v>574</v>
+      </c>
+      <c r="K34" t="s">
+        <v>573</v>
+      </c>
+      <c r="L34" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4886,8 +5869,32 @@
       <c r="E35">
         <v>4889</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>574</v>
+      </c>
+      <c r="G35" t="s">
+        <v>574</v>
+      </c>
+      <c r="H35" t="s">
+        <v>573</v>
+      </c>
+      <c r="I35" t="s">
+        <v>591</v>
+      </c>
+      <c r="J35" t="s">
+        <v>574</v>
+      </c>
+      <c r="K35" t="s">
+        <v>573</v>
+      </c>
+      <c r="L35" t="s">
+        <v>616</v>
+      </c>
+      <c r="M35" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4903,8 +5910,32 @@
       <c r="E36">
         <v>4842</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>574</v>
+      </c>
+      <c r="G36" t="s">
+        <v>574</v>
+      </c>
+      <c r="H36" t="s">
+        <v>591</v>
+      </c>
+      <c r="I36" t="s">
+        <v>573</v>
+      </c>
+      <c r="J36" t="s">
+        <v>574</v>
+      </c>
+      <c r="K36" t="s">
+        <v>573</v>
+      </c>
+      <c r="L36" t="s">
+        <v>616</v>
+      </c>
+      <c r="M36" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4920,8 +5951,32 @@
       <c r="E37">
         <v>4836</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>574</v>
+      </c>
+      <c r="G37" t="s">
+        <v>574</v>
+      </c>
+      <c r="H37" t="s">
+        <v>591</v>
+      </c>
+      <c r="I37" t="s">
+        <v>573</v>
+      </c>
+      <c r="J37" t="s">
+        <v>574</v>
+      </c>
+      <c r="K37" t="s">
+        <v>573</v>
+      </c>
+      <c r="L37" t="s">
+        <v>616</v>
+      </c>
+      <c r="M37" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4937,8 +5992,29 @@
       <c r="E38">
         <v>4833</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>574</v>
+      </c>
+      <c r="G38" t="s">
+        <v>574</v>
+      </c>
+      <c r="H38" t="s">
+        <v>573</v>
+      </c>
+      <c r="I38" t="s">
+        <v>573</v>
+      </c>
+      <c r="J38" t="s">
+        <v>574</v>
+      </c>
+      <c r="K38" t="s">
+        <v>573</v>
+      </c>
+      <c r="L38" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4954,8 +6030,32 @@
       <c r="E39">
         <v>4815</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>574</v>
+      </c>
+      <c r="G39" t="s">
+        <v>612</v>
+      </c>
+      <c r="H39" t="s">
+        <v>573</v>
+      </c>
+      <c r="I39" t="s">
+        <v>573</v>
+      </c>
+      <c r="J39" t="s">
+        <v>574</v>
+      </c>
+      <c r="K39" t="s">
+        <v>573</v>
+      </c>
+      <c r="L39" t="s">
+        <v>633</v>
+      </c>
+      <c r="M39" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4971,8 +6071,32 @@
       <c r="E40">
         <v>4815</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>574</v>
+      </c>
+      <c r="G40" t="s">
+        <v>574</v>
+      </c>
+      <c r="H40" t="s">
+        <v>573</v>
+      </c>
+      <c r="I40" t="s">
+        <v>591</v>
+      </c>
+      <c r="J40" t="s">
+        <v>574</v>
+      </c>
+      <c r="K40" t="s">
+        <v>573</v>
+      </c>
+      <c r="L40" t="s">
+        <v>621</v>
+      </c>
+      <c r="M40" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4988,8 +6112,32 @@
       <c r="E41">
         <v>4809</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>574</v>
+      </c>
+      <c r="G41" t="s">
+        <v>574</v>
+      </c>
+      <c r="H41" t="s">
+        <v>573</v>
+      </c>
+      <c r="I41" t="s">
+        <v>573</v>
+      </c>
+      <c r="J41" t="s">
+        <v>574</v>
+      </c>
+      <c r="K41" t="s">
+        <v>573</v>
+      </c>
+      <c r="L41" t="s">
+        <v>616</v>
+      </c>
+      <c r="M41" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -5005,8 +6153,32 @@
       <c r="E42">
         <v>4800</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>574</v>
+      </c>
+      <c r="G42" t="s">
+        <v>574</v>
+      </c>
+      <c r="H42" t="s">
+        <v>591</v>
+      </c>
+      <c r="I42" t="s">
+        <v>573</v>
+      </c>
+      <c r="J42" t="s">
+        <v>574</v>
+      </c>
+      <c r="K42" t="s">
+        <v>573</v>
+      </c>
+      <c r="L42" t="s">
+        <v>623</v>
+      </c>
+      <c r="M42" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -5022,8 +6194,29 @@
       <c r="E43">
         <v>4782</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>574</v>
+      </c>
+      <c r="G43" t="s">
+        <v>574</v>
+      </c>
+      <c r="H43" t="s">
+        <v>573</v>
+      </c>
+      <c r="I43" t="s">
+        <v>573</v>
+      </c>
+      <c r="J43" t="s">
+        <v>574</v>
+      </c>
+      <c r="K43" t="s">
+        <v>573</v>
+      </c>
+      <c r="L43" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -5039,8 +6232,29 @@
       <c r="E44">
         <v>4732</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>574</v>
+      </c>
+      <c r="G44" t="s">
+        <v>574</v>
+      </c>
+      <c r="H44" t="s">
+        <v>573</v>
+      </c>
+      <c r="I44" t="s">
+        <v>573</v>
+      </c>
+      <c r="J44" t="s">
+        <v>574</v>
+      </c>
+      <c r="K44" t="s">
+        <v>573</v>
+      </c>
+      <c r="L44" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -5056,8 +6270,32 @@
       <c r="E45">
         <v>4723</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>574</v>
+      </c>
+      <c r="G45" t="s">
+        <v>574</v>
+      </c>
+      <c r="H45" t="s">
+        <v>591</v>
+      </c>
+      <c r="I45" t="s">
+        <v>573</v>
+      </c>
+      <c r="J45" t="s">
+        <v>574</v>
+      </c>
+      <c r="K45" t="s">
+        <v>573</v>
+      </c>
+      <c r="L45" t="s">
+        <v>616</v>
+      </c>
+      <c r="M45" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -5073,8 +6311,29 @@
       <c r="E46">
         <v>4719</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>574</v>
+      </c>
+      <c r="G46" t="s">
+        <v>574</v>
+      </c>
+      <c r="H46" t="s">
+        <v>573</v>
+      </c>
+      <c r="I46" t="s">
+        <v>591</v>
+      </c>
+      <c r="J46" t="s">
+        <v>574</v>
+      </c>
+      <c r="K46" t="s">
+        <v>573</v>
+      </c>
+      <c r="L46" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -5090,8 +6349,32 @@
       <c r="E47">
         <v>4652</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>574</v>
+      </c>
+      <c r="G47" t="s">
+        <v>574</v>
+      </c>
+      <c r="H47" t="s">
+        <v>573</v>
+      </c>
+      <c r="I47" t="s">
+        <v>591</v>
+      </c>
+      <c r="J47" t="s">
+        <v>574</v>
+      </c>
+      <c r="K47" t="s">
+        <v>573</v>
+      </c>
+      <c r="L47" t="s">
+        <v>633</v>
+      </c>
+      <c r="M47" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -5107,8 +6390,32 @@
       <c r="E48">
         <v>4651</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>574</v>
+      </c>
+      <c r="G48" t="s">
+        <v>574</v>
+      </c>
+      <c r="H48" t="s">
+        <v>573</v>
+      </c>
+      <c r="I48" t="s">
+        <v>573</v>
+      </c>
+      <c r="J48" t="s">
+        <v>574</v>
+      </c>
+      <c r="K48" t="s">
+        <v>573</v>
+      </c>
+      <c r="L48" t="s">
+        <v>633</v>
+      </c>
+      <c r="M48" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -5124,8 +6431,32 @@
       <c r="E49">
         <v>4628</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>574</v>
+      </c>
+      <c r="G49" t="s">
+        <v>574</v>
+      </c>
+      <c r="H49" t="s">
+        <v>573</v>
+      </c>
+      <c r="I49" t="s">
+        <v>573</v>
+      </c>
+      <c r="J49" t="s">
+        <v>574</v>
+      </c>
+      <c r="K49" t="s">
+        <v>573</v>
+      </c>
+      <c r="L49" t="s">
+        <v>633</v>
+      </c>
+      <c r="M49" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -5141,8 +6472,32 @@
       <c r="E50">
         <v>4598</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>574</v>
+      </c>
+      <c r="G50" t="s">
+        <v>574</v>
+      </c>
+      <c r="H50" t="s">
+        <v>573</v>
+      </c>
+      <c r="I50" t="s">
+        <v>573</v>
+      </c>
+      <c r="J50" t="s">
+        <v>574</v>
+      </c>
+      <c r="K50" t="s">
+        <v>573</v>
+      </c>
+      <c r="L50" t="s">
+        <v>633</v>
+      </c>
+      <c r="M50" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -5158,8 +6513,29 @@
       <c r="E51">
         <v>4596</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>574</v>
+      </c>
+      <c r="G51" t="s">
+        <v>574</v>
+      </c>
+      <c r="H51" t="s">
+        <v>573</v>
+      </c>
+      <c r="I51" t="s">
+        <v>573</v>
+      </c>
+      <c r="J51" t="s">
+        <v>574</v>
+      </c>
+      <c r="K51" t="s">
+        <v>573</v>
+      </c>
+      <c r="L51" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -5175,8 +6551,32 @@
       <c r="E52">
         <v>4594</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>574</v>
+      </c>
+      <c r="G52" t="s">
+        <v>574</v>
+      </c>
+      <c r="H52" t="s">
+        <v>573</v>
+      </c>
+      <c r="I52" t="s">
+        <v>591</v>
+      </c>
+      <c r="J52" t="s">
+        <v>574</v>
+      </c>
+      <c r="K52" t="s">
+        <v>573</v>
+      </c>
+      <c r="L52" t="s">
+        <v>628</v>
+      </c>
+      <c r="M52" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -5192,8 +6592,32 @@
       <c r="E53">
         <v>4574</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>574</v>
+      </c>
+      <c r="G53" t="s">
+        <v>574</v>
+      </c>
+      <c r="H53" t="s">
+        <v>573</v>
+      </c>
+      <c r="I53" t="s">
+        <v>591</v>
+      </c>
+      <c r="J53" t="s">
+        <v>574</v>
+      </c>
+      <c r="K53" t="s">
+        <v>573</v>
+      </c>
+      <c r="L53" t="s">
+        <v>629</v>
+      </c>
+      <c r="M53" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -5209,8 +6633,32 @@
       <c r="E54">
         <v>4572</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>574</v>
+      </c>
+      <c r="G54" t="s">
+        <v>574</v>
+      </c>
+      <c r="H54" t="s">
+        <v>573</v>
+      </c>
+      <c r="I54" t="s">
+        <v>591</v>
+      </c>
+      <c r="J54" t="s">
+        <v>574</v>
+      </c>
+      <c r="K54" t="s">
+        <v>573</v>
+      </c>
+      <c r="L54" t="s">
+        <v>629</v>
+      </c>
+      <c r="M54" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -5226,8 +6674,32 @@
       <c r="E55">
         <v>4562</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>574</v>
+      </c>
+      <c r="G55" t="s">
+        <v>574</v>
+      </c>
+      <c r="H55" t="s">
+        <v>573</v>
+      </c>
+      <c r="I55" t="s">
+        <v>573</v>
+      </c>
+      <c r="J55" t="s">
+        <v>574</v>
+      </c>
+      <c r="K55" t="s">
+        <v>573</v>
+      </c>
+      <c r="L55" t="s">
+        <v>595</v>
+      </c>
+      <c r="M55" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -5243,8 +6715,32 @@
       <c r="E56">
         <v>4545</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>574</v>
+      </c>
+      <c r="G56" t="s">
+        <v>574</v>
+      </c>
+      <c r="H56" t="s">
+        <v>573</v>
+      </c>
+      <c r="I56" t="s">
+        <v>573</v>
+      </c>
+      <c r="J56" t="s">
+        <v>574</v>
+      </c>
+      <c r="K56" t="s">
+        <v>573</v>
+      </c>
+      <c r="L56" t="s">
+        <v>595</v>
+      </c>
+      <c r="M56" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -5260,8 +6756,32 @@
       <c r="E57">
         <v>4542</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>574</v>
+      </c>
+      <c r="G57" t="s">
+        <v>574</v>
+      </c>
+      <c r="H57" t="s">
+        <v>573</v>
+      </c>
+      <c r="I57" t="s">
+        <v>591</v>
+      </c>
+      <c r="J57" t="s">
+        <v>574</v>
+      </c>
+      <c r="K57" t="s">
+        <v>573</v>
+      </c>
+      <c r="L57" t="s">
+        <v>616</v>
+      </c>
+      <c r="M57" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -5277,8 +6797,29 @@
       <c r="E58">
         <v>4540</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>574</v>
+      </c>
+      <c r="G58" t="s">
+        <v>574</v>
+      </c>
+      <c r="H58" t="s">
+        <v>573</v>
+      </c>
+      <c r="I58" t="s">
+        <v>573</v>
+      </c>
+      <c r="J58" t="s">
+        <v>574</v>
+      </c>
+      <c r="K58" t="s">
+        <v>573</v>
+      </c>
+      <c r="L58" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -5294,8 +6835,29 @@
       <c r="E59">
         <v>4530</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>574</v>
+      </c>
+      <c r="G59" t="s">
+        <v>574</v>
+      </c>
+      <c r="H59" t="s">
+        <v>573</v>
+      </c>
+      <c r="I59" t="s">
+        <v>573</v>
+      </c>
+      <c r="J59" t="s">
+        <v>574</v>
+      </c>
+      <c r="K59" t="s">
+        <v>573</v>
+      </c>
+      <c r="L59" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -5311,8 +6873,32 @@
       <c r="E60">
         <v>4483</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>574</v>
+      </c>
+      <c r="G60" t="s">
+        <v>574</v>
+      </c>
+      <c r="H60" t="s">
+        <v>573</v>
+      </c>
+      <c r="I60" t="s">
+        <v>591</v>
+      </c>
+      <c r="J60" t="s">
+        <v>574</v>
+      </c>
+      <c r="K60" t="s">
+        <v>573</v>
+      </c>
+      <c r="L60" t="s">
+        <v>635</v>
+      </c>
+      <c r="M60" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5328,8 +6914,32 @@
       <c r="E61">
         <v>4419</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
+        <v>574</v>
+      </c>
+      <c r="G61" t="s">
+        <v>574</v>
+      </c>
+      <c r="H61" t="s">
+        <v>573</v>
+      </c>
+      <c r="I61" t="s">
+        <v>574</v>
+      </c>
+      <c r="J61" t="s">
+        <v>574</v>
+      </c>
+      <c r="K61" t="s">
+        <v>573</v>
+      </c>
+      <c r="L61" t="s">
+        <v>637</v>
+      </c>
+      <c r="M61" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5345,8 +6955,29 @@
       <c r="E62">
         <v>4392</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
+        <v>574</v>
+      </c>
+      <c r="G62" t="s">
+        <v>574</v>
+      </c>
+      <c r="H62" t="s">
+        <v>573</v>
+      </c>
+      <c r="I62" t="s">
+        <v>573</v>
+      </c>
+      <c r="J62" t="s">
+        <v>574</v>
+      </c>
+      <c r="K62" t="s">
+        <v>573</v>
+      </c>
+      <c r="L62" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5362,8 +6993,29 @@
       <c r="E63">
         <v>4374</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
+        <v>574</v>
+      </c>
+      <c r="G63" t="s">
+        <v>612</v>
+      </c>
+      <c r="H63" t="s">
+        <v>573</v>
+      </c>
+      <c r="I63" t="s">
+        <v>573</v>
+      </c>
+      <c r="J63" t="s">
+        <v>574</v>
+      </c>
+      <c r="K63" t="s">
+        <v>573</v>
+      </c>
+      <c r="L63" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5379,8 +7031,29 @@
       <c r="E64">
         <v>4364</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>574</v>
+      </c>
+      <c r="G64" t="s">
+        <v>612</v>
+      </c>
+      <c r="H64" t="s">
+        <v>573</v>
+      </c>
+      <c r="I64" t="s">
+        <v>573</v>
+      </c>
+      <c r="J64" t="s">
+        <v>574</v>
+      </c>
+      <c r="K64" t="s">
+        <v>573</v>
+      </c>
+      <c r="L64" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5396,8 +7069,29 @@
       <c r="E65">
         <v>4362</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65" t="s">
+        <v>573</v>
+      </c>
+      <c r="G65" t="s">
+        <v>574</v>
+      </c>
+      <c r="H65" t="s">
+        <v>573</v>
+      </c>
+      <c r="I65" t="s">
+        <v>573</v>
+      </c>
+      <c r="J65" t="s">
+        <v>574</v>
+      </c>
+      <c r="K65" t="s">
+        <v>573</v>
+      </c>
+      <c r="L65" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5413,8 +7107,29 @@
       <c r="E66">
         <v>4323</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
+        <v>574</v>
+      </c>
+      <c r="G66" t="s">
+        <v>574</v>
+      </c>
+      <c r="H66" t="s">
+        <v>573</v>
+      </c>
+      <c r="I66" t="s">
+        <v>573</v>
+      </c>
+      <c r="J66" t="s">
+        <v>574</v>
+      </c>
+      <c r="K66" t="s">
+        <v>573</v>
+      </c>
+      <c r="L66" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5430,8 +7145,29 @@
       <c r="E67">
         <v>4306</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67" t="s">
+        <v>574</v>
+      </c>
+      <c r="G67" t="s">
+        <v>574</v>
+      </c>
+      <c r="H67" t="s">
+        <v>573</v>
+      </c>
+      <c r="I67" t="s">
+        <v>573</v>
+      </c>
+      <c r="J67" t="s">
+        <v>574</v>
+      </c>
+      <c r="K67" t="s">
+        <v>573</v>
+      </c>
+      <c r="L67" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5448,7 +7184,7 @@
         <v>4295</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5465,7 +7201,7 @@
         <v>4251</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5482,7 +7218,7 @@
         <v>4244</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5499,7 +7235,7 @@
         <v>4231</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5516,7 +7252,7 @@
         <v>4221</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5533,7 +7269,7 @@
         <v>4216</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5550,7 +7286,7 @@
         <v>4196</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5567,7 +7303,7 @@
         <v>4189</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5584,7 +7320,7 @@
         <v>4185</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5601,7 +7337,7 @@
         <v>4184</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5618,7 +7354,7 @@
         <v>4170</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5635,7 +7371,7 @@
         <v>4167</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>

--- a/data/part_1_df_abstract_subset.xlsx
+++ b/data/part_1_df_abstract_subset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242766F7-F589-5A41-B725-CD39C404E515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8ECFC2-212E-824B-8DB4-17E7FD7188FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44000" yWindow="820" windowWidth="24260" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4100" yWindow="760" windowWidth="26140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="655">
   <si>
     <t>type</t>
   </si>
@@ -4081,6 +4081,51 @@
   </si>
   <si>
     <t>includes funding acknowledgement</t>
+  </si>
+  <si>
+    <t>two lang in the same &lt;jats:p&gt; element</t>
+  </si>
+  <si>
+    <t>U+202F Zero break space from general punc</t>
+  </si>
+  <si>
+    <t>article includes two languages</t>
+  </si>
+  <si>
+    <t>"uk" and "en" in article, but only "en" in metadata</t>
+  </si>
+  <si>
+    <t>"ru"  and "en" in separate &lt;jats:p&gt; elements; latin and cyrillic</t>
+  </si>
+  <si>
+    <t>includes tables, and full citation format</t>
+  </si>
+  <si>
+    <t>includes tex-math, not MathML</t>
+  </si>
+  <si>
+    <t>Crossref specifies MathML, but the tex-math is wrapped in jats tags</t>
+  </si>
+  <si>
+    <t>U+25A0, black geometric shape from geometric shapes</t>
+  </si>
+  <si>
+    <t>"pt" and "en" in article, both in the same metadata element</t>
+  </si>
+  <si>
+    <t>non-Latin char; MathML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U+2009 thin space from general punc; </t>
+  </si>
+  <si>
+    <t>Article includes "uk" and "en", but the landing page includes ukrainian, polish, and english translations</t>
+  </si>
+  <si>
+    <t>REST API only has "tr"</t>
+  </si>
+  <si>
+    <t>"bs" and "en" in article, but only "en" in metadata</t>
   </si>
 </sst>
 </file>
@@ -4472,9 +4517,9 @@
   <dimension ref="A1:M301"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
+      <selection pane="bottomLeft" activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7053,7 +7098,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -7091,7 +7136,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -7129,7 +7174,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -7167,7 +7212,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -7183,8 +7228,32 @@
       <c r="E68">
         <v>4295</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F68" t="s">
+        <v>574</v>
+      </c>
+      <c r="G68" t="s">
+        <v>574</v>
+      </c>
+      <c r="H68" t="s">
+        <v>591</v>
+      </c>
+      <c r="I68" t="s">
+        <v>573</v>
+      </c>
+      <c r="J68" t="s">
+        <v>574</v>
+      </c>
+      <c r="K68" t="s">
+        <v>573</v>
+      </c>
+      <c r="L68" t="s">
+        <v>615</v>
+      </c>
+      <c r="M68" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -7200,8 +7269,29 @@
       <c r="E69">
         <v>4251</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
+        <v>574</v>
+      </c>
+      <c r="G69" t="s">
+        <v>574</v>
+      </c>
+      <c r="H69" t="s">
+        <v>573</v>
+      </c>
+      <c r="I69" t="s">
+        <v>573</v>
+      </c>
+      <c r="J69" t="s">
+        <v>574</v>
+      </c>
+      <c r="K69" t="s">
+        <v>573</v>
+      </c>
+      <c r="L69" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -7217,8 +7307,32 @@
       <c r="E70">
         <v>4244</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
+        <v>574</v>
+      </c>
+      <c r="G70" t="s">
+        <v>574</v>
+      </c>
+      <c r="H70" t="s">
+        <v>573</v>
+      </c>
+      <c r="I70" t="s">
+        <v>573</v>
+      </c>
+      <c r="J70" t="s">
+        <v>574</v>
+      </c>
+      <c r="K70" t="s">
+        <v>573</v>
+      </c>
+      <c r="L70" t="s">
+        <v>595</v>
+      </c>
+      <c r="M70" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -7234,8 +7348,32 @@
       <c r="E71">
         <v>4231</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F71" t="s">
+        <v>574</v>
+      </c>
+      <c r="G71" t="s">
+        <v>612</v>
+      </c>
+      <c r="H71" t="s">
+        <v>573</v>
+      </c>
+      <c r="I71" t="s">
+        <v>574</v>
+      </c>
+      <c r="J71" t="s">
+        <v>574</v>
+      </c>
+      <c r="K71" t="s">
+        <v>573</v>
+      </c>
+      <c r="L71" t="s">
+        <v>642</v>
+      </c>
+      <c r="M71" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -7251,8 +7389,32 @@
       <c r="E72">
         <v>4221</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F72" t="s">
+        <v>574</v>
+      </c>
+      <c r="G72" t="s">
+        <v>574</v>
+      </c>
+      <c r="H72" t="s">
+        <v>591</v>
+      </c>
+      <c r="I72" t="s">
+        <v>573</v>
+      </c>
+      <c r="J72" t="s">
+        <v>574</v>
+      </c>
+      <c r="K72" t="s">
+        <v>573</v>
+      </c>
+      <c r="L72" t="s">
+        <v>616</v>
+      </c>
+      <c r="M72" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -7268,8 +7430,32 @@
       <c r="E73">
         <v>4216</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F73" t="s">
+        <v>574</v>
+      </c>
+      <c r="G73" t="s">
+        <v>574</v>
+      </c>
+      <c r="H73" t="s">
+        <v>573</v>
+      </c>
+      <c r="I73" t="s">
+        <v>573</v>
+      </c>
+      <c r="J73" t="s">
+        <v>574</v>
+      </c>
+      <c r="K73" t="s">
+        <v>573</v>
+      </c>
+      <c r="L73" t="s">
+        <v>616</v>
+      </c>
+      <c r="M73" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -7285,8 +7471,29 @@
       <c r="E74">
         <v>4196</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F74" t="s">
+        <v>574</v>
+      </c>
+      <c r="G74" t="s">
+        <v>574</v>
+      </c>
+      <c r="H74" t="s">
+        <v>573</v>
+      </c>
+      <c r="I74" t="s">
+        <v>591</v>
+      </c>
+      <c r="J74" t="s">
+        <v>574</v>
+      </c>
+      <c r="K74" t="s">
+        <v>573</v>
+      </c>
+      <c r="L74" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -7302,8 +7509,32 @@
       <c r="E75">
         <v>4189</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F75" t="s">
+        <v>574</v>
+      </c>
+      <c r="G75" t="s">
+        <v>612</v>
+      </c>
+      <c r="H75" t="s">
+        <v>573</v>
+      </c>
+      <c r="I75" t="s">
+        <v>574</v>
+      </c>
+      <c r="J75" t="s">
+        <v>574</v>
+      </c>
+      <c r="K75" t="s">
+        <v>573</v>
+      </c>
+      <c r="L75" t="s">
+        <v>642</v>
+      </c>
+      <c r="M75" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -7319,8 +7550,32 @@
       <c r="E76">
         <v>4185</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F76" t="s">
+        <v>574</v>
+      </c>
+      <c r="G76" t="s">
+        <v>574</v>
+      </c>
+      <c r="H76" t="s">
+        <v>574</v>
+      </c>
+      <c r="I76" t="s">
+        <v>574</v>
+      </c>
+      <c r="J76" t="s">
+        <v>574</v>
+      </c>
+      <c r="K76" t="s">
+        <v>573</v>
+      </c>
+      <c r="L76" t="s">
+        <v>646</v>
+      </c>
+      <c r="M76" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -7336,8 +7591,32 @@
       <c r="E77">
         <v>4184</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
+        <v>574</v>
+      </c>
+      <c r="G77" t="s">
+        <v>612</v>
+      </c>
+      <c r="H77" t="s">
+        <v>573</v>
+      </c>
+      <c r="I77" t="s">
+        <v>591</v>
+      </c>
+      <c r="J77" t="s">
+        <v>574</v>
+      </c>
+      <c r="K77" t="s">
+        <v>573</v>
+      </c>
+      <c r="L77" t="s">
+        <v>637</v>
+      </c>
+      <c r="M77" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -7353,8 +7632,32 @@
       <c r="E78">
         <v>4170</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F78" t="s">
+        <v>574</v>
+      </c>
+      <c r="G78" t="s">
+        <v>574</v>
+      </c>
+      <c r="H78" t="s">
+        <v>574</v>
+      </c>
+      <c r="I78" t="s">
+        <v>573</v>
+      </c>
+      <c r="J78" t="s">
+        <v>574</v>
+      </c>
+      <c r="K78" t="s">
+        <v>573</v>
+      </c>
+      <c r="L78" t="s">
+        <v>615</v>
+      </c>
+      <c r="M78" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -7370,8 +7673,29 @@
       <c r="E79">
         <v>4167</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
+        <v>574</v>
+      </c>
+      <c r="G79" t="s">
+        <v>574</v>
+      </c>
+      <c r="H79" t="s">
+        <v>573</v>
+      </c>
+      <c r="I79" t="s">
+        <v>573</v>
+      </c>
+      <c r="J79" t="s">
+        <v>574</v>
+      </c>
+      <c r="K79" t="s">
+        <v>573</v>
+      </c>
+      <c r="L79" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -7387,8 +7711,29 @@
       <c r="E80">
         <v>4162</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80" t="s">
+        <v>573</v>
+      </c>
+      <c r="G80" t="s">
+        <v>612</v>
+      </c>
+      <c r="H80" t="s">
+        <v>573</v>
+      </c>
+      <c r="I80" t="s">
+        <v>573</v>
+      </c>
+      <c r="J80" t="s">
+        <v>574</v>
+      </c>
+      <c r="K80" t="s">
+        <v>573</v>
+      </c>
+      <c r="L80" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -7404,8 +7749,29 @@
       <c r="E81">
         <v>4160</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81" t="s">
+        <v>574</v>
+      </c>
+      <c r="G81" t="s">
+        <v>574</v>
+      </c>
+      <c r="H81" t="s">
+        <v>573</v>
+      </c>
+      <c r="I81" t="s">
+        <v>573</v>
+      </c>
+      <c r="J81" t="s">
+        <v>574</v>
+      </c>
+      <c r="K81" t="s">
+        <v>573</v>
+      </c>
+      <c r="L81" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -7421,8 +7787,29 @@
       <c r="E82">
         <v>4148</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82" t="s">
+        <v>574</v>
+      </c>
+      <c r="G82" t="s">
+        <v>574</v>
+      </c>
+      <c r="H82" t="s">
+        <v>573</v>
+      </c>
+      <c r="I82" t="s">
+        <v>573</v>
+      </c>
+      <c r="J82" t="s">
+        <v>574</v>
+      </c>
+      <c r="K82" t="s">
+        <v>573</v>
+      </c>
+      <c r="L82" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -7438,8 +7825,29 @@
       <c r="E83">
         <v>4147</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83" t="s">
+        <v>574</v>
+      </c>
+      <c r="G83" t="s">
+        <v>612</v>
+      </c>
+      <c r="H83" t="s">
+        <v>573</v>
+      </c>
+      <c r="I83" t="s">
+        <v>573</v>
+      </c>
+      <c r="J83" t="s">
+        <v>574</v>
+      </c>
+      <c r="K83" t="s">
+        <v>573</v>
+      </c>
+      <c r="L83" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -7455,8 +7863,29 @@
       <c r="E84">
         <v>4117</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84" t="s">
+        <v>574</v>
+      </c>
+      <c r="G84" t="s">
+        <v>574</v>
+      </c>
+      <c r="H84" t="s">
+        <v>573</v>
+      </c>
+      <c r="I84" t="s">
+        <v>573</v>
+      </c>
+      <c r="J84" t="s">
+        <v>574</v>
+      </c>
+      <c r="K84" t="s">
+        <v>573</v>
+      </c>
+      <c r="L84" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -7472,8 +7901,29 @@
       <c r="E85">
         <v>4112</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85" t="s">
+        <v>574</v>
+      </c>
+      <c r="G85" t="s">
+        <v>574</v>
+      </c>
+      <c r="H85" t="s">
+        <v>573</v>
+      </c>
+      <c r="I85" t="s">
+        <v>591</v>
+      </c>
+      <c r="J85" t="s">
+        <v>574</v>
+      </c>
+      <c r="K85" t="s">
+        <v>573</v>
+      </c>
+      <c r="L85" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -7489,8 +7939,32 @@
       <c r="E86">
         <v>4100</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86" t="s">
+        <v>573</v>
+      </c>
+      <c r="G86" t="s">
+        <v>574</v>
+      </c>
+      <c r="H86" t="s">
+        <v>573</v>
+      </c>
+      <c r="I86" t="s">
+        <v>573</v>
+      </c>
+      <c r="J86" t="s">
+        <v>574</v>
+      </c>
+      <c r="K86" t="s">
+        <v>573</v>
+      </c>
+      <c r="L86" t="s">
+        <v>650</v>
+      </c>
+      <c r="M86" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -7506,8 +7980,32 @@
       <c r="E87">
         <v>4099</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87" t="s">
+        <v>574</v>
+      </c>
+      <c r="G87" t="s">
+        <v>574</v>
+      </c>
+      <c r="H87" t="s">
+        <v>574</v>
+      </c>
+      <c r="I87" t="s">
+        <v>574</v>
+      </c>
+      <c r="J87" t="s">
+        <v>574</v>
+      </c>
+      <c r="K87" t="s">
+        <v>573</v>
+      </c>
+      <c r="L87" t="s">
+        <v>642</v>
+      </c>
+      <c r="M87" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -7523,8 +8021,29 @@
       <c r="E88">
         <v>4077</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F88" t="s">
+        <v>574</v>
+      </c>
+      <c r="G88" t="s">
+        <v>574</v>
+      </c>
+      <c r="H88" t="s">
+        <v>573</v>
+      </c>
+      <c r="I88" t="s">
+        <v>573</v>
+      </c>
+      <c r="J88" t="s">
+        <v>574</v>
+      </c>
+      <c r="K88" t="s">
+        <v>573</v>
+      </c>
+      <c r="L88" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -7540,8 +8059,32 @@
       <c r="E89">
         <v>4075</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F89" t="s">
+        <v>574</v>
+      </c>
+      <c r="G89" t="s">
+        <v>613</v>
+      </c>
+      <c r="H89" t="s">
+        <v>573</v>
+      </c>
+      <c r="I89" t="s">
+        <v>573</v>
+      </c>
+      <c r="J89" t="s">
+        <v>574</v>
+      </c>
+      <c r="K89" t="s">
+        <v>574</v>
+      </c>
+      <c r="L89" t="s">
+        <v>633</v>
+      </c>
+      <c r="M89" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -7557,8 +8100,32 @@
       <c r="E90">
         <v>4069</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F90" t="s">
+        <v>574</v>
+      </c>
+      <c r="G90" t="s">
+        <v>574</v>
+      </c>
+      <c r="H90" t="s">
+        <v>591</v>
+      </c>
+      <c r="I90" t="s">
+        <v>574</v>
+      </c>
+      <c r="J90" t="s">
+        <v>574</v>
+      </c>
+      <c r="K90" t="s">
+        <v>573</v>
+      </c>
+      <c r="L90" t="s">
+        <v>642</v>
+      </c>
+      <c r="M90" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -7575,7 +8142,7 @@
         <v>4053</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -7592,7 +8159,7 @@
         <v>4045</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -7609,7 +8176,7 @@
         <v>4034</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -7626,7 +8193,7 @@
         <v>4033</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -7643,7 +8210,7 @@
         <v>4024</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>

--- a/data/part_1_df_abstract_subset.xlsx
+++ b/data/part_1_df_abstract_subset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8ECFC2-212E-824B-8DB4-17E7FD7188FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF79AF5-7B03-3B42-80A8-CEDB2188BF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4100" yWindow="760" windowWidth="26140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37700" yWindow="1300" windowWidth="26140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="661">
   <si>
     <t>type</t>
   </si>
@@ -4126,6 +4126,24 @@
   </si>
   <si>
     <t>"bs" and "en" in article, but only "en" in metadata</t>
+  </si>
+  <si>
+    <t>non-Latin char;  includes disclosures</t>
+  </si>
+  <si>
+    <t>"en" and "id" in abstract metadata in one &lt;jats:p&gt; element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bad url </t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>landing page in "en" and "ko"</t>
+  </si>
+  <si>
+    <t>artwork</t>
   </si>
 </sst>
 </file>
@@ -4516,10 +4534,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C91" sqref="C91"/>
+      <selection pane="bottomLeft" activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8141,6 +8159,27 @@
       <c r="E91">
         <v>4053</v>
       </c>
+      <c r="F91" t="s">
+        <v>574</v>
+      </c>
+      <c r="G91" t="s">
+        <v>574</v>
+      </c>
+      <c r="H91" t="s">
+        <v>573</v>
+      </c>
+      <c r="I91" t="s">
+        <v>573</v>
+      </c>
+      <c r="J91" t="s">
+        <v>574</v>
+      </c>
+      <c r="K91" t="s">
+        <v>573</v>
+      </c>
+      <c r="L91" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
@@ -8158,6 +8197,30 @@
       <c r="E92">
         <v>4045</v>
       </c>
+      <c r="F92" t="s">
+        <v>573</v>
+      </c>
+      <c r="G92" t="s">
+        <v>612</v>
+      </c>
+      <c r="H92" t="s">
+        <v>573</v>
+      </c>
+      <c r="I92" t="s">
+        <v>573</v>
+      </c>
+      <c r="J92" t="s">
+        <v>574</v>
+      </c>
+      <c r="K92" t="s">
+        <v>573</v>
+      </c>
+      <c r="L92" t="s">
+        <v>650</v>
+      </c>
+      <c r="M92" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
@@ -8175,6 +8238,30 @@
       <c r="E93">
         <v>4034</v>
       </c>
+      <c r="F93" t="s">
+        <v>574</v>
+      </c>
+      <c r="G93" t="s">
+        <v>574</v>
+      </c>
+      <c r="H93" t="s">
+        <v>573</v>
+      </c>
+      <c r="I93" t="s">
+        <v>573</v>
+      </c>
+      <c r="J93" t="s">
+        <v>574</v>
+      </c>
+      <c r="K93" t="s">
+        <v>573</v>
+      </c>
+      <c r="L93" t="s">
+        <v>595</v>
+      </c>
+      <c r="M93" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
@@ -8192,6 +8279,27 @@
       <c r="E94">
         <v>4033</v>
       </c>
+      <c r="F94" t="s">
+        <v>574</v>
+      </c>
+      <c r="G94" t="s">
+        <v>612</v>
+      </c>
+      <c r="H94" t="s">
+        <v>573</v>
+      </c>
+      <c r="I94" t="s">
+        <v>573</v>
+      </c>
+      <c r="J94" t="s">
+        <v>574</v>
+      </c>
+      <c r="K94" t="s">
+        <v>573</v>
+      </c>
+      <c r="L94" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
@@ -8209,6 +8317,27 @@
       <c r="E95">
         <v>4024</v>
       </c>
+      <c r="F95" t="s">
+        <v>574</v>
+      </c>
+      <c r="G95" t="s">
+        <v>574</v>
+      </c>
+      <c r="H95" t="s">
+        <v>573</v>
+      </c>
+      <c r="I95" t="s">
+        <v>573</v>
+      </c>
+      <c r="J95" t="s">
+        <v>574</v>
+      </c>
+      <c r="K95" t="s">
+        <v>573</v>
+      </c>
+      <c r="L95" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
@@ -8226,8 +8355,29 @@
       <c r="E96">
         <v>4015</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F96" t="s">
+        <v>574</v>
+      </c>
+      <c r="G96" t="s">
+        <v>574</v>
+      </c>
+      <c r="H96" t="s">
+        <v>573</v>
+      </c>
+      <c r="I96" t="s">
+        <v>573</v>
+      </c>
+      <c r="J96" t="s">
+        <v>574</v>
+      </c>
+      <c r="K96" t="s">
+        <v>573</v>
+      </c>
+      <c r="L96" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -8243,8 +8393,32 @@
       <c r="E97">
         <v>3991</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F97" t="s">
+        <v>574</v>
+      </c>
+      <c r="G97" t="s">
+        <v>574</v>
+      </c>
+      <c r="H97" t="s">
+        <v>573</v>
+      </c>
+      <c r="I97" t="s">
+        <v>573</v>
+      </c>
+      <c r="J97" t="s">
+        <v>574</v>
+      </c>
+      <c r="K97" t="s">
+        <v>573</v>
+      </c>
+      <c r="L97" t="s">
+        <v>655</v>
+      </c>
+      <c r="M97" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -8260,8 +8434,32 @@
       <c r="E98">
         <v>3980</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F98" t="s">
+        <v>574</v>
+      </c>
+      <c r="G98" t="s">
+        <v>574</v>
+      </c>
+      <c r="H98" t="s">
+        <v>573</v>
+      </c>
+      <c r="I98" t="s">
+        <v>591</v>
+      </c>
+      <c r="J98" t="s">
+        <v>574</v>
+      </c>
+      <c r="K98" t="s">
+        <v>573</v>
+      </c>
+      <c r="L98" t="s">
+        <v>615</v>
+      </c>
+      <c r="M98" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -8277,8 +8475,29 @@
       <c r="E99">
         <v>3977</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F99" t="s">
+        <v>574</v>
+      </c>
+      <c r="G99" t="s">
+        <v>574</v>
+      </c>
+      <c r="H99" t="s">
+        <v>573</v>
+      </c>
+      <c r="I99" t="s">
+        <v>573</v>
+      </c>
+      <c r="J99" t="s">
+        <v>574</v>
+      </c>
+      <c r="K99" t="s">
+        <v>573</v>
+      </c>
+      <c r="L99" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -8294,8 +8513,29 @@
       <c r="E100">
         <v>3974</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F100" t="s">
+        <v>574</v>
+      </c>
+      <c r="G100" t="s">
+        <v>574</v>
+      </c>
+      <c r="H100" t="s">
+        <v>573</v>
+      </c>
+      <c r="I100" t="s">
+        <v>573</v>
+      </c>
+      <c r="J100" t="s">
+        <v>574</v>
+      </c>
+      <c r="K100" t="s">
+        <v>573</v>
+      </c>
+      <c r="L100" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -8311,8 +8551,32 @@
       <c r="E101">
         <v>3957</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F101" t="s">
+        <v>574</v>
+      </c>
+      <c r="G101" t="s">
+        <v>574</v>
+      </c>
+      <c r="H101" t="s">
+        <v>591</v>
+      </c>
+      <c r="I101" t="s">
+        <v>591</v>
+      </c>
+      <c r="J101" t="s">
+        <v>574</v>
+      </c>
+      <c r="K101" t="s">
+        <v>573</v>
+      </c>
+      <c r="L101" t="s">
+        <v>615</v>
+      </c>
+      <c r="M101" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -8328,8 +8592,32 @@
       <c r="E102">
         <v>9</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F102" t="s">
+        <v>574</v>
+      </c>
+      <c r="G102" t="s">
+        <v>612</v>
+      </c>
+      <c r="H102" t="s">
+        <v>574</v>
+      </c>
+      <c r="I102" t="s">
+        <v>591</v>
+      </c>
+      <c r="J102" t="s">
+        <v>574</v>
+      </c>
+      <c r="K102" t="s">
+        <v>573</v>
+      </c>
+      <c r="L102" t="s">
+        <v>658</v>
+      </c>
+      <c r="M102" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -8345,8 +8633,32 @@
       <c r="E103">
         <v>9</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F103" t="s">
+        <v>574</v>
+      </c>
+      <c r="G103" t="s">
+        <v>574</v>
+      </c>
+      <c r="H103" t="s">
+        <v>573</v>
+      </c>
+      <c r="I103" t="s">
+        <v>591</v>
+      </c>
+      <c r="J103" t="s">
+        <v>574</v>
+      </c>
+      <c r="K103" t="s">
+        <v>573</v>
+      </c>
+      <c r="L103" t="s">
+        <v>658</v>
+      </c>
+      <c r="M103" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -8362,8 +8674,32 @@
       <c r="E104">
         <v>9</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F104" t="s">
+        <v>574</v>
+      </c>
+      <c r="G104" t="s">
+        <v>574</v>
+      </c>
+      <c r="H104" t="s">
+        <v>573</v>
+      </c>
+      <c r="I104" t="s">
+        <v>591</v>
+      </c>
+      <c r="J104" t="s">
+        <v>574</v>
+      </c>
+      <c r="K104" t="s">
+        <v>573</v>
+      </c>
+      <c r="L104" t="s">
+        <v>658</v>
+      </c>
+      <c r="M104" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -8380,7 +8716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -8397,7 +8733,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -8414,7 +8750,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -8431,7 +8767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -8448,7 +8784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -8465,7 +8801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -8482,7 +8818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>

--- a/data/part_1_df_abstract_subset.xlsx
+++ b/data/part_1_df_abstract_subset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF79AF5-7B03-3B42-80A8-CEDB2188BF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0B33B1-CD9B-D347-85A2-51CA41A0E6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37700" yWindow="1300" windowWidth="26140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4100" yWindow="760" windowWidth="26140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="686">
   <si>
     <t>type</t>
   </si>
@@ -4145,6 +4145,81 @@
   <si>
     <t>artwork</t>
   </si>
+  <si>
+    <t>empty; issue-level doi</t>
+  </si>
+  <si>
+    <t>article in "en"; no abstract on article</t>
+  </si>
+  <si>
+    <t>empty; book review</t>
+  </si>
+  <si>
+    <t>empty; no abstract in article</t>
+  </si>
+  <si>
+    <t>"de","en","fr","pl","uk"</t>
+  </si>
+  <si>
+    <t>of the language attributes given in separate abstract elements, both "en" and "uk" were in English; the others were empty</t>
+  </si>
+  <si>
+    <t>first abstract was empty, the second and last had content</t>
+  </si>
+  <si>
+    <t>"zh"</t>
+  </si>
+  <si>
+    <t>landing page in "zh"; can't verify</t>
+  </si>
+  <si>
+    <t>two language abstracts, both in separate containers, but there are still empty elements</t>
+  </si>
+  <si>
+    <t>first element is empty, but others have abstract</t>
+  </si>
+  <si>
+    <t>article is in "fr"</t>
+  </si>
+  <si>
+    <t>"en","nl"</t>
+  </si>
+  <si>
+    <t>bad url</t>
+  </si>
+  <si>
+    <t>empty; landing page has "en" abstract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ko" landing page, but has "en" abstract available. </t>
+  </si>
+  <si>
+    <t>"de","en","fr","it","lt","ru"</t>
+  </si>
+  <si>
+    <t>two languages have abstracts in separate containers; article has "en" and "lt" versions of abstract</t>
+  </si>
+  <si>
+    <t>"ar","en"</t>
+  </si>
+  <si>
+    <t>empty; article has abstract</t>
+  </si>
+  <si>
+    <t>article has "ru" version of abstract</t>
+  </si>
+  <si>
+    <t>test doi</t>
+  </si>
+  <si>
+    <t>test doi as stated in &lt;title&gt; element; points to real article</t>
+  </si>
+  <si>
+    <t>"es"</t>
+  </si>
+  <si>
+    <t>introduction</t>
+  </si>
 </sst>
 </file>
 
@@ -4165,7 +4240,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4175,6 +4250,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4215,7 +4296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4230,6 +4311,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4534,10 +4616,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C105" sqref="C105"/>
+      <selection pane="bottomLeft" activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8693,10 +8775,7 @@
         <v>573</v>
       </c>
       <c r="L104" t="s">
-        <v>658</v>
-      </c>
-      <c r="M104" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
@@ -8715,6 +8794,27 @@
       <c r="E105">
         <v>9</v>
       </c>
+      <c r="F105" t="s">
+        <v>574</v>
+      </c>
+      <c r="G105" t="s">
+        <v>612</v>
+      </c>
+      <c r="H105" t="s">
+        <v>573</v>
+      </c>
+      <c r="I105" t="s">
+        <v>591</v>
+      </c>
+      <c r="J105" t="s">
+        <v>574</v>
+      </c>
+      <c r="K105" t="s">
+        <v>573</v>
+      </c>
+      <c r="L105" t="s">
+        <v>661</v>
+      </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
@@ -8732,6 +8832,30 @@
       <c r="E106">
         <v>9</v>
       </c>
+      <c r="F106" t="s">
+        <v>574</v>
+      </c>
+      <c r="G106" t="s">
+        <v>574</v>
+      </c>
+      <c r="H106" t="s">
+        <v>573</v>
+      </c>
+      <c r="I106" t="s">
+        <v>573</v>
+      </c>
+      <c r="J106" t="s">
+        <v>574</v>
+      </c>
+      <c r="K106" t="s">
+        <v>573</v>
+      </c>
+      <c r="L106" t="s">
+        <v>664</v>
+      </c>
+      <c r="M106" t="s">
+        <v>662</v>
+      </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
@@ -8749,6 +8873,27 @@
       <c r="E107">
         <v>9</v>
       </c>
+      <c r="F107" t="s">
+        <v>574</v>
+      </c>
+      <c r="G107" t="s">
+        <v>574</v>
+      </c>
+      <c r="H107" t="s">
+        <v>573</v>
+      </c>
+      <c r="I107" t="s">
+        <v>573</v>
+      </c>
+      <c r="J107" t="s">
+        <v>574</v>
+      </c>
+      <c r="K107" t="s">
+        <v>573</v>
+      </c>
+      <c r="L107" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
@@ -8766,6 +8911,27 @@
       <c r="E108">
         <v>9</v>
       </c>
+      <c r="F108" t="s">
+        <v>574</v>
+      </c>
+      <c r="G108" t="s">
+        <v>574</v>
+      </c>
+      <c r="H108" t="s">
+        <v>573</v>
+      </c>
+      <c r="I108" t="s">
+        <v>573</v>
+      </c>
+      <c r="J108" t="s">
+        <v>574</v>
+      </c>
+      <c r="K108" t="s">
+        <v>573</v>
+      </c>
+      <c r="L108" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
@@ -8774,14 +8940,38 @@
       <c r="B109" t="s">
         <v>4</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="6">
         <v>9</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="H109" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="I109" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="J109" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="K109" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="L109" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="M109" s="6" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
@@ -8800,6 +8990,30 @@
       <c r="E110">
         <v>9</v>
       </c>
+      <c r="F110" t="s">
+        <v>574</v>
+      </c>
+      <c r="G110" t="s">
+        <v>668</v>
+      </c>
+      <c r="H110" t="s">
+        <v>574</v>
+      </c>
+      <c r="I110" t="s">
+        <v>591</v>
+      </c>
+      <c r="J110" t="s">
+        <v>574</v>
+      </c>
+      <c r="K110" t="s">
+        <v>573</v>
+      </c>
+      <c r="L110" t="s">
+        <v>658</v>
+      </c>
+      <c r="M110" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
@@ -8817,6 +9031,27 @@
       <c r="E111">
         <v>9</v>
       </c>
+      <c r="F111" t="s">
+        <v>574</v>
+      </c>
+      <c r="G111" t="s">
+        <v>574</v>
+      </c>
+      <c r="H111" t="s">
+        <v>573</v>
+      </c>
+      <c r="I111" t="s">
+        <v>573</v>
+      </c>
+      <c r="J111" t="s">
+        <v>574</v>
+      </c>
+      <c r="K111" t="s">
+        <v>573</v>
+      </c>
+      <c r="L111" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
@@ -8834,8 +9069,32 @@
       <c r="E112">
         <v>9</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F112" t="s">
+        <v>574</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="H112" t="s">
+        <v>573</v>
+      </c>
+      <c r="I112" t="s">
+        <v>573</v>
+      </c>
+      <c r="J112" t="s">
+        <v>574</v>
+      </c>
+      <c r="K112" t="s">
+        <v>574</v>
+      </c>
+      <c r="L112" t="s">
+        <v>671</v>
+      </c>
+      <c r="M112" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -8851,8 +9110,32 @@
       <c r="E113">
         <v>9</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F113" t="s">
+        <v>574</v>
+      </c>
+      <c r="G113" t="s">
+        <v>574</v>
+      </c>
+      <c r="H113" t="s">
+        <v>573</v>
+      </c>
+      <c r="I113" t="s">
+        <v>573</v>
+      </c>
+      <c r="J113" t="s">
+        <v>574</v>
+      </c>
+      <c r="K113" t="s">
+        <v>573</v>
+      </c>
+      <c r="L113" t="s">
+        <v>664</v>
+      </c>
+      <c r="M113" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -8868,8 +9151,29 @@
       <c r="E114">
         <v>9</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F114" t="s">
+        <v>574</v>
+      </c>
+      <c r="G114" t="s">
+        <v>673</v>
+      </c>
+      <c r="H114" t="s">
+        <v>573</v>
+      </c>
+      <c r="I114" t="s">
+        <v>574</v>
+      </c>
+      <c r="J114" t="s">
+        <v>574</v>
+      </c>
+      <c r="K114" t="s">
+        <v>573</v>
+      </c>
+      <c r="L114" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -8885,8 +9189,29 @@
       <c r="E115">
         <v>9</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F115" t="s">
+        <v>574</v>
+      </c>
+      <c r="G115" t="s">
+        <v>668</v>
+      </c>
+      <c r="H115" t="s">
+        <v>591</v>
+      </c>
+      <c r="I115" t="s">
+        <v>591</v>
+      </c>
+      <c r="J115" t="s">
+        <v>574</v>
+      </c>
+      <c r="K115" t="s">
+        <v>573</v>
+      </c>
+      <c r="L115" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -8902,8 +9227,32 @@
       <c r="E116">
         <v>9</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F116" t="s">
+        <v>574</v>
+      </c>
+      <c r="G116" t="s">
+        <v>612</v>
+      </c>
+      <c r="H116" t="s">
+        <v>574</v>
+      </c>
+      <c r="I116" t="s">
+        <v>591</v>
+      </c>
+      <c r="J116" t="s">
+        <v>574</v>
+      </c>
+      <c r="K116" t="s">
+        <v>573</v>
+      </c>
+      <c r="L116" t="s">
+        <v>675</v>
+      </c>
+      <c r="M116" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -8919,8 +9268,29 @@
       <c r="E117">
         <v>10</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F117" t="s">
+        <v>574</v>
+      </c>
+      <c r="G117" t="s">
+        <v>574</v>
+      </c>
+      <c r="H117" t="s">
+        <v>573</v>
+      </c>
+      <c r="I117" t="s">
+        <v>573</v>
+      </c>
+      <c r="J117" t="s">
+        <v>574</v>
+      </c>
+      <c r="K117" t="s">
+        <v>573</v>
+      </c>
+      <c r="L117" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -8936,8 +9306,32 @@
       <c r="E118">
         <v>10</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F118" t="s">
+        <v>574</v>
+      </c>
+      <c r="G118" t="s">
+        <v>677</v>
+      </c>
+      <c r="H118" t="s">
+        <v>574</v>
+      </c>
+      <c r="I118" t="s">
+        <v>574</v>
+      </c>
+      <c r="J118" t="s">
+        <v>574</v>
+      </c>
+      <c r="K118" t="s">
+        <v>574</v>
+      </c>
+      <c r="L118" t="s">
+        <v>671</v>
+      </c>
+      <c r="M118" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -8953,8 +9347,29 @@
       <c r="E119">
         <v>10</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F119" t="s">
+        <v>574</v>
+      </c>
+      <c r="G119" t="s">
+        <v>574</v>
+      </c>
+      <c r="H119" t="s">
+        <v>573</v>
+      </c>
+      <c r="I119" t="s">
+        <v>573</v>
+      </c>
+      <c r="J119" t="s">
+        <v>574</v>
+      </c>
+      <c r="K119" t="s">
+        <v>573</v>
+      </c>
+      <c r="L119" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -8970,8 +9385,29 @@
       <c r="E120">
         <v>18</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F120" t="s">
+        <v>574</v>
+      </c>
+      <c r="G120" t="s">
+        <v>679</v>
+      </c>
+      <c r="H120" t="s">
+        <v>573</v>
+      </c>
+      <c r="I120" t="s">
+        <v>573</v>
+      </c>
+      <c r="J120" t="s">
+        <v>574</v>
+      </c>
+      <c r="K120" t="s">
+        <v>573</v>
+      </c>
+      <c r="L120" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -8987,8 +9423,32 @@
       <c r="E121">
         <v>18</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F121" t="s">
+        <v>574</v>
+      </c>
+      <c r="G121" t="s">
+        <v>574</v>
+      </c>
+      <c r="H121" t="s">
+        <v>574</v>
+      </c>
+      <c r="I121" t="s">
+        <v>574</v>
+      </c>
+      <c r="J121" t="s">
+        <v>574</v>
+      </c>
+      <c r="K121" t="s">
+        <v>573</v>
+      </c>
+      <c r="L121" t="s">
+        <v>680</v>
+      </c>
+      <c r="M121" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -9004,8 +9464,29 @@
       <c r="E122">
         <v>18</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F122" t="s">
+        <v>574</v>
+      </c>
+      <c r="G122" t="s">
+        <v>574</v>
+      </c>
+      <c r="H122" t="s">
+        <v>573</v>
+      </c>
+      <c r="I122" t="s">
+        <v>573</v>
+      </c>
+      <c r="J122" t="s">
+        <v>574</v>
+      </c>
+      <c r="K122" t="s">
+        <v>573</v>
+      </c>
+      <c r="L122" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -9021,8 +9502,29 @@
       <c r="E123">
         <v>18</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F123" t="s">
+        <v>574</v>
+      </c>
+      <c r="G123" t="s">
+        <v>574</v>
+      </c>
+      <c r="H123" t="s">
+        <v>591</v>
+      </c>
+      <c r="I123" t="s">
+        <v>591</v>
+      </c>
+      <c r="J123" t="s">
+        <v>574</v>
+      </c>
+      <c r="K123" t="s">
+        <v>573</v>
+      </c>
+      <c r="L123" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -9038,8 +9540,29 @@
       <c r="E124">
         <v>18</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F124" t="s">
+        <v>574</v>
+      </c>
+      <c r="G124" t="s">
+        <v>574</v>
+      </c>
+      <c r="H124" t="s">
+        <v>573</v>
+      </c>
+      <c r="I124" t="s">
+        <v>573</v>
+      </c>
+      <c r="J124" t="s">
+        <v>574</v>
+      </c>
+      <c r="K124" t="s">
+        <v>573</v>
+      </c>
+      <c r="L124" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -9055,8 +9578,32 @@
       <c r="E125">
         <v>18</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F125" t="s">
+        <v>574</v>
+      </c>
+      <c r="G125" t="s">
+        <v>574</v>
+      </c>
+      <c r="H125" t="s">
+        <v>573</v>
+      </c>
+      <c r="I125" t="s">
+        <v>574</v>
+      </c>
+      <c r="J125" t="s">
+        <v>574</v>
+      </c>
+      <c r="K125" t="s">
+        <v>573</v>
+      </c>
+      <c r="L125" t="s">
+        <v>682</v>
+      </c>
+      <c r="M125" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -9072,8 +9619,32 @@
       <c r="E126">
         <v>18</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F126" t="s">
+        <v>574</v>
+      </c>
+      <c r="G126" t="s">
+        <v>684</v>
+      </c>
+      <c r="H126" t="s">
+        <v>573</v>
+      </c>
+      <c r="I126" t="s">
+        <v>573</v>
+      </c>
+      <c r="J126" t="s">
+        <v>574</v>
+      </c>
+      <c r="K126" t="s">
+        <v>573</v>
+      </c>
+      <c r="L126" t="s">
+        <v>664</v>
+      </c>
+      <c r="M126" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -9090,7 +9661,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>

--- a/data/part_1_df_abstract_subset.xlsx
+++ b/data/part_1_df_abstract_subset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0B33B1-CD9B-D347-85A2-51CA41A0E6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885C97DA-A521-4445-8D0C-6B84331DDB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4100" yWindow="760" windowWidth="26140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44000" yWindow="820" windowWidth="24260" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="718">
   <si>
     <t>type</t>
   </si>
@@ -4077,6 +4077,9 @@
     <t>non-Latin char; includes hyperlinks</t>
   </si>
   <si>
+    <t>front matter</t>
+  </si>
+  <si>
     <t>front matter; includes personal contact information</t>
   </si>
   <si>
@@ -4219,6 +4222,99 @@
   </si>
   <si>
     <t>introduction</t>
+  </si>
+  <si>
+    <t>letters to the editor</t>
+  </si>
+  <si>
+    <t>book-chapter</t>
+  </si>
+  <si>
+    <t>proceedings abstract</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Editorial</t>
+  </si>
+  <si>
+    <t>Surrogatendpunkte</t>
+  </si>
+  <si>
+    <t>"pt"</t>
+  </si>
+  <si>
+    <t>article has both "pt" and "en" abstracts</t>
+  </si>
+  <si>
+    <t>"ar"</t>
+  </si>
+  <si>
+    <t>bibliography</t>
+  </si>
+  <si>
+    <t>editorial</t>
+  </si>
+  <si>
+    <t>the article is an abstract</t>
+  </si>
+  <si>
+    <t>proceedings preface</t>
+  </si>
+  <si>
+    <t>op-ed</t>
+  </si>
+  <si>
+    <t>abstract is in article</t>
+  </si>
+  <si>
+    <t>"de","en"</t>
+  </si>
+  <si>
+    <t>full review</t>
+  </si>
+  <si>
+    <t>the most egregious example of neglegence</t>
+  </si>
+  <si>
+    <t>Landing page has abstract, but article does not.</t>
+  </si>
+  <si>
+    <t>correction</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>biblio information; abstract in article and landing page</t>
+  </si>
+  <si>
+    <t>abstract in "ru" on landing page and in article</t>
+  </si>
+  <si>
+    <t>hiragana, katakana, CJK Ideograph, latin</t>
+  </si>
+  <si>
+    <t>"de"</t>
+  </si>
+  <si>
+    <t>"en" attribute but in "de"</t>
+  </si>
+  <si>
+    <t>no abstract in article</t>
+  </si>
+  <si>
+    <t>"tr"</t>
+  </si>
+  <si>
+    <t>article title used as abstract</t>
+  </si>
+  <si>
+    <t>section title used as abstract</t>
+  </si>
+  <si>
+    <t>"tr" attribute but editorial in "en"</t>
   </si>
 </sst>
 </file>
@@ -4296,7 +4392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4312,6 +4408,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4616,10 +4715,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C127" sqref="C127"/>
+      <selection pane="bottomLeft" activeCell="F180" sqref="F180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7271,7 +7370,7 @@
         <v>573</v>
       </c>
       <c r="L66" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
@@ -7309,7 +7408,7 @@
         <v>573</v>
       </c>
       <c r="L67" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
@@ -7350,7 +7449,7 @@
         <v>615</v>
       </c>
       <c r="M68" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
@@ -7429,7 +7528,7 @@
         <v>595</v>
       </c>
       <c r="M70" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
@@ -7467,10 +7566,10 @@
         <v>573</v>
       </c>
       <c r="L71" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="M71" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
@@ -7552,7 +7651,7 @@
         <v>616</v>
       </c>
       <c r="M73" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
@@ -7590,7 +7689,7 @@
         <v>573</v>
       </c>
       <c r="L74" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
@@ -7628,10 +7727,10 @@
         <v>573</v>
       </c>
       <c r="L75" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="M75" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
@@ -7669,10 +7768,10 @@
         <v>573</v>
       </c>
       <c r="L76" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="M76" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
@@ -7713,7 +7812,7 @@
         <v>637</v>
       </c>
       <c r="M77" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
@@ -7754,7 +7853,7 @@
         <v>615</v>
       </c>
       <c r="M78" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
@@ -7982,7 +8081,7 @@
         <v>573</v>
       </c>
       <c r="L84" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
@@ -8058,10 +8157,10 @@
         <v>573</v>
       </c>
       <c r="L86" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="M86" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
@@ -8099,10 +8198,10 @@
         <v>573</v>
       </c>
       <c r="L87" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="M87" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
@@ -8181,7 +8280,7 @@
         <v>633</v>
       </c>
       <c r="M89" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
@@ -8219,10 +8318,10 @@
         <v>573</v>
       </c>
       <c r="L90" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="M90" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
@@ -8298,10 +8397,10 @@
         <v>573</v>
       </c>
       <c r="L92" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="M92" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
@@ -8342,7 +8441,7 @@
         <v>595</v>
       </c>
       <c r="M93" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
@@ -8494,10 +8593,10 @@
         <v>573</v>
       </c>
       <c r="L97" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="M97" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
@@ -8538,7 +8637,7 @@
         <v>615</v>
       </c>
       <c r="M98" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
@@ -8655,7 +8754,7 @@
         <v>615</v>
       </c>
       <c r="M101" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
@@ -8693,10 +8792,10 @@
         <v>573</v>
       </c>
       <c r="L102" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M102" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
@@ -8734,10 +8833,10 @@
         <v>573</v>
       </c>
       <c r="L103" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M103" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
@@ -8775,7 +8874,7 @@
         <v>573</v>
       </c>
       <c r="L104" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
@@ -8813,7 +8912,7 @@
         <v>573</v>
       </c>
       <c r="L105" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
@@ -8851,10 +8950,10 @@
         <v>573</v>
       </c>
       <c r="L106" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="M106" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
@@ -8892,7 +8991,7 @@
         <v>573</v>
       </c>
       <c r="L107" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
@@ -8930,7 +9029,7 @@
         <v>573</v>
       </c>
       <c r="L108" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
@@ -8953,7 +9052,7 @@
         <v>574</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H109" s="6" t="s">
         <v>574</v>
@@ -8968,10 +9067,10 @@
         <v>574</v>
       </c>
       <c r="L109" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="M109" s="6" t="s">
         <v>667</v>
-      </c>
-      <c r="M109" s="6" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
@@ -8994,7 +9093,7 @@
         <v>574</v>
       </c>
       <c r="G110" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H110" t="s">
         <v>574</v>
@@ -9009,10 +9108,10 @@
         <v>573</v>
       </c>
       <c r="L110" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M110" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
@@ -9050,7 +9149,7 @@
         <v>573</v>
       </c>
       <c r="L111" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
@@ -9073,7 +9172,7 @@
         <v>574</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H112" t="s">
         <v>573</v>
@@ -9088,10 +9187,10 @@
         <v>574</v>
       </c>
       <c r="L112" t="s">
+        <v>672</v>
+      </c>
+      <c r="M112" t="s">
         <v>671</v>
-      </c>
-      <c r="M112" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
@@ -9129,10 +9228,10 @@
         <v>573</v>
       </c>
       <c r="L113" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="M113" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
@@ -9155,7 +9254,7 @@
         <v>574</v>
       </c>
       <c r="G114" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H114" t="s">
         <v>573</v>
@@ -9170,7 +9269,7 @@
         <v>573</v>
       </c>
       <c r="L114" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
@@ -9193,7 +9292,7 @@
         <v>574</v>
       </c>
       <c r="G115" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H115" t="s">
         <v>591</v>
@@ -9208,7 +9307,7 @@
         <v>573</v>
       </c>
       <c r="L115" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
@@ -9246,10 +9345,10 @@
         <v>573</v>
       </c>
       <c r="L116" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="M116" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
@@ -9287,7 +9386,7 @@
         <v>573</v>
       </c>
       <c r="L117" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
@@ -9310,7 +9409,7 @@
         <v>574</v>
       </c>
       <c r="G118" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H118" t="s">
         <v>574</v>
@@ -9325,10 +9424,10 @@
         <v>574</v>
       </c>
       <c r="L118" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="M118" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
@@ -9366,7 +9465,7 @@
         <v>573</v>
       </c>
       <c r="L119" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
@@ -9389,7 +9488,7 @@
         <v>574</v>
       </c>
       <c r="G120" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H120" t="s">
         <v>573</v>
@@ -9404,7 +9503,7 @@
         <v>573</v>
       </c>
       <c r="L120" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
@@ -9442,10 +9541,10 @@
         <v>573</v>
       </c>
       <c r="L121" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="M121" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
@@ -9483,7 +9582,7 @@
         <v>573</v>
       </c>
       <c r="L122" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
@@ -9521,7 +9620,7 @@
         <v>573</v>
       </c>
       <c r="L123" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
@@ -9559,7 +9658,7 @@
         <v>573</v>
       </c>
       <c r="L124" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
@@ -9597,10 +9696,10 @@
         <v>573</v>
       </c>
       <c r="L125" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="M125" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
@@ -9623,7 +9722,7 @@
         <v>574</v>
       </c>
       <c r="G126" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H126" t="s">
         <v>573</v>
@@ -9638,10 +9737,10 @@
         <v>573</v>
       </c>
       <c r="L126" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="M126" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
@@ -9660,6 +9759,27 @@
       <c r="E127">
         <v>18</v>
       </c>
+      <c r="F127" t="s">
+        <v>574</v>
+      </c>
+      <c r="G127" t="s">
+        <v>574</v>
+      </c>
+      <c r="H127" t="s">
+        <v>573</v>
+      </c>
+      <c r="I127" t="s">
+        <v>573</v>
+      </c>
+      <c r="J127" t="s">
+        <v>574</v>
+      </c>
+      <c r="K127" t="s">
+        <v>573</v>
+      </c>
+      <c r="L127" t="s">
+        <v>665</v>
+      </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
@@ -9677,8 +9797,29 @@
       <c r="E128">
         <v>18</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F128" t="s">
+        <v>574</v>
+      </c>
+      <c r="G128" t="s">
+        <v>574</v>
+      </c>
+      <c r="H128" t="s">
+        <v>573</v>
+      </c>
+      <c r="I128" t="s">
+        <v>573</v>
+      </c>
+      <c r="J128" t="s">
+        <v>574</v>
+      </c>
+      <c r="K128" t="s">
+        <v>573</v>
+      </c>
+      <c r="L128" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -9694,8 +9835,32 @@
       <c r="E129">
         <v>18</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F129" t="s">
+        <v>574</v>
+      </c>
+      <c r="G129" t="s">
+        <v>574</v>
+      </c>
+      <c r="H129" t="s">
+        <v>573</v>
+      </c>
+      <c r="I129" t="s">
+        <v>591</v>
+      </c>
+      <c r="J129" t="s">
+        <v>574</v>
+      </c>
+      <c r="K129" t="s">
+        <v>573</v>
+      </c>
+      <c r="L129" t="s">
+        <v>665</v>
+      </c>
+      <c r="M129" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -9711,8 +9876,32 @@
       <c r="E130">
         <v>18</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F130" t="s">
+        <v>574</v>
+      </c>
+      <c r="G130" t="s">
+        <v>574</v>
+      </c>
+      <c r="H130" t="s">
+        <v>573</v>
+      </c>
+      <c r="I130" t="s">
+        <v>573</v>
+      </c>
+      <c r="J130" t="s">
+        <v>574</v>
+      </c>
+      <c r="K130" t="s">
+        <v>573</v>
+      </c>
+      <c r="L130" t="s">
+        <v>665</v>
+      </c>
+      <c r="M130" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -9728,8 +9917,29 @@
       <c r="E131">
         <v>18</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F131" t="s">
+        <v>574</v>
+      </c>
+      <c r="G131" t="s">
+        <v>574</v>
+      </c>
+      <c r="H131" t="s">
+        <v>573</v>
+      </c>
+      <c r="I131" t="s">
+        <v>591</v>
+      </c>
+      <c r="J131" t="s">
+        <v>574</v>
+      </c>
+      <c r="K131" t="s">
+        <v>573</v>
+      </c>
+      <c r="L131" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -9745,8 +9955,32 @@
       <c r="E132">
         <v>18</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F132" t="s">
+        <v>574</v>
+      </c>
+      <c r="G132" t="s">
+        <v>574</v>
+      </c>
+      <c r="H132" t="s">
+        <v>573</v>
+      </c>
+      <c r="I132" t="s">
+        <v>573</v>
+      </c>
+      <c r="J132" t="s">
+        <v>574</v>
+      </c>
+      <c r="K132" t="s">
+        <v>573</v>
+      </c>
+      <c r="L132" t="s">
+        <v>665</v>
+      </c>
+      <c r="M132" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -9762,8 +9996,32 @@
       <c r="E133">
         <v>19</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F133" t="s">
+        <v>574</v>
+      </c>
+      <c r="G133" t="s">
+        <v>574</v>
+      </c>
+      <c r="H133" t="s">
+        <v>573</v>
+      </c>
+      <c r="I133" t="s">
+        <v>574</v>
+      </c>
+      <c r="J133" t="s">
+        <v>574</v>
+      </c>
+      <c r="K133" t="s">
+        <v>573</v>
+      </c>
+      <c r="L133" t="s">
+        <v>681</v>
+      </c>
+      <c r="M133" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -9779,8 +10037,29 @@
       <c r="E134">
         <v>20</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F134" t="s">
+        <v>574</v>
+      </c>
+      <c r="G134" t="s">
+        <v>574</v>
+      </c>
+      <c r="H134" t="s">
+        <v>573</v>
+      </c>
+      <c r="I134" t="s">
+        <v>573</v>
+      </c>
+      <c r="J134" t="s">
+        <v>574</v>
+      </c>
+      <c r="K134" t="s">
+        <v>573</v>
+      </c>
+      <c r="L134" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -9796,8 +10075,32 @@
       <c r="E135">
         <v>20</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F135" t="s">
+        <v>574</v>
+      </c>
+      <c r="G135" t="s">
+        <v>574</v>
+      </c>
+      <c r="H135" t="s">
+        <v>573</v>
+      </c>
+      <c r="I135" t="s">
+        <v>573</v>
+      </c>
+      <c r="J135" t="s">
+        <v>574</v>
+      </c>
+      <c r="K135" t="s">
+        <v>573</v>
+      </c>
+      <c r="L135" t="s">
+        <v>665</v>
+      </c>
+      <c r="M135" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -9813,8 +10116,29 @@
       <c r="E136">
         <v>20</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F136" t="s">
+        <v>574</v>
+      </c>
+      <c r="G136" t="s">
+        <v>574</v>
+      </c>
+      <c r="H136" t="s">
+        <v>573</v>
+      </c>
+      <c r="I136" t="s">
+        <v>573</v>
+      </c>
+      <c r="J136" t="s">
+        <v>574</v>
+      </c>
+      <c r="K136" t="s">
+        <v>573</v>
+      </c>
+      <c r="L136" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -9830,8 +10154,32 @@
       <c r="E137">
         <v>20</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F137" t="s">
+        <v>574</v>
+      </c>
+      <c r="G137" t="s">
+        <v>574</v>
+      </c>
+      <c r="H137" t="s">
+        <v>573</v>
+      </c>
+      <c r="I137" t="s">
+        <v>573</v>
+      </c>
+      <c r="J137" t="s">
+        <v>574</v>
+      </c>
+      <c r="K137" t="s">
+        <v>573</v>
+      </c>
+      <c r="L137" t="s">
+        <v>665</v>
+      </c>
+      <c r="M137" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -9847,8 +10195,32 @@
       <c r="E138">
         <v>20</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F138" t="s">
+        <v>574</v>
+      </c>
+      <c r="G138" t="s">
+        <v>574</v>
+      </c>
+      <c r="H138" t="s">
+        <v>573</v>
+      </c>
+      <c r="I138" t="s">
+        <v>573</v>
+      </c>
+      <c r="J138" t="s">
+        <v>574</v>
+      </c>
+      <c r="K138" t="s">
+        <v>573</v>
+      </c>
+      <c r="L138" t="s">
+        <v>665</v>
+      </c>
+      <c r="M138" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -9864,25 +10236,70 @@
       <c r="E139">
         <v>20</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" s="1">
+      <c r="F139" t="s">
+        <v>574</v>
+      </c>
+      <c r="G139" t="s">
+        <v>574</v>
+      </c>
+      <c r="H139" t="s">
+        <v>591</v>
+      </c>
+      <c r="I139" t="s">
+        <v>573</v>
+      </c>
+      <c r="J139" t="s">
+        <v>574</v>
+      </c>
+      <c r="K139" t="s">
+        <v>573</v>
+      </c>
+      <c r="L139" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A140" s="7">
         <v>138</v>
       </c>
-      <c r="B140" t="s">
-        <v>4</v>
-      </c>
-      <c r="C140" t="s">
+      <c r="B140" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="E140">
+      <c r="E140" s="6">
         <v>21</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F140" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="G140" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="H140" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="I140" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="J140" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="K140" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="L140" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="M140" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -9898,8 +10315,29 @@
       <c r="E141">
         <v>23</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F141" t="s">
+        <v>574</v>
+      </c>
+      <c r="G141" t="s">
+        <v>574</v>
+      </c>
+      <c r="H141" t="s">
+        <v>573</v>
+      </c>
+      <c r="I141" t="s">
+        <v>573</v>
+      </c>
+      <c r="J141" t="s">
+        <v>574</v>
+      </c>
+      <c r="K141" t="s">
+        <v>573</v>
+      </c>
+      <c r="L141" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -9915,8 +10353,29 @@
       <c r="E142">
         <v>23</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F142" t="s">
+        <v>574</v>
+      </c>
+      <c r="G142" t="s">
+        <v>574</v>
+      </c>
+      <c r="H142" t="s">
+        <v>573</v>
+      </c>
+      <c r="I142" t="s">
+        <v>573</v>
+      </c>
+      <c r="J142" t="s">
+        <v>574</v>
+      </c>
+      <c r="K142" t="s">
+        <v>573</v>
+      </c>
+      <c r="L142" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -9932,8 +10391,29 @@
       <c r="E143">
         <v>23</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F143" t="s">
+        <v>574</v>
+      </c>
+      <c r="G143" t="s">
+        <v>574</v>
+      </c>
+      <c r="H143" t="s">
+        <v>573</v>
+      </c>
+      <c r="I143" t="s">
+        <v>573</v>
+      </c>
+      <c r="J143" t="s">
+        <v>574</v>
+      </c>
+      <c r="K143" t="s">
+        <v>573</v>
+      </c>
+      <c r="L143" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -9949,8 +10429,29 @@
       <c r="E144">
         <v>24</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F144" t="s">
+        <v>574</v>
+      </c>
+      <c r="G144" t="s">
+        <v>695</v>
+      </c>
+      <c r="H144" t="s">
+        <v>573</v>
+      </c>
+      <c r="I144" t="s">
+        <v>573</v>
+      </c>
+      <c r="J144" t="s">
+        <v>574</v>
+      </c>
+      <c r="K144" t="s">
+        <v>573</v>
+      </c>
+      <c r="L144" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -9966,8 +10467,32 @@
       <c r="E145">
         <v>25</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F145" t="s">
+        <v>574</v>
+      </c>
+      <c r="G145" t="s">
+        <v>574</v>
+      </c>
+      <c r="H145" t="s">
+        <v>573</v>
+      </c>
+      <c r="I145" t="s">
+        <v>591</v>
+      </c>
+      <c r="J145" t="s">
+        <v>574</v>
+      </c>
+      <c r="K145" t="s">
+        <v>573</v>
+      </c>
+      <c r="L145" t="s">
+        <v>659</v>
+      </c>
+      <c r="M145" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -9983,8 +10508,29 @@
       <c r="E146">
         <v>26</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F146" t="s">
+        <v>574</v>
+      </c>
+      <c r="G146" t="s">
+        <v>574</v>
+      </c>
+      <c r="H146" t="s">
+        <v>573</v>
+      </c>
+      <c r="I146" t="s">
+        <v>573</v>
+      </c>
+      <c r="J146" t="s">
+        <v>574</v>
+      </c>
+      <c r="K146" t="s">
+        <v>573</v>
+      </c>
+      <c r="L146" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -10000,8 +10546,32 @@
       <c r="E147">
         <v>26</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F147" t="s">
+        <v>574</v>
+      </c>
+      <c r="G147" t="s">
+        <v>574</v>
+      </c>
+      <c r="H147" t="s">
+        <v>573</v>
+      </c>
+      <c r="I147" t="s">
+        <v>573</v>
+      </c>
+      <c r="J147" t="s">
+        <v>574</v>
+      </c>
+      <c r="K147" t="s">
+        <v>573</v>
+      </c>
+      <c r="L147" t="s">
+        <v>665</v>
+      </c>
+      <c r="M147" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -10017,8 +10587,29 @@
       <c r="E148">
         <v>26</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F148" t="s">
+        <v>574</v>
+      </c>
+      <c r="G148" t="s">
+        <v>574</v>
+      </c>
+      <c r="H148" t="s">
+        <v>573</v>
+      </c>
+      <c r="I148" t="s">
+        <v>573</v>
+      </c>
+      <c r="J148" t="s">
+        <v>574</v>
+      </c>
+      <c r="K148" t="s">
+        <v>573</v>
+      </c>
+      <c r="L148" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -10034,8 +10625,29 @@
       <c r="E149">
         <v>26</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F149" t="s">
+        <v>574</v>
+      </c>
+      <c r="G149" t="s">
+        <v>574</v>
+      </c>
+      <c r="H149" t="s">
+        <v>573</v>
+      </c>
+      <c r="I149" t="s">
+        <v>573</v>
+      </c>
+      <c r="J149" t="s">
+        <v>574</v>
+      </c>
+      <c r="K149" t="s">
+        <v>573</v>
+      </c>
+      <c r="L149" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -10051,8 +10663,29 @@
       <c r="E150">
         <v>26</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F150" t="s">
+        <v>574</v>
+      </c>
+      <c r="G150" t="s">
+        <v>574</v>
+      </c>
+      <c r="H150" t="s">
+        <v>573</v>
+      </c>
+      <c r="I150" t="s">
+        <v>573</v>
+      </c>
+      <c r="J150" t="s">
+        <v>574</v>
+      </c>
+      <c r="K150" t="s">
+        <v>573</v>
+      </c>
+      <c r="L150" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -10068,8 +10701,32 @@
       <c r="E151">
         <v>29</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F151" t="s">
+        <v>574</v>
+      </c>
+      <c r="G151" t="s">
+        <v>574</v>
+      </c>
+      <c r="H151" t="s">
+        <v>573</v>
+      </c>
+      <c r="I151" t="s">
+        <v>573</v>
+      </c>
+      <c r="J151" t="s">
+        <v>574</v>
+      </c>
+      <c r="K151" t="s">
+        <v>573</v>
+      </c>
+      <c r="L151" t="s">
+        <v>659</v>
+      </c>
+      <c r="M151" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -10085,8 +10742,32 @@
       <c r="E152">
         <v>30</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F152" t="s">
+        <v>574</v>
+      </c>
+      <c r="G152" t="s">
+        <v>574</v>
+      </c>
+      <c r="H152" t="s">
+        <v>573</v>
+      </c>
+      <c r="I152" t="s">
+        <v>574</v>
+      </c>
+      <c r="J152" t="s">
+        <v>574</v>
+      </c>
+      <c r="K152" t="s">
+        <v>573</v>
+      </c>
+      <c r="L152" t="s">
+        <v>681</v>
+      </c>
+      <c r="M152" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -10102,8 +10783,29 @@
       <c r="E153">
         <v>32</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F153" t="s">
+        <v>574</v>
+      </c>
+      <c r="G153" t="s">
+        <v>574</v>
+      </c>
+      <c r="H153" t="s">
+        <v>573</v>
+      </c>
+      <c r="I153" t="s">
+        <v>573</v>
+      </c>
+      <c r="J153" t="s">
+        <v>574</v>
+      </c>
+      <c r="K153" t="s">
+        <v>573</v>
+      </c>
+      <c r="L153" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -10119,8 +10821,32 @@
       <c r="E154">
         <v>38</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F154" t="s">
+        <v>574</v>
+      </c>
+      <c r="G154" t="s">
+        <v>574</v>
+      </c>
+      <c r="H154" t="s">
+        <v>573</v>
+      </c>
+      <c r="I154" t="s">
+        <v>573</v>
+      </c>
+      <c r="J154" t="s">
+        <v>574</v>
+      </c>
+      <c r="K154" t="s">
+        <v>573</v>
+      </c>
+      <c r="L154" t="s">
+        <v>665</v>
+      </c>
+      <c r="M154" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -10136,8 +10862,29 @@
       <c r="E155">
         <v>39</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F155" t="s">
+        <v>574</v>
+      </c>
+      <c r="G155" t="s">
+        <v>574</v>
+      </c>
+      <c r="H155" t="s">
+        <v>573</v>
+      </c>
+      <c r="I155" t="s">
+        <v>573</v>
+      </c>
+      <c r="J155" t="s">
+        <v>574</v>
+      </c>
+      <c r="K155" t="s">
+        <v>573</v>
+      </c>
+      <c r="L155" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -10153,8 +10900,32 @@
       <c r="E156">
         <v>44</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F156" t="s">
+        <v>574</v>
+      </c>
+      <c r="G156" t="s">
+        <v>574</v>
+      </c>
+      <c r="H156" t="s">
+        <v>573</v>
+      </c>
+      <c r="I156" t="s">
+        <v>573</v>
+      </c>
+      <c r="J156" t="s">
+        <v>574</v>
+      </c>
+      <c r="K156" t="s">
+        <v>573</v>
+      </c>
+      <c r="L156" t="s">
+        <v>665</v>
+      </c>
+      <c r="M156" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -10170,8 +10941,32 @@
       <c r="E157">
         <v>44</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F157" t="s">
+        <v>574</v>
+      </c>
+      <c r="G157" t="s">
+        <v>574</v>
+      </c>
+      <c r="H157" t="s">
+        <v>573</v>
+      </c>
+      <c r="I157" t="s">
+        <v>574</v>
+      </c>
+      <c r="J157" t="s">
+        <v>574</v>
+      </c>
+      <c r="K157" t="s">
+        <v>573</v>
+      </c>
+      <c r="L157" t="s">
+        <v>681</v>
+      </c>
+      <c r="M157" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -10187,8 +10982,32 @@
       <c r="E158">
         <v>45</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F158" t="s">
+        <v>574</v>
+      </c>
+      <c r="G158" t="s">
+        <v>702</v>
+      </c>
+      <c r="H158" t="s">
+        <v>573</v>
+      </c>
+      <c r="I158" t="s">
+        <v>573</v>
+      </c>
+      <c r="J158" t="s">
+        <v>574</v>
+      </c>
+      <c r="K158" t="s">
+        <v>573</v>
+      </c>
+      <c r="L158" t="s">
+        <v>665</v>
+      </c>
+      <c r="M158" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -10204,8 +11023,32 @@
       <c r="E159">
         <v>48</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F159" t="s">
+        <v>574</v>
+      </c>
+      <c r="G159" t="s">
+        <v>574</v>
+      </c>
+      <c r="H159" t="s">
+        <v>573</v>
+      </c>
+      <c r="I159" t="s">
+        <v>573</v>
+      </c>
+      <c r="J159" t="s">
+        <v>574</v>
+      </c>
+      <c r="K159" t="s">
+        <v>573</v>
+      </c>
+      <c r="L159" t="s">
+        <v>665</v>
+      </c>
+      <c r="M159" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -10221,42 +11064,114 @@
       <c r="E160">
         <v>48</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A161" s="1">
+      <c r="F160" t="s">
+        <v>574</v>
+      </c>
+      <c r="G160" t="s">
+        <v>574</v>
+      </c>
+      <c r="H160" t="s">
+        <v>573</v>
+      </c>
+      <c r="I160" t="s">
+        <v>573</v>
+      </c>
+      <c r="J160" t="s">
+        <v>574</v>
+      </c>
+      <c r="K160" t="s">
+        <v>573</v>
+      </c>
+      <c r="L160" t="s">
+        <v>665</v>
+      </c>
+      <c r="M160" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A161" s="7">
         <v>159</v>
       </c>
-      <c r="B161" t="s">
-        <v>4</v>
-      </c>
-      <c r="C161" t="s">
+      <c r="B161" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C161" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="E161">
+      <c r="E161" s="6">
         <v>49</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A162" s="1">
+      <c r="F161" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="G161" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="H161" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="I161" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="J161" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="K161" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="L161" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="M161" s="6" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A162" s="7">
         <v>160</v>
       </c>
-      <c r="B162" t="s">
-        <v>4</v>
-      </c>
-      <c r="C162" t="s">
+      <c r="B162" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C162" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="E162">
+      <c r="E162" s="6">
         <v>50</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F162" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="G162" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="H162" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="I162" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="J162" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="K162" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="L162" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="M162" s="6" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -10272,8 +11187,32 @@
       <c r="E163">
         <v>50</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F163" t="s">
+        <v>574</v>
+      </c>
+      <c r="G163" t="s">
+        <v>574</v>
+      </c>
+      <c r="H163" t="s">
+        <v>574</v>
+      </c>
+      <c r="I163" t="s">
+        <v>574</v>
+      </c>
+      <c r="J163" t="s">
+        <v>574</v>
+      </c>
+      <c r="K163" t="s">
+        <v>573</v>
+      </c>
+      <c r="L163" t="s">
+        <v>665</v>
+      </c>
+      <c r="M163" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -10289,8 +11228,32 @@
       <c r="E164">
         <v>51</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F164" t="s">
+        <v>574</v>
+      </c>
+      <c r="G164" t="s">
+        <v>574</v>
+      </c>
+      <c r="H164" t="s">
+        <v>573</v>
+      </c>
+      <c r="I164" t="s">
+        <v>573</v>
+      </c>
+      <c r="J164" t="s">
+        <v>574</v>
+      </c>
+      <c r="K164" t="s">
+        <v>573</v>
+      </c>
+      <c r="L164" t="s">
+        <v>665</v>
+      </c>
+      <c r="M164" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -10306,8 +11269,29 @@
       <c r="E165">
         <v>52</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F165" t="s">
+        <v>574</v>
+      </c>
+      <c r="G165" t="s">
+        <v>574</v>
+      </c>
+      <c r="H165" t="s">
+        <v>573</v>
+      </c>
+      <c r="I165" t="s">
+        <v>573</v>
+      </c>
+      <c r="J165" t="s">
+        <v>574</v>
+      </c>
+      <c r="K165" t="s">
+        <v>573</v>
+      </c>
+      <c r="L165" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -10323,8 +11307,29 @@
       <c r="E166">
         <v>54</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F166" t="s">
+        <v>574</v>
+      </c>
+      <c r="G166" t="s">
+        <v>574</v>
+      </c>
+      <c r="H166" t="s">
+        <v>591</v>
+      </c>
+      <c r="I166" t="s">
+        <v>591</v>
+      </c>
+      <c r="J166" t="s">
+        <v>574</v>
+      </c>
+      <c r="K166" t="s">
+        <v>573</v>
+      </c>
+      <c r="L166" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -10340,8 +11345,32 @@
       <c r="E167">
         <v>55</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F167" t="s">
+        <v>574</v>
+      </c>
+      <c r="G167" t="s">
+        <v>574</v>
+      </c>
+      <c r="H167" t="s">
+        <v>574</v>
+      </c>
+      <c r="I167" t="s">
+        <v>574</v>
+      </c>
+      <c r="J167" t="s">
+        <v>574</v>
+      </c>
+      <c r="K167" t="s">
+        <v>573</v>
+      </c>
+      <c r="L167" t="s">
+        <v>708</v>
+      </c>
+      <c r="M167" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -10357,8 +11386,32 @@
       <c r="E168">
         <v>56</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F168" t="s">
+        <v>574</v>
+      </c>
+      <c r="G168" t="s">
+        <v>574</v>
+      </c>
+      <c r="H168" t="s">
+        <v>573</v>
+      </c>
+      <c r="I168" t="s">
+        <v>591</v>
+      </c>
+      <c r="J168" t="s">
+        <v>574</v>
+      </c>
+      <c r="K168" t="s">
+        <v>573</v>
+      </c>
+      <c r="L168" t="s">
+        <v>595</v>
+      </c>
+      <c r="M168" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -10374,8 +11427,29 @@
       <c r="E169">
         <v>57</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F169" t="s">
+        <v>574</v>
+      </c>
+      <c r="G169" t="s">
+        <v>711</v>
+      </c>
+      <c r="H169" t="s">
+        <v>573</v>
+      </c>
+      <c r="I169" t="s">
+        <v>591</v>
+      </c>
+      <c r="J169" t="s">
+        <v>573</v>
+      </c>
+      <c r="K169" t="s">
+        <v>573</v>
+      </c>
+      <c r="L169" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -10391,8 +11465,32 @@
       <c r="E170">
         <v>58</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F170" t="s">
+        <v>574</v>
+      </c>
+      <c r="G170" t="s">
+        <v>612</v>
+      </c>
+      <c r="H170" t="s">
+        <v>573</v>
+      </c>
+      <c r="I170" t="s">
+        <v>573</v>
+      </c>
+      <c r="J170" t="s">
+        <v>574</v>
+      </c>
+      <c r="K170" t="s">
+        <v>573</v>
+      </c>
+      <c r="L170" t="s">
+        <v>716</v>
+      </c>
+      <c r="M170" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -10408,8 +11506,32 @@
       <c r="E171">
         <v>58</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F171" t="s">
+        <v>574</v>
+      </c>
+      <c r="G171" t="s">
+        <v>714</v>
+      </c>
+      <c r="H171" t="s">
+        <v>573</v>
+      </c>
+      <c r="I171" t="s">
+        <v>573</v>
+      </c>
+      <c r="J171" t="s">
+        <v>574</v>
+      </c>
+      <c r="K171" t="s">
+        <v>573</v>
+      </c>
+      <c r="L171" t="s">
+        <v>715</v>
+      </c>
+      <c r="M171" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -10425,8 +11547,29 @@
       <c r="E172">
         <v>58</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F172" t="s">
+        <v>574</v>
+      </c>
+      <c r="G172" t="s">
+        <v>574</v>
+      </c>
+      <c r="H172" t="s">
+        <v>573</v>
+      </c>
+      <c r="I172" t="s">
+        <v>573</v>
+      </c>
+      <c r="J172" t="s">
+        <v>574</v>
+      </c>
+      <c r="K172" t="s">
+        <v>573</v>
+      </c>
+      <c r="L172" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -10442,8 +11585,29 @@
       <c r="E173">
         <v>59</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F173" t="s">
+        <v>574</v>
+      </c>
+      <c r="G173" t="s">
+        <v>612</v>
+      </c>
+      <c r="H173" t="s">
+        <v>573</v>
+      </c>
+      <c r="I173" t="s">
+        <v>573</v>
+      </c>
+      <c r="J173" t="s">
+        <v>574</v>
+      </c>
+      <c r="K173" t="s">
+        <v>573</v>
+      </c>
+      <c r="L173" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -10459,8 +11623,29 @@
       <c r="E174">
         <v>59</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F174" t="s">
+        <v>574</v>
+      </c>
+      <c r="G174" t="s">
+        <v>612</v>
+      </c>
+      <c r="H174" t="s">
+        <v>573</v>
+      </c>
+      <c r="I174" t="s">
+        <v>573</v>
+      </c>
+      <c r="J174" t="s">
+        <v>574</v>
+      </c>
+      <c r="K174" t="s">
+        <v>573</v>
+      </c>
+      <c r="L174" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -10476,8 +11661,29 @@
       <c r="E175">
         <v>59</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F175" t="s">
+        <v>574</v>
+      </c>
+      <c r="G175" t="s">
+        <v>612</v>
+      </c>
+      <c r="H175" t="s">
+        <v>573</v>
+      </c>
+      <c r="I175" t="s">
+        <v>573</v>
+      </c>
+      <c r="J175" t="s">
+        <v>574</v>
+      </c>
+      <c r="K175" t="s">
+        <v>573</v>
+      </c>
+      <c r="L175" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -10493,8 +11699,29 @@
       <c r="E176">
         <v>59</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F176" t="s">
+        <v>574</v>
+      </c>
+      <c r="G176" t="s">
+        <v>612</v>
+      </c>
+      <c r="H176" t="s">
+        <v>573</v>
+      </c>
+      <c r="I176" t="s">
+        <v>573</v>
+      </c>
+      <c r="J176" t="s">
+        <v>574</v>
+      </c>
+      <c r="K176" t="s">
+        <v>573</v>
+      </c>
+      <c r="L176" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -10510,8 +11737,29 @@
       <c r="E177">
         <v>59</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F177" t="s">
+        <v>574</v>
+      </c>
+      <c r="G177" t="s">
+        <v>612</v>
+      </c>
+      <c r="H177" t="s">
+        <v>573</v>
+      </c>
+      <c r="I177" t="s">
+        <v>573</v>
+      </c>
+      <c r="J177" t="s">
+        <v>574</v>
+      </c>
+      <c r="K177" t="s">
+        <v>573</v>
+      </c>
+      <c r="L177" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -10527,8 +11775,29 @@
       <c r="E178">
         <v>66</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F178" t="s">
+        <v>574</v>
+      </c>
+      <c r="G178" t="s">
+        <v>574</v>
+      </c>
+      <c r="H178" t="s">
+        <v>573</v>
+      </c>
+      <c r="I178" t="s">
+        <v>573</v>
+      </c>
+      <c r="J178" t="s">
+        <v>574</v>
+      </c>
+      <c r="K178" t="s">
+        <v>573</v>
+      </c>
+      <c r="L178" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -10544,8 +11813,32 @@
       <c r="E179">
         <v>68</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F179" t="s">
+        <v>574</v>
+      </c>
+      <c r="G179" t="s">
+        <v>574</v>
+      </c>
+      <c r="H179" t="s">
+        <v>573</v>
+      </c>
+      <c r="I179" t="s">
+        <v>573</v>
+      </c>
+      <c r="J179" t="s">
+        <v>574</v>
+      </c>
+      <c r="K179" t="s">
+        <v>573</v>
+      </c>
+      <c r="L179" t="s">
+        <v>713</v>
+      </c>
+      <c r="M179" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -10562,7 +11855,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -10579,7 +11872,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -10596,7 +11889,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -10613,7 +11906,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -10630,7 +11923,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -10647,7 +11940,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -10664,7 +11957,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -10681,7 +11974,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -10698,7 +11991,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -10715,7 +12008,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -10732,7 +12025,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -10749,7 +12042,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>190</v>
       </c>

--- a/data/part_1_df_abstract_subset.xlsx
+++ b/data/part_1_df_abstract_subset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885C97DA-A521-4445-8D0C-6B84331DDB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD99BD3-EB70-0944-9C9B-ED14518BFDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44000" yWindow="820" windowWidth="24260" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37700" yWindow="1300" windowWidth="26140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="747">
   <si>
     <t>type</t>
   </si>
@@ -4315,6 +4315,93 @@
   </si>
   <si>
     <t>"tr" attribute but editorial in "en"</t>
+  </si>
+  <si>
+    <t>letters to the editor; publisher supplied note for abstract text</t>
+  </si>
+  <si>
+    <t>first sentence of article truncated</t>
+  </si>
+  <si>
+    <t>article title used as abstract; abstract in article</t>
+  </si>
+  <si>
+    <t>only part of the title was used in &lt;abstract&gt;; two abstract elements</t>
+  </si>
+  <si>
+    <t>can't verify</t>
+  </si>
+  <si>
+    <t>paywalled</t>
+  </si>
+  <si>
+    <t>news summaries</t>
+  </si>
+  <si>
+    <t>just a very short abstract</t>
+  </si>
+  <si>
+    <t>article includes abstract</t>
+  </si>
+  <si>
+    <t>publisher entered one sentence summary instead of full abstract in article; two abstract elements used</t>
+  </si>
+  <si>
+    <t>two abstracts in article in "es" and "en"</t>
+  </si>
+  <si>
+    <t>non-Latin char; no abstract in article</t>
+  </si>
+  <si>
+    <t>book review</t>
+  </si>
+  <si>
+    <t>extra \n char render in REST API, but not downloaded data</t>
+  </si>
+  <si>
+    <t>does not show up in the XML api, but they can be seen in plain text editor!</t>
+  </si>
+  <si>
+    <t>only first sentence used; two abstract elements</t>
+  </si>
+  <si>
+    <t>no abstract in article; article title used as abstract</t>
+  </si>
+  <si>
+    <t>two abstract elements</t>
+  </si>
+  <si>
+    <t>news article</t>
+  </si>
+  <si>
+    <t xml:space="preserve">two abstract elements used with the first one containing a summarizing sentence and the second the actual abstract from the paper. </t>
+  </si>
+  <si>
+    <t>abstract is summary of chapter</t>
+  </si>
+  <si>
+    <t>abstract not included in PDF</t>
+  </si>
+  <si>
+    <t>abstract not included in PDF; translated to "en" in &lt;abstract&gt;</t>
+  </si>
+  <si>
+    <t>author translated abstract in PDF, article is in "uk"</t>
+  </si>
+  <si>
+    <t>"pl" on landing page and PDF, "en" in metadata; publisher provided translated abstract, not in PDF</t>
+  </si>
+  <si>
+    <t>no abstract on landing page;</t>
+  </si>
+  <si>
+    <t>to discuss; who owns the copyright for this if its not from the authors?</t>
+  </si>
+  <si>
+    <t>Publisher has created abstract?</t>
+  </si>
+  <si>
+    <t>book introduction</t>
   </si>
 </sst>
 </file>
@@ -4715,10 +4802,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F180" sqref="F180"/>
+      <selection pane="bottomLeft" activeCell="C229" sqref="C229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11854,6 +11941,30 @@
       <c r="E180">
         <v>70</v>
       </c>
+      <c r="F180" t="s">
+        <v>574</v>
+      </c>
+      <c r="G180" t="s">
+        <v>574</v>
+      </c>
+      <c r="H180" t="s">
+        <v>573</v>
+      </c>
+      <c r="I180" t="s">
+        <v>574</v>
+      </c>
+      <c r="J180" t="s">
+        <v>574</v>
+      </c>
+      <c r="K180" t="s">
+        <v>573</v>
+      </c>
+      <c r="L180" t="s">
+        <v>713</v>
+      </c>
+      <c r="M180" t="s">
+        <v>718</v>
+      </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
@@ -11871,6 +11982,30 @@
       <c r="E181">
         <v>74</v>
       </c>
+      <c r="F181" t="s">
+        <v>574</v>
+      </c>
+      <c r="G181" t="s">
+        <v>574</v>
+      </c>
+      <c r="H181" t="s">
+        <v>573</v>
+      </c>
+      <c r="I181" t="s">
+        <v>573</v>
+      </c>
+      <c r="J181" t="s">
+        <v>574</v>
+      </c>
+      <c r="K181" t="s">
+        <v>573</v>
+      </c>
+      <c r="L181" t="s">
+        <v>713</v>
+      </c>
+      <c r="M181" t="s">
+        <v>719</v>
+      </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
@@ -11888,6 +12023,30 @@
       <c r="E182">
         <v>76</v>
       </c>
+      <c r="F182" t="s">
+        <v>573</v>
+      </c>
+      <c r="G182" t="s">
+        <v>574</v>
+      </c>
+      <c r="H182" t="s">
+        <v>574</v>
+      </c>
+      <c r="I182" t="s">
+        <v>574</v>
+      </c>
+      <c r="J182" t="s">
+        <v>574</v>
+      </c>
+      <c r="K182" t="s">
+        <v>574</v>
+      </c>
+      <c r="L182" t="s">
+        <v>720</v>
+      </c>
+      <c r="M182" t="s">
+        <v>721</v>
+      </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
@@ -11905,6 +12064,30 @@
       <c r="E183">
         <v>78</v>
       </c>
+      <c r="F183" t="s">
+        <v>574</v>
+      </c>
+      <c r="G183" t="s">
+        <v>574</v>
+      </c>
+      <c r="H183" t="s">
+        <v>591</v>
+      </c>
+      <c r="I183" t="s">
+        <v>591</v>
+      </c>
+      <c r="J183" t="s">
+        <v>574</v>
+      </c>
+      <c r="K183" t="s">
+        <v>573</v>
+      </c>
+      <c r="L183" t="s">
+        <v>722</v>
+      </c>
+      <c r="M183" t="s">
+        <v>723</v>
+      </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
@@ -11922,6 +12105,30 @@
       <c r="E184">
         <v>80</v>
       </c>
+      <c r="F184" t="s">
+        <v>574</v>
+      </c>
+      <c r="G184" t="s">
+        <v>574</v>
+      </c>
+      <c r="H184" t="s">
+        <v>573</v>
+      </c>
+      <c r="I184" t="s">
+        <v>574</v>
+      </c>
+      <c r="J184" t="s">
+        <v>574</v>
+      </c>
+      <c r="K184" t="s">
+        <v>573</v>
+      </c>
+      <c r="L184" t="s">
+        <v>713</v>
+      </c>
+      <c r="M184" t="s">
+        <v>724</v>
+      </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
@@ -11930,14 +12137,38 @@
       <c r="B185" t="s">
         <v>4</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C185" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D185" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="E185">
+      <c r="E185" s="5">
         <v>84</v>
+      </c>
+      <c r="F185" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="G185" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="H185" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="I185" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="J185" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="K185" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="L185" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="M185" s="5" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.2">
@@ -11956,6 +12187,30 @@
       <c r="E186">
         <v>85</v>
       </c>
+      <c r="F186" t="s">
+        <v>574</v>
+      </c>
+      <c r="G186" t="s">
+        <v>574</v>
+      </c>
+      <c r="H186" t="s">
+        <v>574</v>
+      </c>
+      <c r="I186" t="s">
+        <v>574</v>
+      </c>
+      <c r="J186" t="s">
+        <v>574</v>
+      </c>
+      <c r="K186" t="s">
+        <v>574</v>
+      </c>
+      <c r="L186" t="s">
+        <v>726</v>
+      </c>
+      <c r="M186" t="s">
+        <v>727</v>
+      </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
@@ -11973,6 +12228,27 @@
       <c r="E187">
         <v>88</v>
       </c>
+      <c r="F187" t="s">
+        <v>574</v>
+      </c>
+      <c r="G187" t="s">
+        <v>574</v>
+      </c>
+      <c r="H187" t="s">
+        <v>573</v>
+      </c>
+      <c r="I187" t="s">
+        <v>591</v>
+      </c>
+      <c r="J187" t="s">
+        <v>574</v>
+      </c>
+      <c r="K187" t="s">
+        <v>573</v>
+      </c>
+      <c r="L187" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
@@ -11990,6 +12266,30 @@
       <c r="E188">
         <v>89</v>
       </c>
+      <c r="F188" t="s">
+        <v>574</v>
+      </c>
+      <c r="G188" t="s">
+        <v>574</v>
+      </c>
+      <c r="H188" t="s">
+        <v>573</v>
+      </c>
+      <c r="I188" t="s">
+        <v>574</v>
+      </c>
+      <c r="J188" t="s">
+        <v>574</v>
+      </c>
+      <c r="K188" t="s">
+        <v>573</v>
+      </c>
+      <c r="L188" t="s">
+        <v>643</v>
+      </c>
+      <c r="M188" t="s">
+        <v>728</v>
+      </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
@@ -12007,6 +12307,30 @@
       <c r="E189">
         <v>91</v>
       </c>
+      <c r="F189" t="s">
+        <v>574</v>
+      </c>
+      <c r="G189" t="s">
+        <v>574</v>
+      </c>
+      <c r="H189" t="s">
+        <v>573</v>
+      </c>
+      <c r="I189" t="s">
+        <v>573</v>
+      </c>
+      <c r="J189" t="s">
+        <v>574</v>
+      </c>
+      <c r="K189" t="s">
+        <v>573</v>
+      </c>
+      <c r="L189" t="s">
+        <v>729</v>
+      </c>
+      <c r="M189" t="s">
+        <v>710</v>
+      </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
@@ -12024,22 +12348,70 @@
       <c r="E190">
         <v>91</v>
       </c>
+      <c r="F190" t="s">
+        <v>574</v>
+      </c>
+      <c r="G190" t="s">
+        <v>574</v>
+      </c>
+      <c r="H190" t="s">
+        <v>573</v>
+      </c>
+      <c r="I190" t="s">
+        <v>573</v>
+      </c>
+      <c r="J190" t="s">
+        <v>574</v>
+      </c>
+      <c r="K190" t="s">
+        <v>573</v>
+      </c>
+      <c r="L190" t="s">
+        <v>713</v>
+      </c>
+      <c r="M190" t="s">
+        <v>730</v>
+      </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A191" s="1">
+      <c r="A191" s="7">
         <v>189</v>
       </c>
-      <c r="B191" t="s">
-        <v>4</v>
-      </c>
-      <c r="C191" t="s">
+      <c r="B191" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C191" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D191" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="E191">
+      <c r="E191" s="6">
         <v>92</v>
+      </c>
+      <c r="F191" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="G191" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="H191" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="I191" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="J191" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="K191" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="L191" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="M191" s="6" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.2">
@@ -12058,8 +12430,29 @@
       <c r="E192">
         <v>93</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F192" t="s">
+        <v>574</v>
+      </c>
+      <c r="G192" t="s">
+        <v>612</v>
+      </c>
+      <c r="H192" t="s">
+        <v>573</v>
+      </c>
+      <c r="I192" t="s">
+        <v>573</v>
+      </c>
+      <c r="J192" t="s">
+        <v>574</v>
+      </c>
+      <c r="K192" t="s">
+        <v>574</v>
+      </c>
+      <c r="L192" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -12075,8 +12468,29 @@
       <c r="E193">
         <v>94</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F193" t="s">
+        <v>574</v>
+      </c>
+      <c r="G193" t="s">
+        <v>574</v>
+      </c>
+      <c r="H193" t="s">
+        <v>573</v>
+      </c>
+      <c r="I193" t="s">
+        <v>591</v>
+      </c>
+      <c r="J193" t="s">
+        <v>574</v>
+      </c>
+      <c r="K193" t="s">
+        <v>573</v>
+      </c>
+      <c r="L193" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -12092,8 +12506,32 @@
       <c r="E194">
         <v>94</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F194" t="s">
+        <v>574</v>
+      </c>
+      <c r="G194" t="s">
+        <v>574</v>
+      </c>
+      <c r="H194" t="s">
+        <v>573</v>
+      </c>
+      <c r="I194" t="s">
+        <v>574</v>
+      </c>
+      <c r="J194" t="s">
+        <v>574</v>
+      </c>
+      <c r="K194" t="s">
+        <v>574</v>
+      </c>
+      <c r="L194" t="s">
+        <v>726</v>
+      </c>
+      <c r="M194" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -12109,8 +12547,32 @@
       <c r="E195">
         <v>94</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F195" t="s">
+        <v>574</v>
+      </c>
+      <c r="G195" t="s">
+        <v>574</v>
+      </c>
+      <c r="H195" t="s">
+        <v>574</v>
+      </c>
+      <c r="I195" t="s">
+        <v>574</v>
+      </c>
+      <c r="J195" t="s">
+        <v>574</v>
+      </c>
+      <c r="K195" t="s">
+        <v>574</v>
+      </c>
+      <c r="L195" t="s">
+        <v>726</v>
+      </c>
+      <c r="M195" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -12126,8 +12588,29 @@
       <c r="E196">
         <v>95</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F196" t="s">
+        <v>574</v>
+      </c>
+      <c r="G196" t="s">
+        <v>574</v>
+      </c>
+      <c r="H196" t="s">
+        <v>573</v>
+      </c>
+      <c r="I196" t="s">
+        <v>573</v>
+      </c>
+      <c r="J196" t="s">
+        <v>574</v>
+      </c>
+      <c r="K196" t="s">
+        <v>573</v>
+      </c>
+      <c r="L196" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -12143,8 +12626,32 @@
       <c r="E197">
         <v>98</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F197" t="s">
+        <v>574</v>
+      </c>
+      <c r="G197" t="s">
+        <v>574</v>
+      </c>
+      <c r="H197" t="s">
+        <v>574</v>
+      </c>
+      <c r="I197" t="s">
+        <v>574</v>
+      </c>
+      <c r="J197" t="s">
+        <v>574</v>
+      </c>
+      <c r="K197" t="s">
+        <v>574</v>
+      </c>
+      <c r="L197" t="s">
+        <v>726</v>
+      </c>
+      <c r="M197" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -12160,8 +12667,32 @@
       <c r="E198">
         <v>100</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F198" t="s">
+        <v>574</v>
+      </c>
+      <c r="G198" t="s">
+        <v>574</v>
+      </c>
+      <c r="H198" t="s">
+        <v>573</v>
+      </c>
+      <c r="I198" t="s">
+        <v>591</v>
+      </c>
+      <c r="J198" t="s">
+        <v>574</v>
+      </c>
+      <c r="K198" t="s">
+        <v>573</v>
+      </c>
+      <c r="L198" t="s">
+        <v>713</v>
+      </c>
+      <c r="M198" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -12177,8 +12708,29 @@
       <c r="E199">
         <v>102</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F199" t="s">
+        <v>574</v>
+      </c>
+      <c r="G199" t="s">
+        <v>574</v>
+      </c>
+      <c r="H199" t="s">
+        <v>573</v>
+      </c>
+      <c r="I199" t="s">
+        <v>591</v>
+      </c>
+      <c r="J199" t="s">
+        <v>574</v>
+      </c>
+      <c r="K199" t="s">
+        <v>573</v>
+      </c>
+      <c r="L199" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -12194,25 +12746,70 @@
       <c r="E200">
         <v>105</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" s="1">
+      <c r="F200" t="s">
+        <v>574</v>
+      </c>
+      <c r="G200" t="s">
+        <v>574</v>
+      </c>
+      <c r="H200" t="s">
+        <v>573</v>
+      </c>
+      <c r="I200" t="s">
+        <v>573</v>
+      </c>
+      <c r="J200" t="s">
+        <v>574</v>
+      </c>
+      <c r="K200" t="s">
+        <v>573</v>
+      </c>
+      <c r="L200" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A201" s="7">
         <v>199</v>
       </c>
-      <c r="B201" t="s">
-        <v>4</v>
-      </c>
-      <c r="C201" t="s">
+      <c r="B201" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C201" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D201" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="E201">
+      <c r="E201" s="6">
         <v>106</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F201" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="G201" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="H201" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="I201" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="J201" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="K201" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="L201" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="M201" s="6" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -12228,8 +12825,29 @@
       <c r="E202">
         <v>4179</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F202" t="s">
+        <v>574</v>
+      </c>
+      <c r="G202" t="s">
+        <v>685</v>
+      </c>
+      <c r="H202" t="s">
+        <v>591</v>
+      </c>
+      <c r="I202" t="s">
+        <v>573</v>
+      </c>
+      <c r="J202" t="s">
+        <v>574</v>
+      </c>
+      <c r="K202" t="s">
+        <v>573</v>
+      </c>
+      <c r="L202" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -12245,8 +12863,29 @@
       <c r="E203">
         <v>3961</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F203" t="s">
+        <v>574</v>
+      </c>
+      <c r="G203" t="s">
+        <v>685</v>
+      </c>
+      <c r="H203" t="s">
+        <v>591</v>
+      </c>
+      <c r="I203" t="s">
+        <v>573</v>
+      </c>
+      <c r="J203" t="s">
+        <v>574</v>
+      </c>
+      <c r="K203" t="s">
+        <v>573</v>
+      </c>
+      <c r="L203" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -12262,8 +12901,29 @@
       <c r="E204">
         <v>2842</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F204" t="s">
+        <v>574</v>
+      </c>
+      <c r="G204" t="s">
+        <v>574</v>
+      </c>
+      <c r="H204" t="s">
+        <v>573</v>
+      </c>
+      <c r="I204" t="s">
+        <v>591</v>
+      </c>
+      <c r="J204" t="s">
+        <v>574</v>
+      </c>
+      <c r="K204" t="s">
+        <v>573</v>
+      </c>
+      <c r="L204" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -12279,8 +12939,32 @@
       <c r="E205">
         <v>2437</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F205" t="s">
+        <v>574</v>
+      </c>
+      <c r="G205" t="s">
+        <v>612</v>
+      </c>
+      <c r="H205" t="s">
+        <v>573</v>
+      </c>
+      <c r="I205" t="s">
+        <v>574</v>
+      </c>
+      <c r="J205" t="s">
+        <v>574</v>
+      </c>
+      <c r="K205" t="s">
+        <v>573</v>
+      </c>
+      <c r="L205" t="s">
+        <v>739</v>
+      </c>
+      <c r="M205" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -12296,8 +12980,29 @@
       <c r="E206">
         <v>2435</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F206" t="s">
+        <v>574</v>
+      </c>
+      <c r="G206" t="s">
+        <v>574</v>
+      </c>
+      <c r="H206" t="s">
+        <v>573</v>
+      </c>
+      <c r="I206" t="s">
+        <v>591</v>
+      </c>
+      <c r="J206" t="s">
+        <v>574</v>
+      </c>
+      <c r="K206" t="s">
+        <v>573</v>
+      </c>
+      <c r="L206" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -12313,8 +13018,32 @@
       <c r="E207">
         <v>2197</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F207" t="s">
+        <v>574</v>
+      </c>
+      <c r="G207" t="s">
+        <v>574</v>
+      </c>
+      <c r="H207" t="s">
+        <v>574</v>
+      </c>
+      <c r="I207" t="s">
+        <v>574</v>
+      </c>
+      <c r="J207" t="s">
+        <v>574</v>
+      </c>
+      <c r="K207" t="s">
+        <v>573</v>
+      </c>
+      <c r="L207" t="s">
+        <v>740</v>
+      </c>
+      <c r="M207" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -12330,8 +13059,29 @@
       <c r="E208">
         <v>2167</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F208" t="s">
+        <v>574</v>
+      </c>
+      <c r="G208" t="s">
+        <v>612</v>
+      </c>
+      <c r="H208" t="s">
+        <v>573</v>
+      </c>
+      <c r="I208" t="s">
+        <v>573</v>
+      </c>
+      <c r="J208" t="s">
+        <v>574</v>
+      </c>
+      <c r="K208" t="s">
+        <v>573</v>
+      </c>
+      <c r="L208" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -12347,8 +13097,29 @@
       <c r="E209">
         <v>1977</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F209" t="s">
+        <v>574</v>
+      </c>
+      <c r="G209" t="s">
+        <v>574</v>
+      </c>
+      <c r="H209" t="s">
+        <v>573</v>
+      </c>
+      <c r="I209" t="s">
+        <v>591</v>
+      </c>
+      <c r="J209" t="s">
+        <v>574</v>
+      </c>
+      <c r="K209" t="s">
+        <v>573</v>
+      </c>
+      <c r="L209" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -12364,8 +13135,32 @@
       <c r="E210">
         <v>1951</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F210" t="s">
+        <v>574</v>
+      </c>
+      <c r="G210" t="s">
+        <v>612</v>
+      </c>
+      <c r="H210" t="s">
+        <v>591</v>
+      </c>
+      <c r="I210" t="s">
+        <v>573</v>
+      </c>
+      <c r="J210" t="s">
+        <v>574</v>
+      </c>
+      <c r="K210" t="s">
+        <v>573</v>
+      </c>
+      <c r="L210" t="s">
+        <v>633</v>
+      </c>
+      <c r="M210" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -12381,8 +13176,29 @@
       <c r="E211">
         <v>1796</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F211" t="s">
+        <v>574</v>
+      </c>
+      <c r="G211" t="s">
+        <v>612</v>
+      </c>
+      <c r="H211" t="s">
+        <v>573</v>
+      </c>
+      <c r="I211" t="s">
+        <v>573</v>
+      </c>
+      <c r="J211" t="s">
+        <v>574</v>
+      </c>
+      <c r="K211" t="s">
+        <v>573</v>
+      </c>
+      <c r="L211" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -12398,8 +13214,32 @@
       <c r="E212">
         <v>1747</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F212" t="s">
+        <v>574</v>
+      </c>
+      <c r="G212" t="s">
+        <v>574</v>
+      </c>
+      <c r="H212" t="s">
+        <v>574</v>
+      </c>
+      <c r="I212" t="s">
+        <v>591</v>
+      </c>
+      <c r="J212" t="s">
+        <v>574</v>
+      </c>
+      <c r="K212" t="s">
+        <v>573</v>
+      </c>
+      <c r="L212" t="s">
+        <v>633</v>
+      </c>
+      <c r="M212" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -12415,8 +13255,29 @@
       <c r="E213">
         <v>1739</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F213" t="s">
+        <v>574</v>
+      </c>
+      <c r="G213" t="s">
+        <v>574</v>
+      </c>
+      <c r="H213" t="s">
+        <v>573</v>
+      </c>
+      <c r="I213" t="s">
+        <v>573</v>
+      </c>
+      <c r="J213" t="s">
+        <v>574</v>
+      </c>
+      <c r="K213" t="s">
+        <v>573</v>
+      </c>
+      <c r="L213" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -12432,8 +13293,29 @@
       <c r="E214">
         <v>1661</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F214" t="s">
+        <v>574</v>
+      </c>
+      <c r="G214" t="s">
+        <v>612</v>
+      </c>
+      <c r="H214" t="s">
+        <v>573</v>
+      </c>
+      <c r="I214" t="s">
+        <v>573</v>
+      </c>
+      <c r="J214" t="s">
+        <v>574</v>
+      </c>
+      <c r="K214" t="s">
+        <v>573</v>
+      </c>
+      <c r="L214" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -12449,8 +13331,29 @@
       <c r="E215">
         <v>1624</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F215" t="s">
+        <v>574</v>
+      </c>
+      <c r="G215" t="s">
+        <v>574</v>
+      </c>
+      <c r="H215" t="s">
+        <v>573</v>
+      </c>
+      <c r="I215" t="s">
+        <v>573</v>
+      </c>
+      <c r="J215" t="s">
+        <v>574</v>
+      </c>
+      <c r="K215" t="s">
+        <v>573</v>
+      </c>
+      <c r="L215" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -12466,8 +13369,29 @@
       <c r="E216">
         <v>1603</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F216" t="s">
+        <v>574</v>
+      </c>
+      <c r="G216" t="s">
+        <v>693</v>
+      </c>
+      <c r="H216" t="s">
+        <v>574</v>
+      </c>
+      <c r="I216" t="s">
+        <v>573</v>
+      </c>
+      <c r="J216" t="s">
+        <v>574</v>
+      </c>
+      <c r="K216" t="s">
+        <v>573</v>
+      </c>
+      <c r="L216" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -12483,25 +13407,70 @@
       <c r="E217">
         <v>1603</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" s="1">
+      <c r="F217" t="s">
+        <v>574</v>
+      </c>
+      <c r="G217" t="s">
+        <v>574</v>
+      </c>
+      <c r="H217" t="s">
+        <v>573</v>
+      </c>
+      <c r="I217" t="s">
+        <v>591</v>
+      </c>
+      <c r="J217" t="s">
+        <v>574</v>
+      </c>
+      <c r="K217" t="s">
+        <v>573</v>
+      </c>
+      <c r="L217" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A218" s="7">
         <v>216</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C218" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D218" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="E218">
+      <c r="E218" s="6">
         <v>1591</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F218" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="G218" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="H218" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="I218" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="J218" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="K218" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="L218" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="M218" s="6" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -12517,8 +13486,29 @@
       <c r="E219">
         <v>1556</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F219" t="s">
+        <v>574</v>
+      </c>
+      <c r="G219" t="s">
+        <v>574</v>
+      </c>
+      <c r="H219" t="s">
+        <v>573</v>
+      </c>
+      <c r="I219" t="s">
+        <v>591</v>
+      </c>
+      <c r="J219" t="s">
+        <v>574</v>
+      </c>
+      <c r="K219" t="s">
+        <v>573</v>
+      </c>
+      <c r="L219" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -12534,8 +13524,29 @@
       <c r="E220">
         <v>1546</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F220" t="s">
+        <v>574</v>
+      </c>
+      <c r="G220" t="s">
+        <v>574</v>
+      </c>
+      <c r="H220" t="s">
+        <v>573</v>
+      </c>
+      <c r="I220" t="s">
+        <v>591</v>
+      </c>
+      <c r="J220" t="s">
+        <v>574</v>
+      </c>
+      <c r="K220" t="s">
+        <v>573</v>
+      </c>
+      <c r="L220" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -12551,8 +13562,29 @@
       <c r="E221">
         <v>1540</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F221" t="s">
+        <v>574</v>
+      </c>
+      <c r="G221" t="s">
+        <v>574</v>
+      </c>
+      <c r="H221" t="s">
+        <v>573</v>
+      </c>
+      <c r="I221" t="s">
+        <v>591</v>
+      </c>
+      <c r="J221" t="s">
+        <v>574</v>
+      </c>
+      <c r="K221" t="s">
+        <v>573</v>
+      </c>
+      <c r="L221" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -12568,8 +13600,29 @@
       <c r="E222">
         <v>1535</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F222" t="s">
+        <v>574</v>
+      </c>
+      <c r="G222" t="s">
+        <v>685</v>
+      </c>
+      <c r="H222" t="s">
+        <v>573</v>
+      </c>
+      <c r="I222" t="s">
+        <v>573</v>
+      </c>
+      <c r="J222" t="s">
+        <v>574</v>
+      </c>
+      <c r="K222" t="s">
+        <v>573</v>
+      </c>
+      <c r="L222" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -12585,8 +13638,32 @@
       <c r="E223">
         <v>1528</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F223" t="s">
+        <v>574</v>
+      </c>
+      <c r="G223" t="s">
+        <v>612</v>
+      </c>
+      <c r="H223" t="s">
+        <v>573</v>
+      </c>
+      <c r="I223" t="s">
+        <v>574</v>
+      </c>
+      <c r="J223" t="s">
+        <v>574</v>
+      </c>
+      <c r="K223" t="s">
+        <v>573</v>
+      </c>
+      <c r="L223" t="s">
+        <v>739</v>
+      </c>
+      <c r="M223" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -12602,8 +13679,29 @@
       <c r="E224">
         <v>1521</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F224" t="s">
+        <v>574</v>
+      </c>
+      <c r="G224" t="s">
+        <v>574</v>
+      </c>
+      <c r="H224" t="s">
+        <v>573</v>
+      </c>
+      <c r="I224" t="s">
+        <v>591</v>
+      </c>
+      <c r="J224" t="s">
+        <v>574</v>
+      </c>
+      <c r="K224" t="s">
+        <v>573</v>
+      </c>
+      <c r="L224" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -12619,8 +13717,29 @@
       <c r="E225">
         <v>1491</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F225" t="s">
+        <v>574</v>
+      </c>
+      <c r="G225" t="s">
+        <v>574</v>
+      </c>
+      <c r="H225" t="s">
+        <v>573</v>
+      </c>
+      <c r="I225" t="s">
+        <v>591</v>
+      </c>
+      <c r="J225" t="s">
+        <v>574</v>
+      </c>
+      <c r="K225" t="s">
+        <v>573</v>
+      </c>
+      <c r="L225" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -12636,8 +13755,29 @@
       <c r="E226">
         <v>1457</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F226" t="s">
+        <v>574</v>
+      </c>
+      <c r="G226" t="s">
+        <v>574</v>
+      </c>
+      <c r="H226" t="s">
+        <v>573</v>
+      </c>
+      <c r="I226" t="s">
+        <v>591</v>
+      </c>
+      <c r="J226" t="s">
+        <v>574</v>
+      </c>
+      <c r="K226" t="s">
+        <v>573</v>
+      </c>
+      <c r="L226" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -12653,8 +13793,29 @@
       <c r="E227">
         <v>9</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F227" t="s">
+        <v>574</v>
+      </c>
+      <c r="G227" t="s">
+        <v>574</v>
+      </c>
+      <c r="H227" t="s">
+        <v>573</v>
+      </c>
+      <c r="I227" t="s">
+        <v>573</v>
+      </c>
+      <c r="J227" t="s">
+        <v>574</v>
+      </c>
+      <c r="K227" t="s">
+        <v>573</v>
+      </c>
+      <c r="L227" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -12670,8 +13831,32 @@
       <c r="E228">
         <v>9</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F228" t="s">
+        <v>574</v>
+      </c>
+      <c r="G228" t="s">
+        <v>574</v>
+      </c>
+      <c r="H228" t="s">
+        <v>573</v>
+      </c>
+      <c r="I228" t="s">
+        <v>591</v>
+      </c>
+      <c r="J228" t="s">
+        <v>574</v>
+      </c>
+      <c r="K228" t="s">
+        <v>573</v>
+      </c>
+      <c r="L228" t="s">
+        <v>638</v>
+      </c>
+      <c r="M228" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -12688,7 +13873,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -12705,7 +13890,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -12722,7 +13907,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -12739,7 +13924,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -12756,7 +13941,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -12773,7 +13958,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -12790,7 +13975,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -12807,7 +13992,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -12824,7 +14009,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -12841,7 +14026,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -12858,7 +14043,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>238</v>
       </c>

--- a/data/part_1_df_abstract_subset.xlsx
+++ b/data/part_1_df_abstract_subset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD99BD3-EB70-0944-9C9B-ED14518BFDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814B4FF4-6835-144D-80D8-47925DEB2993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37700" yWindow="1300" windowWidth="26140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2746" uniqueCount="749">
   <si>
     <t>type</t>
   </si>
@@ -4402,6 +4402,12 @@
   </si>
   <si>
     <t>book introduction</t>
+  </si>
+  <si>
+    <t>Landing page has abstract</t>
+  </si>
+  <si>
+    <t>abstract is summary of chapter, but not included in PDF</t>
   </si>
 </sst>
 </file>
@@ -4803,9 +4809,9 @@
   <dimension ref="A1:M301"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C229" sqref="C229"/>
+      <selection pane="bottomLeft" activeCell="D246" sqref="D246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13872,6 +13878,30 @@
       <c r="E229">
         <v>21</v>
       </c>
+      <c r="F229" t="s">
+        <v>574</v>
+      </c>
+      <c r="G229" t="s">
+        <v>693</v>
+      </c>
+      <c r="H229" t="s">
+        <v>574</v>
+      </c>
+      <c r="I229" t="s">
+        <v>573</v>
+      </c>
+      <c r="J229" t="s">
+        <v>574</v>
+      </c>
+      <c r="K229" t="s">
+        <v>573</v>
+      </c>
+      <c r="L229" t="s">
+        <v>705</v>
+      </c>
+      <c r="M229" t="s">
+        <v>705</v>
+      </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
@@ -13889,6 +13919,27 @@
       <c r="E230">
         <v>170</v>
       </c>
+      <c r="F230" t="s">
+        <v>574</v>
+      </c>
+      <c r="G230" t="s">
+        <v>574</v>
+      </c>
+      <c r="H230" t="s">
+        <v>573</v>
+      </c>
+      <c r="I230" t="s">
+        <v>591</v>
+      </c>
+      <c r="J230" t="s">
+        <v>574</v>
+      </c>
+      <c r="K230" t="s">
+        <v>573</v>
+      </c>
+      <c r="L230" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
@@ -13906,6 +13957,27 @@
       <c r="E231">
         <v>218</v>
       </c>
+      <c r="F231" t="s">
+        <v>574</v>
+      </c>
+      <c r="G231" t="s">
+        <v>574</v>
+      </c>
+      <c r="H231" t="s">
+        <v>573</v>
+      </c>
+      <c r="I231" t="s">
+        <v>591</v>
+      </c>
+      <c r="J231" t="s">
+        <v>574</v>
+      </c>
+      <c r="K231" t="s">
+        <v>573</v>
+      </c>
+      <c r="L231" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
@@ -13923,6 +13995,27 @@
       <c r="E232">
         <v>255</v>
       </c>
+      <c r="F232" t="s">
+        <v>574</v>
+      </c>
+      <c r="G232" t="s">
+        <v>574</v>
+      </c>
+      <c r="H232" t="s">
+        <v>573</v>
+      </c>
+      <c r="I232" t="s">
+        <v>591</v>
+      </c>
+      <c r="J232" t="s">
+        <v>574</v>
+      </c>
+      <c r="K232" t="s">
+        <v>573</v>
+      </c>
+      <c r="L232" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
@@ -13940,6 +14033,27 @@
       <c r="E233">
         <v>278</v>
       </c>
+      <c r="F233" t="s">
+        <v>574</v>
+      </c>
+      <c r="G233" t="s">
+        <v>574</v>
+      </c>
+      <c r="H233" t="s">
+        <v>573</v>
+      </c>
+      <c r="I233" t="s">
+        <v>591</v>
+      </c>
+      <c r="J233" t="s">
+        <v>574</v>
+      </c>
+      <c r="K233" t="s">
+        <v>573</v>
+      </c>
+      <c r="L233" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
@@ -13957,6 +14071,27 @@
       <c r="E234">
         <v>281</v>
       </c>
+      <c r="F234" t="s">
+        <v>574</v>
+      </c>
+      <c r="G234" t="s">
+        <v>574</v>
+      </c>
+      <c r="H234" t="s">
+        <v>573</v>
+      </c>
+      <c r="I234" t="s">
+        <v>591</v>
+      </c>
+      <c r="J234" t="s">
+        <v>574</v>
+      </c>
+      <c r="K234" t="s">
+        <v>573</v>
+      </c>
+      <c r="L234" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
@@ -13974,6 +14109,27 @@
       <c r="E235">
         <v>287</v>
       </c>
+      <c r="F235" t="s">
+        <v>574</v>
+      </c>
+      <c r="G235" t="s">
+        <v>574</v>
+      </c>
+      <c r="H235" t="s">
+        <v>573</v>
+      </c>
+      <c r="I235" t="s">
+        <v>591</v>
+      </c>
+      <c r="J235" t="s">
+        <v>574</v>
+      </c>
+      <c r="K235" t="s">
+        <v>573</v>
+      </c>
+      <c r="L235" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
@@ -13991,6 +14147,27 @@
       <c r="E236">
         <v>289</v>
       </c>
+      <c r="F236" t="s">
+        <v>574</v>
+      </c>
+      <c r="G236" t="s">
+        <v>574</v>
+      </c>
+      <c r="H236" t="s">
+        <v>573</v>
+      </c>
+      <c r="I236" t="s">
+        <v>591</v>
+      </c>
+      <c r="J236" t="s">
+        <v>574</v>
+      </c>
+      <c r="K236" t="s">
+        <v>573</v>
+      </c>
+      <c r="L236" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
@@ -14008,6 +14185,27 @@
       <c r="E237">
         <v>297</v>
       </c>
+      <c r="F237" t="s">
+        <v>574</v>
+      </c>
+      <c r="G237" t="s">
+        <v>574</v>
+      </c>
+      <c r="H237" t="s">
+        <v>573</v>
+      </c>
+      <c r="I237" t="s">
+        <v>591</v>
+      </c>
+      <c r="J237" t="s">
+        <v>574</v>
+      </c>
+      <c r="K237" t="s">
+        <v>573</v>
+      </c>
+      <c r="L237" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
@@ -14025,6 +14223,27 @@
       <c r="E238">
         <v>297</v>
       </c>
+      <c r="F238" t="s">
+        <v>574</v>
+      </c>
+      <c r="G238" t="s">
+        <v>574</v>
+      </c>
+      <c r="H238" t="s">
+        <v>573</v>
+      </c>
+      <c r="I238" t="s">
+        <v>591</v>
+      </c>
+      <c r="J238" t="s">
+        <v>574</v>
+      </c>
+      <c r="K238" t="s">
+        <v>573</v>
+      </c>
+      <c r="L238" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
@@ -14042,6 +14261,27 @@
       <c r="E239">
         <v>306</v>
       </c>
+      <c r="F239" t="s">
+        <v>574</v>
+      </c>
+      <c r="G239" t="s">
+        <v>574</v>
+      </c>
+      <c r="H239" t="s">
+        <v>573</v>
+      </c>
+      <c r="I239" t="s">
+        <v>591</v>
+      </c>
+      <c r="J239" t="s">
+        <v>574</v>
+      </c>
+      <c r="K239" t="s">
+        <v>573</v>
+      </c>
+      <c r="L239" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
@@ -14059,8 +14299,29 @@
       <c r="E240">
         <v>314</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F240" t="s">
+        <v>574</v>
+      </c>
+      <c r="G240" t="s">
+        <v>574</v>
+      </c>
+      <c r="H240" t="s">
+        <v>573</v>
+      </c>
+      <c r="I240" t="s">
+        <v>573</v>
+      </c>
+      <c r="J240" t="s">
+        <v>574</v>
+      </c>
+      <c r="K240" t="s">
+        <v>573</v>
+      </c>
+      <c r="L240" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -14076,8 +14337,32 @@
       <c r="E241">
         <v>323</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F241" t="s">
+        <v>574</v>
+      </c>
+      <c r="G241" t="s">
+        <v>574</v>
+      </c>
+      <c r="H241" t="s">
+        <v>574</v>
+      </c>
+      <c r="I241" t="s">
+        <v>573</v>
+      </c>
+      <c r="J241" t="s">
+        <v>574</v>
+      </c>
+      <c r="K241" t="s">
+        <v>573</v>
+      </c>
+      <c r="L241" t="s">
+        <v>715</v>
+      </c>
+      <c r="M241" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -14093,8 +14378,32 @@
       <c r="E242">
         <v>365</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F242" t="s">
+        <v>574</v>
+      </c>
+      <c r="G242" t="s">
+        <v>693</v>
+      </c>
+      <c r="H242" t="s">
+        <v>591</v>
+      </c>
+      <c r="I242" t="s">
+        <v>574</v>
+      </c>
+      <c r="J242" t="s">
+        <v>574</v>
+      </c>
+      <c r="K242" t="s">
+        <v>573</v>
+      </c>
+      <c r="L242" t="s">
+        <v>739</v>
+      </c>
+      <c r="M242" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -14110,8 +14419,29 @@
       <c r="E243">
         <v>373</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F243" t="s">
+        <v>574</v>
+      </c>
+      <c r="G243" t="s">
+        <v>612</v>
+      </c>
+      <c r="H243" t="s">
+        <v>591</v>
+      </c>
+      <c r="I243" t="s">
+        <v>591</v>
+      </c>
+      <c r="J243" t="s">
+        <v>574</v>
+      </c>
+      <c r="K243" t="s">
+        <v>573</v>
+      </c>
+      <c r="L243" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -14127,8 +14457,29 @@
       <c r="E244">
         <v>375</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F244" t="s">
+        <v>574</v>
+      </c>
+      <c r="G244" t="s">
+        <v>574</v>
+      </c>
+      <c r="H244" t="s">
+        <v>591</v>
+      </c>
+      <c r="I244" t="s">
+        <v>591</v>
+      </c>
+      <c r="J244" t="s">
+        <v>574</v>
+      </c>
+      <c r="K244" t="s">
+        <v>573</v>
+      </c>
+      <c r="L244" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -14144,8 +14495,29 @@
       <c r="E245">
         <v>375</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F245" t="s">
+        <v>574</v>
+      </c>
+      <c r="G245" t="s">
+        <v>574</v>
+      </c>
+      <c r="H245" t="s">
+        <v>591</v>
+      </c>
+      <c r="I245" t="s">
+        <v>591</v>
+      </c>
+      <c r="J245" t="s">
+        <v>574</v>
+      </c>
+      <c r="K245" t="s">
+        <v>573</v>
+      </c>
+      <c r="L245" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -14162,7 +14534,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -14179,7 +14551,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -14196,7 +14568,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -14213,7 +14585,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -14230,7 +14602,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -14247,7 +14619,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -14264,7 +14636,7 @@
         <v>5136</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -14281,7 +14653,7 @@
         <v>3718</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -14298,7 +14670,7 @@
         <v>3671</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -14315,7 +14687,7 @@
         <v>3355</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>254</v>
       </c>

--- a/data/part_1_df_abstract_subset.xlsx
+++ b/data/part_1_df_abstract_subset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814B4FF4-6835-144D-80D8-47925DEB2993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D53EA01-4B73-D640-A9D3-9D81B6F7D824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37700" yWindow="1300" windowWidth="26140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44000" yWindow="820" windowWidth="24260" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2746" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2753" uniqueCount="749">
   <si>
     <t>type</t>
   </si>
@@ -4809,9 +4809,9 @@
   <dimension ref="A1:M301"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D246" sqref="D246"/>
+      <selection pane="bottomLeft" activeCell="C247" sqref="C247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14533,6 +14533,27 @@
       <c r="E246">
         <v>391</v>
       </c>
+      <c r="F246" t="s">
+        <v>574</v>
+      </c>
+      <c r="G246" t="s">
+        <v>685</v>
+      </c>
+      <c r="H246" t="s">
+        <v>574</v>
+      </c>
+      <c r="I246" t="s">
+        <v>591</v>
+      </c>
+      <c r="J246" t="s">
+        <v>574</v>
+      </c>
+      <c r="K246" t="s">
+        <v>573</v>
+      </c>
+      <c r="L246" t="s">
+        <v>722</v>
+      </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247" s="1">

--- a/data/part_1_df_abstract_subset.xlsx
+++ b/data/part_1_df_abstract_subset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D53EA01-4B73-D640-A9D3-9D81B6F7D824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6621455-B17D-594A-9309-70A0B61EFA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44000" yWindow="820" windowWidth="24260" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4100" yWindow="760" windowWidth="26140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2753" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2977" uniqueCount="759">
   <si>
     <t>type</t>
   </si>
@@ -4408,6 +4408,36 @@
   </si>
   <si>
     <t>abstract is summary of chapter, but not included in PDF</t>
+  </si>
+  <si>
+    <t>only "en" used in &lt;abstract&gt; but "ru" and "en" in article</t>
+  </si>
+  <si>
+    <t>non-Latin char;  can't verify</t>
+  </si>
+  <si>
+    <t>includes references not in the PDF</t>
+  </si>
+  <si>
+    <t>abstract is different than the PDf with addition of references</t>
+  </si>
+  <si>
+    <t>abstract attribute is "en" but is in "pt"</t>
+  </si>
+  <si>
+    <t>abstract is longer on the landing page than the PDF</t>
+  </si>
+  <si>
+    <t>abstract is longer in the metadata; XML shows update after initial deposit</t>
+  </si>
+  <si>
+    <t>"en</t>
+  </si>
+  <si>
+    <t>includes HTML</t>
+  </si>
+  <si>
+    <t>likely from cut and paste from webpage</t>
   </si>
 </sst>
 </file>
@@ -4808,10 +4838,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C247" sqref="C247"/>
+      <selection pane="bottomLeft" activeCell="L278" sqref="L278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14571,6 +14601,27 @@
       <c r="E247">
         <v>395</v>
       </c>
+      <c r="F247" t="s">
+        <v>574</v>
+      </c>
+      <c r="G247" t="s">
+        <v>574</v>
+      </c>
+      <c r="H247" t="s">
+        <v>573</v>
+      </c>
+      <c r="I247" t="s">
+        <v>573</v>
+      </c>
+      <c r="J247" t="s">
+        <v>574</v>
+      </c>
+      <c r="K247" t="s">
+        <v>573</v>
+      </c>
+      <c r="L247" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
@@ -14588,6 +14639,27 @@
       <c r="E248">
         <v>402</v>
       </c>
+      <c r="F248" t="s">
+        <v>574</v>
+      </c>
+      <c r="G248" t="s">
+        <v>574</v>
+      </c>
+      <c r="H248" t="s">
+        <v>573</v>
+      </c>
+      <c r="I248" t="s">
+        <v>591</v>
+      </c>
+      <c r="J248" t="s">
+        <v>574</v>
+      </c>
+      <c r="K248" t="s">
+        <v>573</v>
+      </c>
+      <c r="L248" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
@@ -14605,6 +14677,27 @@
       <c r="E249">
         <v>412</v>
       </c>
+      <c r="F249" t="s">
+        <v>574</v>
+      </c>
+      <c r="G249" t="s">
+        <v>574</v>
+      </c>
+      <c r="H249" t="s">
+        <v>573</v>
+      </c>
+      <c r="I249" t="s">
+        <v>573</v>
+      </c>
+      <c r="J249" t="s">
+        <v>574</v>
+      </c>
+      <c r="K249" t="s">
+        <v>573</v>
+      </c>
+      <c r="L249" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
@@ -14622,6 +14715,30 @@
       <c r="E250">
         <v>451</v>
       </c>
+      <c r="F250" t="s">
+        <v>574</v>
+      </c>
+      <c r="G250" t="s">
+        <v>574</v>
+      </c>
+      <c r="H250" t="s">
+        <v>573</v>
+      </c>
+      <c r="I250" t="s">
+        <v>574</v>
+      </c>
+      <c r="J250" t="s">
+        <v>574</v>
+      </c>
+      <c r="K250" t="s">
+        <v>573</v>
+      </c>
+      <c r="L250" t="s">
+        <v>643</v>
+      </c>
+      <c r="M250" t="s">
+        <v>749</v>
+      </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
@@ -14639,6 +14756,27 @@
       <c r="E251">
         <v>454</v>
       </c>
+      <c r="F251" t="s">
+        <v>574</v>
+      </c>
+      <c r="G251" t="s">
+        <v>574</v>
+      </c>
+      <c r="H251" t="s">
+        <v>573</v>
+      </c>
+      <c r="I251" t="s">
+        <v>591</v>
+      </c>
+      <c r="J251" t="s">
+        <v>574</v>
+      </c>
+      <c r="K251" t="s">
+        <v>573</v>
+      </c>
+      <c r="L251" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
@@ -14656,6 +14794,27 @@
       <c r="E252">
         <v>5136</v>
       </c>
+      <c r="F252" t="s">
+        <v>574</v>
+      </c>
+      <c r="G252" t="s">
+        <v>612</v>
+      </c>
+      <c r="H252" t="s">
+        <v>573</v>
+      </c>
+      <c r="I252" t="s">
+        <v>573</v>
+      </c>
+      <c r="J252" t="s">
+        <v>574</v>
+      </c>
+      <c r="K252" t="s">
+        <v>573</v>
+      </c>
+      <c r="L252" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
@@ -14673,6 +14832,30 @@
       <c r="E253">
         <v>3718</v>
       </c>
+      <c r="F253" t="s">
+        <v>574</v>
+      </c>
+      <c r="G253" t="s">
+        <v>574</v>
+      </c>
+      <c r="H253" t="s">
+        <v>591</v>
+      </c>
+      <c r="I253" t="s">
+        <v>591</v>
+      </c>
+      <c r="J253" t="s">
+        <v>574</v>
+      </c>
+      <c r="K253" t="s">
+        <v>573</v>
+      </c>
+      <c r="L253" t="s">
+        <v>750</v>
+      </c>
+      <c r="M253" t="s">
+        <v>618</v>
+      </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
@@ -14690,6 +14873,27 @@
       <c r="E254">
         <v>3671</v>
       </c>
+      <c r="F254" t="s">
+        <v>574</v>
+      </c>
+      <c r="G254" t="s">
+        <v>612</v>
+      </c>
+      <c r="H254" t="s">
+        <v>573</v>
+      </c>
+      <c r="I254" t="s">
+        <v>573</v>
+      </c>
+      <c r="J254" t="s">
+        <v>574</v>
+      </c>
+      <c r="K254" t="s">
+        <v>573</v>
+      </c>
+      <c r="L254" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
@@ -14707,6 +14911,30 @@
       <c r="E255">
         <v>3355</v>
       </c>
+      <c r="F255" t="s">
+        <v>574</v>
+      </c>
+      <c r="G255" t="s">
+        <v>612</v>
+      </c>
+      <c r="H255" t="s">
+        <v>573</v>
+      </c>
+      <c r="I255" t="s">
+        <v>574</v>
+      </c>
+      <c r="J255" t="s">
+        <v>574</v>
+      </c>
+      <c r="K255" t="s">
+        <v>573</v>
+      </c>
+      <c r="L255" t="s">
+        <v>751</v>
+      </c>
+      <c r="M255" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
@@ -14724,8 +14952,29 @@
       <c r="E256">
         <v>3203</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F256" t="s">
+        <v>574</v>
+      </c>
+      <c r="G256" t="s">
+        <v>574</v>
+      </c>
+      <c r="H256" t="s">
+        <v>573</v>
+      </c>
+      <c r="I256" t="s">
+        <v>591</v>
+      </c>
+      <c r="J256" t="s">
+        <v>574</v>
+      </c>
+      <c r="K256" t="s">
+        <v>573</v>
+      </c>
+      <c r="L256" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -14741,8 +14990,32 @@
       <c r="E257">
         <v>3179</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F257" t="s">
+        <v>574</v>
+      </c>
+      <c r="G257" t="s">
+        <v>612</v>
+      </c>
+      <c r="H257" t="s">
+        <v>591</v>
+      </c>
+      <c r="I257" t="s">
+        <v>591</v>
+      </c>
+      <c r="J257" t="s">
+        <v>574</v>
+      </c>
+      <c r="K257" t="s">
+        <v>573</v>
+      </c>
+      <c r="L257" t="s">
+        <v>675</v>
+      </c>
+      <c r="M257" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -14758,8 +15031,29 @@
       <c r="E258">
         <v>3142</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F258" t="s">
+        <v>574</v>
+      </c>
+      <c r="G258" t="s">
+        <v>574</v>
+      </c>
+      <c r="H258" t="s">
+        <v>573</v>
+      </c>
+      <c r="I258" t="s">
+        <v>573</v>
+      </c>
+      <c r="J258" t="s">
+        <v>574</v>
+      </c>
+      <c r="K258" t="s">
+        <v>573</v>
+      </c>
+      <c r="L258" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -14775,8 +15069,29 @@
       <c r="E259">
         <v>3086</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F259" t="s">
+        <v>574</v>
+      </c>
+      <c r="G259" t="s">
+        <v>574</v>
+      </c>
+      <c r="H259" t="s">
+        <v>573</v>
+      </c>
+      <c r="I259" t="s">
+        <v>591</v>
+      </c>
+      <c r="J259" t="s">
+        <v>574</v>
+      </c>
+      <c r="K259" t="s">
+        <v>573</v>
+      </c>
+      <c r="L259" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -14792,8 +15107,32 @@
       <c r="E260">
         <v>3082</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F260" t="s">
+        <v>574</v>
+      </c>
+      <c r="G260" t="s">
+        <v>612</v>
+      </c>
+      <c r="H260" t="s">
+        <v>573</v>
+      </c>
+      <c r="I260" t="s">
+        <v>574</v>
+      </c>
+      <c r="J260" t="s">
+        <v>574</v>
+      </c>
+      <c r="K260" t="s">
+        <v>573</v>
+      </c>
+      <c r="L260" t="s">
+        <v>754</v>
+      </c>
+      <c r="M260" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -14809,8 +15148,29 @@
       <c r="E261">
         <v>3019</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F261" t="s">
+        <v>574</v>
+      </c>
+      <c r="G261" t="s">
+        <v>574</v>
+      </c>
+      <c r="H261" t="s">
+        <v>573</v>
+      </c>
+      <c r="I261" t="s">
+        <v>573</v>
+      </c>
+      <c r="J261" t="s">
+        <v>574</v>
+      </c>
+      <c r="K261" t="s">
+        <v>573</v>
+      </c>
+      <c r="L261" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -14826,8 +15186,29 @@
       <c r="E262">
         <v>2788</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F262" t="s">
+        <v>574</v>
+      </c>
+      <c r="G262" t="s">
+        <v>574</v>
+      </c>
+      <c r="H262" t="s">
+        <v>573</v>
+      </c>
+      <c r="I262" t="s">
+        <v>573</v>
+      </c>
+      <c r="J262" t="s">
+        <v>574</v>
+      </c>
+      <c r="K262" t="s">
+        <v>573</v>
+      </c>
+      <c r="L262" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -14843,8 +15224,29 @@
       <c r="E263">
         <v>2573</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F263" t="s">
+        <v>574</v>
+      </c>
+      <c r="G263" t="s">
+        <v>693</v>
+      </c>
+      <c r="H263" t="s">
+        <v>573</v>
+      </c>
+      <c r="I263" t="s">
+        <v>591</v>
+      </c>
+      <c r="J263" t="s">
+        <v>574</v>
+      </c>
+      <c r="K263" t="s">
+        <v>573</v>
+      </c>
+      <c r="L263" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -14860,8 +15262,29 @@
       <c r="E264">
         <v>2570</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F264" t="s">
+        <v>574</v>
+      </c>
+      <c r="G264" t="s">
+        <v>612</v>
+      </c>
+      <c r="H264" t="s">
+        <v>573</v>
+      </c>
+      <c r="I264" t="s">
+        <v>573</v>
+      </c>
+      <c r="J264" t="s">
+        <v>574</v>
+      </c>
+      <c r="K264" t="s">
+        <v>573</v>
+      </c>
+      <c r="L264" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -14877,8 +15300,29 @@
       <c r="E265">
         <v>2414</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F265" t="s">
+        <v>574</v>
+      </c>
+      <c r="G265" t="s">
+        <v>574</v>
+      </c>
+      <c r="H265" t="s">
+        <v>573</v>
+      </c>
+      <c r="I265" t="s">
+        <v>591</v>
+      </c>
+      <c r="J265" t="s">
+        <v>574</v>
+      </c>
+      <c r="K265" t="s">
+        <v>573</v>
+      </c>
+      <c r="L265" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -14894,8 +15338,29 @@
       <c r="E266">
         <v>2396</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F266" t="s">
+        <v>574</v>
+      </c>
+      <c r="G266" t="s">
+        <v>574</v>
+      </c>
+      <c r="H266" t="s">
+        <v>573</v>
+      </c>
+      <c r="I266" t="s">
+        <v>591</v>
+      </c>
+      <c r="J266" t="s">
+        <v>574</v>
+      </c>
+      <c r="K266" t="s">
+        <v>573</v>
+      </c>
+      <c r="L266" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -14911,8 +15376,29 @@
       <c r="E267">
         <v>2388</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F267" t="s">
+        <v>574</v>
+      </c>
+      <c r="G267" t="s">
+        <v>612</v>
+      </c>
+      <c r="H267" t="s">
+        <v>573</v>
+      </c>
+      <c r="I267" t="s">
+        <v>573</v>
+      </c>
+      <c r="J267" t="s">
+        <v>574</v>
+      </c>
+      <c r="K267" t="s">
+        <v>573</v>
+      </c>
+      <c r="L267" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -14928,8 +15414,29 @@
       <c r="E268">
         <v>2352</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F268" t="s">
+        <v>574</v>
+      </c>
+      <c r="G268" t="s">
+        <v>756</v>
+      </c>
+      <c r="H268" t="s">
+        <v>573</v>
+      </c>
+      <c r="I268" t="s">
+        <v>573</v>
+      </c>
+      <c r="J268" t="s">
+        <v>574</v>
+      </c>
+      <c r="K268" t="s">
+        <v>573</v>
+      </c>
+      <c r="L268" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -14945,8 +15452,32 @@
       <c r="E269">
         <v>2327</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F269" t="s">
+        <v>574</v>
+      </c>
+      <c r="G269" t="s">
+        <v>574</v>
+      </c>
+      <c r="H269" t="s">
+        <v>573</v>
+      </c>
+      <c r="I269" t="s">
+        <v>591</v>
+      </c>
+      <c r="J269" t="s">
+        <v>574</v>
+      </c>
+      <c r="K269" t="s">
+        <v>573</v>
+      </c>
+      <c r="L269" t="s">
+        <v>757</v>
+      </c>
+      <c r="M269" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -14962,8 +15493,29 @@
       <c r="E270">
         <v>2305</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F270" t="s">
+        <v>574</v>
+      </c>
+      <c r="G270" t="s">
+        <v>612</v>
+      </c>
+      <c r="H270" t="s">
+        <v>591</v>
+      </c>
+      <c r="I270" t="s">
+        <v>591</v>
+      </c>
+      <c r="J270" t="s">
+        <v>574</v>
+      </c>
+      <c r="K270" t="s">
+        <v>573</v>
+      </c>
+      <c r="L270" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -14979,8 +15531,29 @@
       <c r="E271">
         <v>2262</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F271" t="s">
+        <v>574</v>
+      </c>
+      <c r="G271" t="s">
+        <v>693</v>
+      </c>
+      <c r="H271" t="s">
+        <v>573</v>
+      </c>
+      <c r="I271" t="s">
+        <v>591</v>
+      </c>
+      <c r="J271" t="s">
+        <v>574</v>
+      </c>
+      <c r="K271" t="s">
+        <v>573</v>
+      </c>
+      <c r="L271" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -14996,8 +15569,29 @@
       <c r="E272">
         <v>2219</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F272" t="s">
+        <v>574</v>
+      </c>
+      <c r="G272" t="s">
+        <v>574</v>
+      </c>
+      <c r="H272" t="s">
+        <v>573</v>
+      </c>
+      <c r="I272" t="s">
+        <v>591</v>
+      </c>
+      <c r="J272" t="s">
+        <v>574</v>
+      </c>
+      <c r="K272" t="s">
+        <v>573</v>
+      </c>
+      <c r="L272" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -15013,8 +15607,29 @@
       <c r="E273">
         <v>2213</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F273" t="s">
+        <v>574</v>
+      </c>
+      <c r="G273" t="s">
+        <v>612</v>
+      </c>
+      <c r="H273" t="s">
+        <v>573</v>
+      </c>
+      <c r="I273" t="s">
+        <v>573</v>
+      </c>
+      <c r="J273" t="s">
+        <v>574</v>
+      </c>
+      <c r="K273" t="s">
+        <v>573</v>
+      </c>
+      <c r="L273" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -15030,8 +15645,29 @@
       <c r="E274">
         <v>2210</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F274" t="s">
+        <v>574</v>
+      </c>
+      <c r="G274" t="s">
+        <v>574</v>
+      </c>
+      <c r="H274" t="s">
+        <v>573</v>
+      </c>
+      <c r="I274" t="s">
+        <v>573</v>
+      </c>
+      <c r="J274" t="s">
+        <v>574</v>
+      </c>
+      <c r="K274" t="s">
+        <v>573</v>
+      </c>
+      <c r="L274" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -15047,8 +15683,29 @@
       <c r="E275">
         <v>2181</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F275" t="s">
+        <v>574</v>
+      </c>
+      <c r="G275" t="s">
+        <v>612</v>
+      </c>
+      <c r="H275" t="s">
+        <v>591</v>
+      </c>
+      <c r="I275" t="s">
+        <v>573</v>
+      </c>
+      <c r="J275" t="s">
+        <v>574</v>
+      </c>
+      <c r="K275" t="s">
+        <v>573</v>
+      </c>
+      <c r="L275" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -15064,8 +15721,32 @@
       <c r="E276">
         <v>2171</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F276" t="s">
+        <v>574</v>
+      </c>
+      <c r="G276" t="s">
+        <v>574</v>
+      </c>
+      <c r="H276" t="s">
+        <v>573</v>
+      </c>
+      <c r="I276" t="s">
+        <v>591</v>
+      </c>
+      <c r="J276" t="s">
+        <v>574</v>
+      </c>
+      <c r="K276" t="s">
+        <v>573</v>
+      </c>
+      <c r="L276" t="s">
+        <v>757</v>
+      </c>
+      <c r="M276" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -15081,8 +15762,29 @@
       <c r="E277">
         <v>138</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F277" t="s">
+        <v>574</v>
+      </c>
+      <c r="G277" t="s">
+        <v>574</v>
+      </c>
+      <c r="H277" t="s">
+        <v>573</v>
+      </c>
+      <c r="I277" t="s">
+        <v>591</v>
+      </c>
+      <c r="J277" t="s">
+        <v>574</v>
+      </c>
+      <c r="K277" t="s">
+        <v>573</v>
+      </c>
+      <c r="L277" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -15099,7 +15801,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -15116,7 +15818,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -15133,7 +15835,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -15150,7 +15852,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -15167,7 +15869,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -15184,7 +15886,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -15201,7 +15903,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -15218,7 +15920,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -15235,7 +15937,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -15252,7 +15954,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>286</v>
       </c>

--- a/data/part_1_df_abstract_subset.xlsx
+++ b/data/part_1_df_abstract_subset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6621455-B17D-594A-9309-70A0B61EFA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84583EF-964D-6B49-9EE3-0EF66A605F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4100" yWindow="760" windowWidth="26140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2977" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3147" uniqueCount="763">
   <si>
     <t>type</t>
   </si>
@@ -4438,6 +4438,18 @@
   </si>
   <si>
     <t>likely from cut and paste from webpage</t>
+  </si>
+  <si>
+    <t>abstract is longer on the landing page than the metadata</t>
+  </si>
+  <si>
+    <t>"ru" and "en" in PDF</t>
+  </si>
+  <si>
+    <t>less than and greater than markup</t>
+  </si>
+  <si>
+    <t>permitted by crossref but may need to remove?</t>
   </si>
 </sst>
 </file>
@@ -4838,10 +4850,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A274" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L278" sqref="L278"/>
+      <selection pane="bottomLeft" activeCell="A284" sqref="A284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15800,6 +15812,27 @@
       <c r="E278">
         <v>196</v>
       </c>
+      <c r="F278" t="s">
+        <v>574</v>
+      </c>
+      <c r="G278" t="s">
+        <v>574</v>
+      </c>
+      <c r="H278" t="s">
+        <v>573</v>
+      </c>
+      <c r="I278" t="s">
+        <v>591</v>
+      </c>
+      <c r="J278" t="s">
+        <v>574</v>
+      </c>
+      <c r="K278" t="s">
+        <v>573</v>
+      </c>
+      <c r="L278" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
@@ -15817,6 +15850,27 @@
       <c r="E279">
         <v>204</v>
       </c>
+      <c r="F279" t="s">
+        <v>574</v>
+      </c>
+      <c r="G279" t="s">
+        <v>574</v>
+      </c>
+      <c r="H279" t="s">
+        <v>573</v>
+      </c>
+      <c r="I279" t="s">
+        <v>591</v>
+      </c>
+      <c r="J279" t="s">
+        <v>574</v>
+      </c>
+      <c r="K279" t="s">
+        <v>573</v>
+      </c>
+      <c r="L279" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
@@ -15834,6 +15888,27 @@
       <c r="E280">
         <v>217</v>
       </c>
+      <c r="F280" t="s">
+        <v>574</v>
+      </c>
+      <c r="G280" t="s">
+        <v>574</v>
+      </c>
+      <c r="H280" t="s">
+        <v>574</v>
+      </c>
+      <c r="I280" t="s">
+        <v>591</v>
+      </c>
+      <c r="J280" t="s">
+        <v>574</v>
+      </c>
+      <c r="K280" t="s">
+        <v>573</v>
+      </c>
+      <c r="L280" t="s">
+        <v>759</v>
+      </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
@@ -15851,6 +15926,27 @@
       <c r="E281">
         <v>217</v>
       </c>
+      <c r="F281" t="s">
+        <v>574</v>
+      </c>
+      <c r="G281" t="s">
+        <v>574</v>
+      </c>
+      <c r="H281" t="s">
+        <v>574</v>
+      </c>
+      <c r="I281" t="s">
+        <v>591</v>
+      </c>
+      <c r="J281" t="s">
+        <v>574</v>
+      </c>
+      <c r="K281" t="s">
+        <v>573</v>
+      </c>
+      <c r="L281" t="s">
+        <v>759</v>
+      </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
@@ -15868,6 +15964,27 @@
       <c r="E282">
         <v>221</v>
       </c>
+      <c r="F282" t="s">
+        <v>574</v>
+      </c>
+      <c r="G282" t="s">
+        <v>574</v>
+      </c>
+      <c r="H282" t="s">
+        <v>573</v>
+      </c>
+      <c r="I282" t="s">
+        <v>591</v>
+      </c>
+      <c r="J282" t="s">
+        <v>574</v>
+      </c>
+      <c r="K282" t="s">
+        <v>573</v>
+      </c>
+      <c r="L282" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
@@ -15885,6 +16002,30 @@
       <c r="E283">
         <v>224</v>
       </c>
+      <c r="F283" t="s">
+        <v>574</v>
+      </c>
+      <c r="G283" t="s">
+        <v>612</v>
+      </c>
+      <c r="H283" t="s">
+        <v>591</v>
+      </c>
+      <c r="I283" t="s">
+        <v>574</v>
+      </c>
+      <c r="J283" t="s">
+        <v>574</v>
+      </c>
+      <c r="K283" t="s">
+        <v>573</v>
+      </c>
+      <c r="L283" t="s">
+        <v>643</v>
+      </c>
+      <c r="M283" t="s">
+        <v>760</v>
+      </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
@@ -15902,6 +16043,27 @@
       <c r="E284">
         <v>231</v>
       </c>
+      <c r="F284" t="s">
+        <v>574</v>
+      </c>
+      <c r="G284" t="s">
+        <v>574</v>
+      </c>
+      <c r="H284" t="s">
+        <v>573</v>
+      </c>
+      <c r="I284" t="s">
+        <v>591</v>
+      </c>
+      <c r="J284" t="s">
+        <v>574</v>
+      </c>
+      <c r="K284" t="s">
+        <v>573</v>
+      </c>
+      <c r="L284" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
@@ -15919,6 +16081,27 @@
       <c r="E285">
         <v>239</v>
       </c>
+      <c r="F285" t="s">
+        <v>574</v>
+      </c>
+      <c r="G285" t="s">
+        <v>574</v>
+      </c>
+      <c r="H285" t="s">
+        <v>573</v>
+      </c>
+      <c r="I285" t="s">
+        <v>591</v>
+      </c>
+      <c r="J285" t="s">
+        <v>574</v>
+      </c>
+      <c r="K285" t="s">
+        <v>573</v>
+      </c>
+      <c r="L285" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
@@ -15936,6 +16119,27 @@
       <c r="E286">
         <v>239</v>
       </c>
+      <c r="F286" t="s">
+        <v>574</v>
+      </c>
+      <c r="G286" t="s">
+        <v>574</v>
+      </c>
+      <c r="H286" t="s">
+        <v>573</v>
+      </c>
+      <c r="I286" t="s">
+        <v>591</v>
+      </c>
+      <c r="J286" t="s">
+        <v>574</v>
+      </c>
+      <c r="K286" t="s">
+        <v>573</v>
+      </c>
+      <c r="L286" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
@@ -15953,6 +16157,27 @@
       <c r="E287">
         <v>240</v>
       </c>
+      <c r="F287" t="s">
+        <v>574</v>
+      </c>
+      <c r="G287" t="s">
+        <v>574</v>
+      </c>
+      <c r="H287" t="s">
+        <v>573</v>
+      </c>
+      <c r="I287" t="s">
+        <v>591</v>
+      </c>
+      <c r="J287" t="s">
+        <v>574</v>
+      </c>
+      <c r="K287" t="s">
+        <v>573</v>
+      </c>
+      <c r="L287" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
@@ -15970,8 +16195,29 @@
       <c r="E288">
         <v>240</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F288" t="s">
+        <v>574</v>
+      </c>
+      <c r="G288" t="s">
+        <v>574</v>
+      </c>
+      <c r="H288" t="s">
+        <v>573</v>
+      </c>
+      <c r="I288" t="s">
+        <v>591</v>
+      </c>
+      <c r="J288" t="s">
+        <v>574</v>
+      </c>
+      <c r="K288" t="s">
+        <v>573</v>
+      </c>
+      <c r="L288" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -15987,8 +16233,29 @@
       <c r="E289">
         <v>242</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F289" t="s">
+        <v>574</v>
+      </c>
+      <c r="G289" t="s">
+        <v>574</v>
+      </c>
+      <c r="H289" t="s">
+        <v>573</v>
+      </c>
+      <c r="I289" t="s">
+        <v>591</v>
+      </c>
+      <c r="J289" t="s">
+        <v>574</v>
+      </c>
+      <c r="K289" t="s">
+        <v>573</v>
+      </c>
+      <c r="L289" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -16004,8 +16271,29 @@
       <c r="E290">
         <v>244</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F290" t="s">
+        <v>574</v>
+      </c>
+      <c r="G290" t="s">
+        <v>574</v>
+      </c>
+      <c r="H290" t="s">
+        <v>573</v>
+      </c>
+      <c r="I290" t="s">
+        <v>591</v>
+      </c>
+      <c r="J290" t="s">
+        <v>574</v>
+      </c>
+      <c r="K290" t="s">
+        <v>573</v>
+      </c>
+      <c r="L290" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -16021,8 +16309,29 @@
       <c r="E291">
         <v>244</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F291" t="s">
+        <v>574</v>
+      </c>
+      <c r="G291" t="s">
+        <v>574</v>
+      </c>
+      <c r="H291" t="s">
+        <v>573</v>
+      </c>
+      <c r="I291" t="s">
+        <v>591</v>
+      </c>
+      <c r="J291" t="s">
+        <v>574</v>
+      </c>
+      <c r="K291" t="s">
+        <v>573</v>
+      </c>
+      <c r="L291" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -16038,8 +16347,29 @@
       <c r="E292">
         <v>249</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F292" t="s">
+        <v>574</v>
+      </c>
+      <c r="G292" t="s">
+        <v>574</v>
+      </c>
+      <c r="H292" t="s">
+        <v>573</v>
+      </c>
+      <c r="I292" t="s">
+        <v>591</v>
+      </c>
+      <c r="J292" t="s">
+        <v>574</v>
+      </c>
+      <c r="K292" t="s">
+        <v>573</v>
+      </c>
+      <c r="L292" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -16055,8 +16385,29 @@
       <c r="E293">
         <v>252</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F293" t="s">
+        <v>574</v>
+      </c>
+      <c r="G293" t="s">
+        <v>574</v>
+      </c>
+      <c r="H293" t="s">
+        <v>573</v>
+      </c>
+      <c r="I293" t="s">
+        <v>591</v>
+      </c>
+      <c r="J293" t="s">
+        <v>574</v>
+      </c>
+      <c r="K293" t="s">
+        <v>573</v>
+      </c>
+      <c r="L293" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -16072,8 +16423,29 @@
       <c r="E294">
         <v>252</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F294" t="s">
+        <v>574</v>
+      </c>
+      <c r="G294" t="s">
+        <v>574</v>
+      </c>
+      <c r="H294" t="s">
+        <v>573</v>
+      </c>
+      <c r="I294" t="s">
+        <v>591</v>
+      </c>
+      <c r="J294" t="s">
+        <v>574</v>
+      </c>
+      <c r="K294" t="s">
+        <v>573</v>
+      </c>
+      <c r="L294" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -16089,8 +16461,29 @@
       <c r="E295">
         <v>252</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F295" t="s">
+        <v>574</v>
+      </c>
+      <c r="G295" t="s">
+        <v>574</v>
+      </c>
+      <c r="H295" t="s">
+        <v>573</v>
+      </c>
+      <c r="I295" t="s">
+        <v>591</v>
+      </c>
+      <c r="J295" t="s">
+        <v>574</v>
+      </c>
+      <c r="K295" t="s">
+        <v>573</v>
+      </c>
+      <c r="L295" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -16106,8 +16499,29 @@
       <c r="E296">
         <v>255</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F296" t="s">
+        <v>574</v>
+      </c>
+      <c r="G296" t="s">
+        <v>574</v>
+      </c>
+      <c r="H296" t="s">
+        <v>573</v>
+      </c>
+      <c r="I296" t="s">
+        <v>591</v>
+      </c>
+      <c r="J296" t="s">
+        <v>574</v>
+      </c>
+      <c r="K296" t="s">
+        <v>573</v>
+      </c>
+      <c r="L296" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -16123,8 +16537,29 @@
       <c r="E297">
         <v>258</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F297" t="s">
+        <v>574</v>
+      </c>
+      <c r="G297" t="s">
+        <v>574</v>
+      </c>
+      <c r="H297" t="s">
+        <v>573</v>
+      </c>
+      <c r="I297" t="s">
+        <v>591</v>
+      </c>
+      <c r="J297" t="s">
+        <v>574</v>
+      </c>
+      <c r="K297" t="s">
+        <v>573</v>
+      </c>
+      <c r="L297" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -16140,8 +16575,29 @@
       <c r="E298">
         <v>260</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F298" t="s">
+        <v>574</v>
+      </c>
+      <c r="G298" t="s">
+        <v>574</v>
+      </c>
+      <c r="H298" t="s">
+        <v>573</v>
+      </c>
+      <c r="I298" t="s">
+        <v>591</v>
+      </c>
+      <c r="J298" t="s">
+        <v>574</v>
+      </c>
+      <c r="K298" t="s">
+        <v>573</v>
+      </c>
+      <c r="L298" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -16157,8 +16613,29 @@
       <c r="E299">
         <v>261</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F299" t="s">
+        <v>574</v>
+      </c>
+      <c r="G299" t="s">
+        <v>574</v>
+      </c>
+      <c r="H299" t="s">
+        <v>573</v>
+      </c>
+      <c r="I299" t="s">
+        <v>591</v>
+      </c>
+      <c r="J299" t="s">
+        <v>574</v>
+      </c>
+      <c r="K299" t="s">
+        <v>573</v>
+      </c>
+      <c r="L299" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -16174,8 +16651,29 @@
       <c r="E300">
         <v>262</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F300" t="s">
+        <v>574</v>
+      </c>
+      <c r="G300" t="s">
+        <v>574</v>
+      </c>
+      <c r="H300" t="s">
+        <v>573</v>
+      </c>
+      <c r="I300" t="s">
+        <v>591</v>
+      </c>
+      <c r="J300" t="s">
+        <v>574</v>
+      </c>
+      <c r="K300" t="s">
+        <v>573</v>
+      </c>
+      <c r="L300" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -16190,6 +16688,30 @@
       </c>
       <c r="E301">
         <v>266</v>
+      </c>
+      <c r="F301" t="s">
+        <v>573</v>
+      </c>
+      <c r="G301" t="s">
+        <v>574</v>
+      </c>
+      <c r="H301" t="s">
+        <v>573</v>
+      </c>
+      <c r="I301" t="s">
+        <v>591</v>
+      </c>
+      <c r="J301" t="s">
+        <v>574</v>
+      </c>
+      <c r="K301" t="s">
+        <v>573</v>
+      </c>
+      <c r="L301" t="s">
+        <v>761</v>
+      </c>
+      <c r="M301" t="s">
+        <v>762</v>
       </c>
     </row>
   </sheetData>

--- a/data/part_1_df_abstract_subset.xlsx
+++ b/data/part_1_df_abstract_subset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84583EF-964D-6B49-9EE3-0EF66A605F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288D7C0B-82B9-8F46-B91A-0559CBE567D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4100" yWindow="760" windowWidth="26140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4851,7 +4851,7 @@
   <dimension ref="A1:M301"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A274" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A284" sqref="A284"/>
     </sheetView>

--- a/data/part_1_df_abstract_subset.xlsx
+++ b/data/part_1_df_abstract_subset.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288D7C0B-82B9-8F46-B91A-0559CBE567D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC3DD46-680B-6449-B20A-A06AC6CBF0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4100" yWindow="760" windowWidth="26140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3880" yWindow="760" windowWidth="26140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$301</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3147" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3153" uniqueCount="753">
   <si>
     <t>type</t>
   </si>
@@ -3894,9 +3897,6 @@
     <t>original language but no language attribute</t>
   </si>
   <si>
-    <t>chemistry notation; MathML</t>
-  </si>
-  <si>
     <t>includes table</t>
   </si>
   <si>
@@ -4080,9 +4080,6 @@
     <t>front matter</t>
   </si>
   <si>
-    <t>front matter; includes personal contact information</t>
-  </si>
-  <si>
     <t>includes funding acknowledgement</t>
   </si>
   <si>
@@ -4092,9 +4089,6 @@
     <t>U+202F Zero break space from general punc</t>
   </si>
   <si>
-    <t>article includes two languages</t>
-  </si>
-  <si>
     <t>"uk" and "en" in article, but only "en" in metadata</t>
   </si>
   <si>
@@ -4155,21 +4149,12 @@
     <t>article in "en"; no abstract on article</t>
   </si>
   <si>
-    <t>empty; book review</t>
-  </si>
-  <si>
-    <t>empty; no abstract in article</t>
-  </si>
-  <si>
     <t>"de","en","fr","pl","uk"</t>
   </si>
   <si>
     <t>of the language attributes given in separate abstract elements, both "en" and "uk" were in English; the others were empty</t>
   </si>
   <si>
-    <t>first abstract was empty, the second and last had content</t>
-  </si>
-  <si>
     <t>"zh"</t>
   </si>
   <si>
@@ -4206,9 +4191,6 @@
     <t>"ar","en"</t>
   </si>
   <si>
-    <t>empty; article has abstract</t>
-  </si>
-  <si>
     <t>article has "ru" version of abstract</t>
   </si>
   <si>
@@ -4287,9 +4269,6 @@
     <t>Introduction</t>
   </si>
   <si>
-    <t>biblio information; abstract in article and landing page</t>
-  </si>
-  <si>
     <t>abstract in "ru" on landing page and in article</t>
   </si>
   <si>
@@ -4323,9 +4302,6 @@
     <t>first sentence of article truncated</t>
   </si>
   <si>
-    <t>article title used as abstract; abstract in article</t>
-  </si>
-  <si>
     <t>only part of the title was used in &lt;abstract&gt;; two abstract elements</t>
   </si>
   <si>
@@ -4383,9 +4359,6 @@
     <t>abstract not included in PDF</t>
   </si>
   <si>
-    <t>abstract not included in PDF; translated to "en" in &lt;abstract&gt;</t>
-  </si>
-  <si>
     <t>author translated abstract in PDF, article is in "uk"</t>
   </si>
   <si>
@@ -4425,9 +4398,6 @@
     <t>abstract attribute is "en" but is in "pt"</t>
   </si>
   <si>
-    <t>abstract is longer on the landing page than the PDF</t>
-  </si>
-  <si>
     <t>abstract is longer in the metadata; XML shows update after initial deposit</t>
   </si>
   <si>
@@ -4440,9 +4410,6 @@
     <t>likely from cut and paste from webpage</t>
   </si>
   <si>
-    <t>abstract is longer on the landing page than the metadata</t>
-  </si>
-  <si>
     <t>"ru" and "en" in PDF</t>
   </si>
   <si>
@@ -4450,6 +4417,12 @@
   </si>
   <si>
     <t>permitted by crossref but may need to remove?</t>
+  </si>
+  <si>
+    <t>abstract is longer on the landing page</t>
+  </si>
+  <si>
+    <t>article version includes two languages</t>
   </si>
 </sst>
 </file>
@@ -4850,10 +4823,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A284" sqref="A284"/>
+      <selection pane="bottomLeft" activeCell="L173" sqref="L173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4866,7 +4839,7 @@
     <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
     <col min="12" max="12" width="42.1640625" customWidth="1"/>
     <col min="13" max="13" width="75" bestFit="1" customWidth="1"/>
   </cols>
@@ -4900,7 +4873,7 @@
         <v>571</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>570</v>
@@ -4944,7 +4917,7 @@
         <v>573</v>
       </c>
       <c r="L2" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -5058,10 +5031,10 @@
         <v>573</v>
       </c>
       <c r="L5" t="s">
+        <v>577</v>
+      </c>
+      <c r="M5" t="s">
         <v>578</v>
-      </c>
-      <c r="M5" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -5099,10 +5072,10 @@
         <v>573</v>
       </c>
       <c r="L6" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -5140,7 +5113,7 @@
         <v>573</v>
       </c>
       <c r="L7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -5178,10 +5151,10 @@
         <v>573</v>
       </c>
       <c r="L8" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -5219,10 +5192,10 @@
         <v>573</v>
       </c>
       <c r="L9" t="s">
+        <v>581</v>
+      </c>
+      <c r="M9" t="s">
         <v>582</v>
-      </c>
-      <c r="M9" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -5260,7 +5233,7 @@
         <v>573</v>
       </c>
       <c r="L10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -5298,10 +5271,10 @@
         <v>573</v>
       </c>
       <c r="L11" t="s">
+        <v>583</v>
+      </c>
+      <c r="M11" t="s">
         <v>584</v>
-      </c>
-      <c r="M11" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -5339,10 +5312,10 @@
         <v>573</v>
       </c>
       <c r="L12" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="M12" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -5380,10 +5353,10 @@
         <v>573</v>
       </c>
       <c r="L13" t="s">
+        <v>586</v>
+      </c>
+      <c r="M13" t="s">
         <v>587</v>
-      </c>
-      <c r="M13" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -5409,7 +5382,7 @@
         <v>574</v>
       </c>
       <c r="H14" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I14" t="s">
         <v>574</v>
@@ -5421,10 +5394,10 @@
         <v>573</v>
       </c>
       <c r="L14" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="M14" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -5462,7 +5435,7 @@
         <v>573</v>
       </c>
       <c r="L15" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -5500,10 +5473,10 @@
         <v>573</v>
       </c>
       <c r="L16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="M16" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -5541,10 +5514,10 @@
         <v>573</v>
       </c>
       <c r="L17" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M17" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -5582,10 +5555,10 @@
         <v>573</v>
       </c>
       <c r="L18" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="M18" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -5623,10 +5596,10 @@
         <v>573</v>
       </c>
       <c r="L19" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="M19" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -5664,7 +5637,7 @@
         <v>573</v>
       </c>
       <c r="L20" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -5690,7 +5663,7 @@
         <v>574</v>
       </c>
       <c r="H21" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I21" t="s">
         <v>573</v>
@@ -5702,10 +5675,10 @@
         <v>573</v>
       </c>
       <c r="L21" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="M21" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -5743,10 +5716,10 @@
         <v>573</v>
       </c>
       <c r="L22" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M22" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -5784,10 +5757,10 @@
         <v>573</v>
       </c>
       <c r="L23" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="M23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -5825,10 +5798,10 @@
         <v>573</v>
       </c>
       <c r="L24" t="s">
+        <v>599</v>
+      </c>
+      <c r="M24" t="s">
         <v>600</v>
-      </c>
-      <c r="M24" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -5851,7 +5824,7 @@
         <v>574</v>
       </c>
       <c r="G25" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H25" t="s">
         <v>573</v>
@@ -5866,10 +5839,10 @@
         <v>573</v>
       </c>
       <c r="L25" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M25" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -5907,10 +5880,10 @@
         <v>573</v>
       </c>
       <c r="L26" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="M26" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -5933,7 +5906,7 @@
         <v>574</v>
       </c>
       <c r="G27" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H27" t="s">
         <v>573</v>
@@ -5948,7 +5921,7 @@
         <v>573</v>
       </c>
       <c r="L27" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -5986,10 +5959,10 @@
         <v>573</v>
       </c>
       <c r="L28" t="s">
+        <v>601</v>
+      </c>
+      <c r="M28" t="s">
         <v>602</v>
-      </c>
-      <c r="M28" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -6027,10 +6000,10 @@
         <v>573</v>
       </c>
       <c r="L29" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="M29" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -6059,7 +6032,7 @@
         <v>573</v>
       </c>
       <c r="I30" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J30" t="s">
         <v>574</v>
@@ -6068,7 +6041,7 @@
         <v>573</v>
       </c>
       <c r="L30" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -6106,10 +6079,10 @@
         <v>573</v>
       </c>
       <c r="L31" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M31" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -6132,7 +6105,7 @@
         <v>574</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>573</v>
@@ -6147,10 +6120,10 @@
         <v>574</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -6173,7 +6146,7 @@
         <v>574</v>
       </c>
       <c r="G33" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H33" t="s">
         <v>574</v>
@@ -6188,10 +6161,10 @@
         <v>573</v>
       </c>
       <c r="L33" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M33" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -6220,7 +6193,7 @@
         <v>573</v>
       </c>
       <c r="I34" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J34" t="s">
         <v>574</v>
@@ -6229,7 +6202,7 @@
         <v>573</v>
       </c>
       <c r="L34" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -6258,7 +6231,7 @@
         <v>573</v>
       </c>
       <c r="I35" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J35" t="s">
         <v>574</v>
@@ -6267,10 +6240,10 @@
         <v>573</v>
       </c>
       <c r="L35" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M35" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -6296,7 +6269,7 @@
         <v>574</v>
       </c>
       <c r="H36" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I36" t="s">
         <v>573</v>
@@ -6308,10 +6281,10 @@
         <v>573</v>
       </c>
       <c r="L36" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M36" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -6337,7 +6310,7 @@
         <v>574</v>
       </c>
       <c r="H37" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I37" t="s">
         <v>573</v>
@@ -6349,10 +6322,10 @@
         <v>573</v>
       </c>
       <c r="L37" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M37" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -6390,7 +6363,7 @@
         <v>573</v>
       </c>
       <c r="L38" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
@@ -6413,7 +6386,7 @@
         <v>574</v>
       </c>
       <c r="G39" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H39" t="s">
         <v>573</v>
@@ -6428,10 +6401,10 @@
         <v>573</v>
       </c>
       <c r="L39" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M39" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -6460,7 +6433,7 @@
         <v>573</v>
       </c>
       <c r="I40" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J40" t="s">
         <v>574</v>
@@ -6469,10 +6442,10 @@
         <v>573</v>
       </c>
       <c r="L40" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="M40" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
@@ -6510,10 +6483,10 @@
         <v>573</v>
       </c>
       <c r="L41" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M41" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
@@ -6539,7 +6512,7 @@
         <v>574</v>
       </c>
       <c r="H42" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I42" t="s">
         <v>573</v>
@@ -6551,10 +6524,10 @@
         <v>573</v>
       </c>
       <c r="L42" t="s">
+        <v>622</v>
+      </c>
+      <c r="M42" t="s">
         <v>623</v>
-      </c>
-      <c r="M42" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
@@ -6592,7 +6565,7 @@
         <v>573</v>
       </c>
       <c r="L43" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
@@ -6630,7 +6603,7 @@
         <v>573</v>
       </c>
       <c r="L44" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
@@ -6656,7 +6629,7 @@
         <v>574</v>
       </c>
       <c r="H45" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I45" t="s">
         <v>573</v>
@@ -6668,10 +6641,10 @@
         <v>573</v>
       </c>
       <c r="L45" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M45" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
@@ -6700,7 +6673,7 @@
         <v>573</v>
       </c>
       <c r="I46" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J46" t="s">
         <v>574</v>
@@ -6709,7 +6682,7 @@
         <v>573</v>
       </c>
       <c r="L46" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
@@ -6738,7 +6711,7 @@
         <v>573</v>
       </c>
       <c r="I47" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J47" t="s">
         <v>574</v>
@@ -6747,10 +6720,10 @@
         <v>573</v>
       </c>
       <c r="L47" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M47" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
@@ -6788,10 +6761,10 @@
         <v>573</v>
       </c>
       <c r="L48" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M48" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
@@ -6829,10 +6802,10 @@
         <v>573</v>
       </c>
       <c r="L49" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M49" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
@@ -6870,10 +6843,10 @@
         <v>573</v>
       </c>
       <c r="L50" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M50" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
@@ -6911,7 +6884,7 @@
         <v>573</v>
       </c>
       <c r="L51" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
@@ -6940,7 +6913,7 @@
         <v>573</v>
       </c>
       <c r="I52" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J52" t="s">
         <v>574</v>
@@ -6949,10 +6922,10 @@
         <v>573</v>
       </c>
       <c r="L52" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="M52" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
@@ -6981,7 +6954,7 @@
         <v>573</v>
       </c>
       <c r="I53" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J53" t="s">
         <v>574</v>
@@ -6990,10 +6963,10 @@
         <v>573</v>
       </c>
       <c r="L53" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M53" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
@@ -7022,7 +6995,7 @@
         <v>573</v>
       </c>
       <c r="I54" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J54" t="s">
         <v>574</v>
@@ -7031,10 +7004,10 @@
         <v>573</v>
       </c>
       <c r="L54" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M54" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
@@ -7072,10 +7045,10 @@
         <v>573</v>
       </c>
       <c r="L55" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M55" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
@@ -7113,10 +7086,10 @@
         <v>573</v>
       </c>
       <c r="L56" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M56" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
@@ -7145,7 +7118,7 @@
         <v>573</v>
       </c>
       <c r="I57" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J57" t="s">
         <v>574</v>
@@ -7154,10 +7127,10 @@
         <v>573</v>
       </c>
       <c r="L57" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M57" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
@@ -7195,7 +7168,7 @@
         <v>573</v>
       </c>
       <c r="L58" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
@@ -7233,7 +7206,7 @@
         <v>573</v>
       </c>
       <c r="L59" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
@@ -7262,7 +7235,7 @@
         <v>573</v>
       </c>
       <c r="I60" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J60" t="s">
         <v>574</v>
@@ -7271,10 +7244,10 @@
         <v>573</v>
       </c>
       <c r="L60" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M60" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
@@ -7312,10 +7285,10 @@
         <v>573</v>
       </c>
       <c r="L61" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="M61" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
@@ -7353,7 +7326,7 @@
         <v>573</v>
       </c>
       <c r="L62" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
@@ -7376,7 +7349,7 @@
         <v>574</v>
       </c>
       <c r="G63" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H63" t="s">
         <v>573</v>
@@ -7391,7 +7364,7 @@
         <v>573</v>
       </c>
       <c r="L63" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
@@ -7414,7 +7387,7 @@
         <v>574</v>
       </c>
       <c r="G64" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H64" t="s">
         <v>573</v>
@@ -7429,7 +7402,7 @@
         <v>573</v>
       </c>
       <c r="L64" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
@@ -7467,7 +7440,7 @@
         <v>573</v>
       </c>
       <c r="L65" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
@@ -7505,7 +7478,7 @@
         <v>573</v>
       </c>
       <c r="L66" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
@@ -7543,7 +7516,7 @@
         <v>573</v>
       </c>
       <c r="L67" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
@@ -7569,7 +7542,7 @@
         <v>574</v>
       </c>
       <c r="H68" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I68" t="s">
         <v>573</v>
@@ -7581,10 +7554,10 @@
         <v>573</v>
       </c>
       <c r="L68" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="M68" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
@@ -7622,7 +7595,7 @@
         <v>573</v>
       </c>
       <c r="L69" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
@@ -7660,10 +7633,10 @@
         <v>573</v>
       </c>
       <c r="L70" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M70" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
@@ -7686,7 +7659,7 @@
         <v>574</v>
       </c>
       <c r="G71" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H71" t="s">
         <v>573</v>
@@ -7701,10 +7674,10 @@
         <v>573</v>
       </c>
       <c r="L71" t="s">
-        <v>643</v>
+        <v>752</v>
       </c>
       <c r="M71" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
@@ -7730,7 +7703,7 @@
         <v>574</v>
       </c>
       <c r="H72" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I72" t="s">
         <v>573</v>
@@ -7742,10 +7715,10 @@
         <v>573</v>
       </c>
       <c r="L72" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M72" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
@@ -7783,10 +7756,10 @@
         <v>573</v>
       </c>
       <c r="L73" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M73" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
@@ -7815,7 +7788,7 @@
         <v>573</v>
       </c>
       <c r="I74" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J74" t="s">
         <v>574</v>
@@ -7824,7 +7797,7 @@
         <v>573</v>
       </c>
       <c r="L74" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
@@ -7847,7 +7820,7 @@
         <v>574</v>
       </c>
       <c r="G75" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H75" t="s">
         <v>573</v>
@@ -7862,10 +7835,10 @@
         <v>573</v>
       </c>
       <c r="L75" t="s">
-        <v>643</v>
+        <v>752</v>
       </c>
       <c r="M75" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
@@ -7903,10 +7876,10 @@
         <v>573</v>
       </c>
       <c r="L76" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="M76" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
@@ -7929,13 +7902,13 @@
         <v>574</v>
       </c>
       <c r="G77" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H77" t="s">
         <v>573</v>
       </c>
       <c r="I77" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J77" t="s">
         <v>574</v>
@@ -7944,10 +7917,10 @@
         <v>573</v>
       </c>
       <c r="L77" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="M77" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
@@ -7985,10 +7958,10 @@
         <v>573</v>
       </c>
       <c r="L78" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="M78" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
@@ -8026,7 +7999,7 @@
         <v>573</v>
       </c>
       <c r="L79" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
@@ -8049,7 +8022,7 @@
         <v>573</v>
       </c>
       <c r="G80" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H80" t="s">
         <v>573</v>
@@ -8064,7 +8037,7 @@
         <v>573</v>
       </c>
       <c r="L80" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
@@ -8102,7 +8075,7 @@
         <v>573</v>
       </c>
       <c r="L81" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
@@ -8140,7 +8113,7 @@
         <v>573</v>
       </c>
       <c r="L82" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
@@ -8163,7 +8136,7 @@
         <v>574</v>
       </c>
       <c r="G83" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H83" t="s">
         <v>573</v>
@@ -8178,7 +8151,7 @@
         <v>573</v>
       </c>
       <c r="L83" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
@@ -8216,7 +8189,7 @@
         <v>573</v>
       </c>
       <c r="L84" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
@@ -8245,7 +8218,7 @@
         <v>573</v>
       </c>
       <c r="I85" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J85" t="s">
         <v>574</v>
@@ -8254,7 +8227,7 @@
         <v>573</v>
       </c>
       <c r="L85" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
@@ -8292,10 +8265,10 @@
         <v>573</v>
       </c>
       <c r="L86" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="M86" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
@@ -8333,10 +8306,10 @@
         <v>573</v>
       </c>
       <c r="L87" t="s">
-        <v>643</v>
+        <v>752</v>
       </c>
       <c r="M87" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
@@ -8374,7 +8347,7 @@
         <v>573</v>
       </c>
       <c r="L88" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
@@ -8397,7 +8370,7 @@
         <v>574</v>
       </c>
       <c r="G89" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H89" t="s">
         <v>573</v>
@@ -8412,10 +8385,10 @@
         <v>574</v>
       </c>
       <c r="L89" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M89" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
@@ -8441,7 +8414,7 @@
         <v>574</v>
       </c>
       <c r="H90" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I90" t="s">
         <v>574</v>
@@ -8453,10 +8426,10 @@
         <v>573</v>
       </c>
       <c r="L90" t="s">
-        <v>643</v>
+        <v>752</v>
       </c>
       <c r="M90" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
@@ -8494,7 +8467,7 @@
         <v>573</v>
       </c>
       <c r="L91" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
@@ -8517,7 +8490,7 @@
         <v>573</v>
       </c>
       <c r="G92" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H92" t="s">
         <v>573</v>
@@ -8532,10 +8505,10 @@
         <v>573</v>
       </c>
       <c r="L92" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="M92" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
@@ -8573,10 +8546,10 @@
         <v>573</v>
       </c>
       <c r="L93" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M93" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
@@ -8599,7 +8572,7 @@
         <v>574</v>
       </c>
       <c r="G94" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H94" t="s">
         <v>573</v>
@@ -8614,7 +8587,7 @@
         <v>573</v>
       </c>
       <c r="L94" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
@@ -8652,7 +8625,7 @@
         <v>573</v>
       </c>
       <c r="L95" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
@@ -8690,7 +8663,7 @@
         <v>573</v>
       </c>
       <c r="L96" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
@@ -8728,10 +8701,10 @@
         <v>573</v>
       </c>
       <c r="L97" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="M97" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
@@ -8760,7 +8733,7 @@
         <v>573</v>
       </c>
       <c r="I98" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J98" t="s">
         <v>574</v>
@@ -8769,10 +8742,10 @@
         <v>573</v>
       </c>
       <c r="L98" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="M98" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
@@ -8810,7 +8783,7 @@
         <v>573</v>
       </c>
       <c r="L99" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
@@ -8848,7 +8821,7 @@
         <v>573</v>
       </c>
       <c r="L100" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
@@ -8874,10 +8847,10 @@
         <v>574</v>
       </c>
       <c r="H101" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I101" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J101" t="s">
         <v>574</v>
@@ -8886,10 +8859,10 @@
         <v>573</v>
       </c>
       <c r="L101" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="M101" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
@@ -8912,13 +8885,13 @@
         <v>574</v>
       </c>
       <c r="G102" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H102" t="s">
         <v>574</v>
       </c>
       <c r="I102" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J102" t="s">
         <v>574</v>
@@ -8927,10 +8900,10 @@
         <v>573</v>
       </c>
       <c r="L102" t="s">
-        <v>659</v>
+        <v>717</v>
       </c>
       <c r="M102" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
@@ -8959,7 +8932,7 @@
         <v>573</v>
       </c>
       <c r="I103" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J103" t="s">
         <v>574</v>
@@ -8968,10 +8941,10 @@
         <v>573</v>
       </c>
       <c r="L103" t="s">
-        <v>659</v>
+        <v>717</v>
       </c>
       <c r="M103" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
@@ -9000,7 +8973,7 @@
         <v>573</v>
       </c>
       <c r="I104" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J104" t="s">
         <v>574</v>
@@ -9009,7 +8982,7 @@
         <v>573</v>
       </c>
       <c r="L104" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
@@ -9032,13 +9005,13 @@
         <v>574</v>
       </c>
       <c r="G105" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H105" t="s">
         <v>573</v>
       </c>
       <c r="I105" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J105" t="s">
         <v>574</v>
@@ -9047,7 +9020,7 @@
         <v>573</v>
       </c>
       <c r="L105" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
@@ -9085,10 +9058,10 @@
         <v>573</v>
       </c>
       <c r="L106" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
       <c r="M106" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
@@ -9126,7 +9099,10 @@
         <v>573</v>
       </c>
       <c r="L107" t="s">
-        <v>664</v>
+        <v>656</v>
+      </c>
+      <c r="M107" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
@@ -9164,7 +9140,7 @@
         <v>573</v>
       </c>
       <c r="L108" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
@@ -9187,25 +9163,25 @@
         <v>574</v>
       </c>
       <c r="G109" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="H109" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="I109" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="J109" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="K109" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="L109" t="s">
         <v>666</v>
       </c>
-      <c r="H109" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="I109" s="6" t="s">
-        <v>573</v>
-      </c>
-      <c r="J109" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="K109" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="L109" s="6" t="s">
-        <v>668</v>
-      </c>
       <c r="M109" s="6" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
@@ -9228,13 +9204,13 @@
         <v>574</v>
       </c>
       <c r="G110" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="H110" t="s">
         <v>574</v>
       </c>
       <c r="I110" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J110" t="s">
         <v>574</v>
@@ -9243,10 +9219,10 @@
         <v>573</v>
       </c>
       <c r="L110" t="s">
-        <v>659</v>
+        <v>717</v>
       </c>
       <c r="M110" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
@@ -9284,7 +9260,7 @@
         <v>573</v>
       </c>
       <c r="L111" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
@@ -9307,25 +9283,25 @@
         <v>574</v>
       </c>
       <c r="G112" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="H112" t="s">
+        <v>573</v>
+      </c>
+      <c r="I112" t="s">
+        <v>573</v>
+      </c>
+      <c r="J112" t="s">
+        <v>574</v>
+      </c>
+      <c r="K112" t="s">
+        <v>574</v>
+      </c>
+      <c r="L112" t="s">
         <v>666</v>
       </c>
-      <c r="H112" t="s">
-        <v>573</v>
-      </c>
-      <c r="I112" t="s">
-        <v>573</v>
-      </c>
-      <c r="J112" t="s">
-        <v>574</v>
-      </c>
-      <c r="K112" t="s">
-        <v>574</v>
-      </c>
-      <c r="L112" t="s">
-        <v>672</v>
-      </c>
       <c r="M112" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
@@ -9363,10 +9339,10 @@
         <v>573</v>
       </c>
       <c r="L113" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
       <c r="M113" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
@@ -9389,7 +9365,7 @@
         <v>574</v>
       </c>
       <c r="G114" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="H114" t="s">
         <v>573</v>
@@ -9404,7 +9380,10 @@
         <v>573</v>
       </c>
       <c r="L114" t="s">
-        <v>664</v>
+        <v>656</v>
+      </c>
+      <c r="M114" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
@@ -9427,22 +9406,22 @@
         <v>574</v>
       </c>
       <c r="G115" t="s">
+        <v>663</v>
+      </c>
+      <c r="H115" t="s">
+        <v>590</v>
+      </c>
+      <c r="I115" t="s">
+        <v>590</v>
+      </c>
+      <c r="J115" t="s">
+        <v>574</v>
+      </c>
+      <c r="K115" t="s">
+        <v>573</v>
+      </c>
+      <c r="L115" t="s">
         <v>669</v>
-      </c>
-      <c r="H115" t="s">
-        <v>591</v>
-      </c>
-      <c r="I115" t="s">
-        <v>591</v>
-      </c>
-      <c r="J115" t="s">
-        <v>574</v>
-      </c>
-      <c r="K115" t="s">
-        <v>573</v>
-      </c>
-      <c r="L115" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
@@ -9465,13 +9444,13 @@
         <v>574</v>
       </c>
       <c r="G116" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H116" t="s">
         <v>574</v>
       </c>
       <c r="I116" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J116" t="s">
         <v>574</v>
@@ -9480,10 +9459,10 @@
         <v>573</v>
       </c>
       <c r="L116" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="M116" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
@@ -9521,7 +9500,7 @@
         <v>573</v>
       </c>
       <c r="L117" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
@@ -9544,7 +9523,7 @@
         <v>574</v>
       </c>
       <c r="G118" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="H118" t="s">
         <v>574</v>
@@ -9559,10 +9538,10 @@
         <v>574</v>
       </c>
       <c r="L118" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="M118" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
@@ -9600,7 +9579,7 @@
         <v>573</v>
       </c>
       <c r="L119" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
@@ -9623,7 +9602,7 @@
         <v>574</v>
       </c>
       <c r="G120" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="H120" t="s">
         <v>573</v>
@@ -9638,7 +9617,7 @@
         <v>573</v>
       </c>
       <c r="L120" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
@@ -9676,10 +9655,10 @@
         <v>573</v>
       </c>
       <c r="L121" t="s">
-        <v>681</v>
+        <v>717</v>
       </c>
       <c r="M121" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
@@ -9717,7 +9696,7 @@
         <v>573</v>
       </c>
       <c r="L122" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
@@ -9743,10 +9722,10 @@
         <v>574</v>
       </c>
       <c r="H123" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I123" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J123" t="s">
         <v>574</v>
@@ -9755,7 +9734,7 @@
         <v>573</v>
       </c>
       <c r="L123" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
@@ -9793,7 +9772,7 @@
         <v>573</v>
       </c>
       <c r="L124" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
@@ -9831,10 +9810,10 @@
         <v>573</v>
       </c>
       <c r="L125" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="M125" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
@@ -9857,7 +9836,7 @@
         <v>574</v>
       </c>
       <c r="G126" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="H126" t="s">
         <v>573</v>
@@ -9872,10 +9851,10 @@
         <v>573</v>
       </c>
       <c r="L126" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
       <c r="M126" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
@@ -9913,7 +9892,7 @@
         <v>573</v>
       </c>
       <c r="L127" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
@@ -9951,7 +9930,7 @@
         <v>573</v>
       </c>
       <c r="L128" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.2">
@@ -9980,7 +9959,7 @@
         <v>573</v>
       </c>
       <c r="I129" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J129" t="s">
         <v>574</v>
@@ -9989,10 +9968,10 @@
         <v>573</v>
       </c>
       <c r="L129" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
       <c r="M129" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
@@ -10030,10 +10009,10 @@
         <v>573</v>
       </c>
       <c r="L130" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
       <c r="M130" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
@@ -10062,7 +10041,7 @@
         <v>573</v>
       </c>
       <c r="I131" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J131" t="s">
         <v>574</v>
@@ -10071,7 +10050,7 @@
         <v>573</v>
       </c>
       <c r="L131" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
@@ -10109,10 +10088,10 @@
         <v>573</v>
       </c>
       <c r="L132" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
       <c r="M132" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
@@ -10150,10 +10129,10 @@
         <v>573</v>
       </c>
       <c r="L133" t="s">
-        <v>681</v>
+        <v>717</v>
       </c>
       <c r="M133" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.2">
@@ -10191,7 +10170,7 @@
         <v>573</v>
       </c>
       <c r="L134" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.2">
@@ -10229,10 +10208,10 @@
         <v>573</v>
       </c>
       <c r="L135" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
       <c r="M135" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.2">
@@ -10270,7 +10249,7 @@
         <v>573</v>
       </c>
       <c r="L136" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.2">
@@ -10308,10 +10287,10 @@
         <v>573</v>
       </c>
       <c r="L137" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
       <c r="M137" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.2">
@@ -10349,10 +10328,10 @@
         <v>573</v>
       </c>
       <c r="L138" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
       <c r="M138" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.2">
@@ -10378,7 +10357,7 @@
         <v>574</v>
       </c>
       <c r="H139" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I139" t="s">
         <v>573</v>
@@ -10390,7 +10369,7 @@
         <v>573</v>
       </c>
       <c r="L139" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.2">
@@ -10413,7 +10392,7 @@
         <v>574</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="H140" s="6" t="s">
         <v>574</v>
@@ -10427,11 +10406,11 @@
       <c r="K140" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="L140" s="6" t="s">
-        <v>681</v>
+      <c r="L140" t="s">
+        <v>717</v>
       </c>
       <c r="M140" s="6" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.2">
@@ -10469,7 +10448,7 @@
         <v>573</v>
       </c>
       <c r="L141" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.2">
@@ -10507,7 +10486,7 @@
         <v>573</v>
       </c>
       <c r="L142" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.2">
@@ -10545,7 +10524,10 @@
         <v>573</v>
       </c>
       <c r="L143" t="s">
-        <v>664</v>
+        <v>656</v>
+      </c>
+      <c r="M143" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.2">
@@ -10568,7 +10550,7 @@
         <v>574</v>
       </c>
       <c r="G144" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="H144" t="s">
         <v>573</v>
@@ -10583,7 +10565,7 @@
         <v>573</v>
       </c>
       <c r="L144" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.2">
@@ -10612,7 +10594,7 @@
         <v>573</v>
       </c>
       <c r="I145" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J145" t="s">
         <v>574</v>
@@ -10621,10 +10603,10 @@
         <v>573</v>
       </c>
       <c r="L145" t="s">
-        <v>659</v>
+        <v>717</v>
       </c>
       <c r="M145" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.2">
@@ -10662,7 +10644,10 @@
         <v>573</v>
       </c>
       <c r="L146" t="s">
-        <v>664</v>
+        <v>656</v>
+      </c>
+      <c r="M146" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.2">
@@ -10700,10 +10685,10 @@
         <v>573</v>
       </c>
       <c r="L147" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
       <c r="M147" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.2">
@@ -10741,7 +10726,10 @@
         <v>573</v>
       </c>
       <c r="L148" t="s">
-        <v>664</v>
+        <v>656</v>
+      </c>
+      <c r="M148" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.2">
@@ -10779,7 +10767,7 @@
         <v>573</v>
       </c>
       <c r="L149" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.2">
@@ -10817,7 +10805,10 @@
         <v>573</v>
       </c>
       <c r="L150" t="s">
-        <v>664</v>
+        <v>656</v>
+      </c>
+      <c r="M150" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.2">
@@ -10855,10 +10846,10 @@
         <v>573</v>
       </c>
       <c r="L151" t="s">
-        <v>659</v>
+        <v>717</v>
       </c>
       <c r="M151" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.2">
@@ -10896,10 +10887,10 @@
         <v>573</v>
       </c>
       <c r="L152" t="s">
-        <v>681</v>
+        <v>717</v>
       </c>
       <c r="M152" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.2">
@@ -10937,7 +10928,7 @@
         <v>573</v>
       </c>
       <c r="L153" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.2">
@@ -10975,10 +10966,10 @@
         <v>573</v>
       </c>
       <c r="L154" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
       <c r="M154" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.2">
@@ -11016,7 +11007,7 @@
         <v>573</v>
       </c>
       <c r="L155" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.2">
@@ -11054,10 +11045,10 @@
         <v>573</v>
       </c>
       <c r="L156" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
       <c r="M156" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.2">
@@ -11095,10 +11086,10 @@
         <v>573</v>
       </c>
       <c r="L157" t="s">
-        <v>681</v>
+        <v>717</v>
       </c>
       <c r="M157" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.2">
@@ -11121,7 +11112,7 @@
         <v>574</v>
       </c>
       <c r="G158" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="H158" t="s">
         <v>573</v>
@@ -11136,10 +11127,10 @@
         <v>573</v>
       </c>
       <c r="L158" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
       <c r="M158" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.2">
@@ -11177,10 +11168,10 @@
         <v>573</v>
       </c>
       <c r="L159" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
       <c r="M159" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.2">
@@ -11218,10 +11209,10 @@
         <v>573</v>
       </c>
       <c r="L160" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
       <c r="M160" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.2">
@@ -11258,11 +11249,11 @@
       <c r="K161" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="L161" s="6" t="s">
-        <v>681</v>
+      <c r="L161" t="s">
+        <v>717</v>
       </c>
       <c r="M161" s="6" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.2">
@@ -11299,11 +11290,11 @@
       <c r="K162" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="L162" s="6" t="s">
-        <v>665</v>
+      <c r="L162" t="s">
+        <v>705</v>
       </c>
       <c r="M162" s="6" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.2">
@@ -11341,10 +11332,10 @@
         <v>573</v>
       </c>
       <c r="L163" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
       <c r="M163" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.2">
@@ -11382,10 +11373,10 @@
         <v>573</v>
       </c>
       <c r="L164" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
       <c r="M164" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.2">
@@ -11423,7 +11414,7 @@
         <v>573</v>
       </c>
       <c r="L165" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.2">
@@ -11449,10 +11440,10 @@
         <v>574</v>
       </c>
       <c r="H166" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I166" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J166" t="s">
         <v>574</v>
@@ -11461,7 +11452,7 @@
         <v>573</v>
       </c>
       <c r="L166" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.2">
@@ -11499,10 +11490,10 @@
         <v>573</v>
       </c>
       <c r="L167" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="M167" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.2">
@@ -11531,7 +11522,7 @@
         <v>573</v>
       </c>
       <c r="I168" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J168" t="s">
         <v>574</v>
@@ -11540,10 +11531,10 @@
         <v>573</v>
       </c>
       <c r="L168" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M168" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.2">
@@ -11566,13 +11557,13 @@
         <v>574</v>
       </c>
       <c r="G169" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="H169" t="s">
         <v>573</v>
       </c>
       <c r="I169" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J169" t="s">
         <v>573</v>
@@ -11581,7 +11572,7 @@
         <v>573</v>
       </c>
       <c r="L169" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.2">
@@ -11604,7 +11595,7 @@
         <v>574</v>
       </c>
       <c r="G170" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H170" t="s">
         <v>573</v>
@@ -11619,10 +11610,10 @@
         <v>573</v>
       </c>
       <c r="L170" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="M170" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.2">
@@ -11645,7 +11636,7 @@
         <v>574</v>
       </c>
       <c r="G171" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="H171" t="s">
         <v>573</v>
@@ -11660,10 +11651,10 @@
         <v>573</v>
       </c>
       <c r="L171" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="M171" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.2">
@@ -11701,7 +11692,7 @@
         <v>573</v>
       </c>
       <c r="L172" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.2">
@@ -11724,7 +11715,7 @@
         <v>574</v>
       </c>
       <c r="G173" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H173" t="s">
         <v>573</v>
@@ -11739,7 +11730,7 @@
         <v>573</v>
       </c>
       <c r="L173" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.2">
@@ -11762,7 +11753,7 @@
         <v>574</v>
       </c>
       <c r="G174" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H174" t="s">
         <v>573</v>
@@ -11777,7 +11768,7 @@
         <v>573</v>
       </c>
       <c r="L174" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.2">
@@ -11800,7 +11791,7 @@
         <v>574</v>
       </c>
       <c r="G175" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H175" t="s">
         <v>573</v>
@@ -11815,7 +11806,7 @@
         <v>573</v>
       </c>
       <c r="L175" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.2">
@@ -11838,7 +11829,7 @@
         <v>574</v>
       </c>
       <c r="G176" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H176" t="s">
         <v>573</v>
@@ -11853,7 +11844,7 @@
         <v>573</v>
       </c>
       <c r="L176" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.2">
@@ -11876,7 +11867,7 @@
         <v>574</v>
       </c>
       <c r="G177" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H177" t="s">
         <v>573</v>
@@ -11891,7 +11882,7 @@
         <v>573</v>
       </c>
       <c r="L177" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.2">
@@ -11929,7 +11920,7 @@
         <v>573</v>
       </c>
       <c r="L178" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.2">
@@ -11967,10 +11958,10 @@
         <v>573</v>
       </c>
       <c r="L179" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="M179" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.2">
@@ -12008,10 +11999,10 @@
         <v>573</v>
       </c>
       <c r="L180" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="M180" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.2">
@@ -12049,10 +12040,10 @@
         <v>573</v>
       </c>
       <c r="L181" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="M181" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.2">
@@ -12090,10 +12081,10 @@
         <v>574</v>
       </c>
       <c r="L182" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="M182" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.2">
@@ -12119,10 +12110,10 @@
         <v>574</v>
       </c>
       <c r="H183" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I183" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J183" t="s">
         <v>574</v>
@@ -12131,10 +12122,10 @@
         <v>573</v>
       </c>
       <c r="L183" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="M183" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.2">
@@ -12172,10 +12163,10 @@
         <v>573</v>
       </c>
       <c r="L184" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="M184" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.2">
@@ -12213,10 +12204,10 @@
         <v>573</v>
       </c>
       <c r="L185" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M185" s="5" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.2">
@@ -12254,10 +12245,10 @@
         <v>574</v>
       </c>
       <c r="L186" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="M186" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.2">
@@ -12286,7 +12277,7 @@
         <v>573</v>
       </c>
       <c r="I187" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J187" t="s">
         <v>574</v>
@@ -12295,7 +12286,7 @@
         <v>573</v>
       </c>
       <c r="L187" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.2">
@@ -12333,10 +12324,10 @@
         <v>573</v>
       </c>
       <c r="L188" t="s">
-        <v>643</v>
+        <v>752</v>
       </c>
       <c r="M188" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.2">
@@ -12374,10 +12365,10 @@
         <v>573</v>
       </c>
       <c r="L189" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="M189" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.2">
@@ -12415,10 +12406,10 @@
         <v>573</v>
       </c>
       <c r="L190" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="M190" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.2">
@@ -12456,10 +12447,10 @@
         <v>574</v>
       </c>
       <c r="L191" s="6" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="M191" s="6" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.2">
@@ -12482,7 +12473,7 @@
         <v>574</v>
       </c>
       <c r="G192" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H192" t="s">
         <v>573</v>
@@ -12497,7 +12488,7 @@
         <v>574</v>
       </c>
       <c r="L192" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.2">
@@ -12526,7 +12517,7 @@
         <v>573</v>
       </c>
       <c r="I193" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J193" t="s">
         <v>574</v>
@@ -12535,7 +12526,7 @@
         <v>573</v>
       </c>
       <c r="L193" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.2">
@@ -12573,10 +12564,10 @@
         <v>574</v>
       </c>
       <c r="L194" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="M194" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.2">
@@ -12614,10 +12605,10 @@
         <v>574</v>
       </c>
       <c r="L195" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="M195" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.2">
@@ -12655,7 +12646,7 @@
         <v>573</v>
       </c>
       <c r="L196" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.2">
@@ -12693,10 +12684,10 @@
         <v>574</v>
       </c>
       <c r="L197" t="s">
+        <v>717</v>
+      </c>
+      <c r="M197" t="s">
         <v>726</v>
-      </c>
-      <c r="M197" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.2">
@@ -12725,7 +12716,7 @@
         <v>573</v>
       </c>
       <c r="I198" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J198" t="s">
         <v>574</v>
@@ -12734,10 +12725,10 @@
         <v>573</v>
       </c>
       <c r="L198" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="M198" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.2">
@@ -12766,7 +12757,7 @@
         <v>573</v>
       </c>
       <c r="I199" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J199" t="s">
         <v>574</v>
@@ -12775,7 +12766,7 @@
         <v>573</v>
       </c>
       <c r="L199" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.2">
@@ -12813,7 +12804,7 @@
         <v>573</v>
       </c>
       <c r="L200" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.2">
@@ -12851,10 +12842,10 @@
         <v>574</v>
       </c>
       <c r="L201" s="6" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="M201" s="6" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.2">
@@ -12877,10 +12868,10 @@
         <v>574</v>
       </c>
       <c r="G202" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="H202" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I202" t="s">
         <v>573</v>
@@ -12892,7 +12883,7 @@
         <v>573</v>
       </c>
       <c r="L202" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.2">
@@ -12915,10 +12906,10 @@
         <v>574</v>
       </c>
       <c r="G203" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="H203" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I203" t="s">
         <v>573</v>
@@ -12930,7 +12921,7 @@
         <v>573</v>
       </c>
       <c r="L203" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.2">
@@ -12959,7 +12950,7 @@
         <v>573</v>
       </c>
       <c r="I204" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J204" t="s">
         <v>574</v>
@@ -12968,7 +12959,7 @@
         <v>573</v>
       </c>
       <c r="L204" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.2">
@@ -12991,7 +12982,7 @@
         <v>574</v>
       </c>
       <c r="G205" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H205" t="s">
         <v>573</v>
@@ -13006,10 +12997,10 @@
         <v>573</v>
       </c>
       <c r="L205" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="M205" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.2">
@@ -13038,7 +13029,7 @@
         <v>573</v>
       </c>
       <c r="I206" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J206" t="s">
         <v>574</v>
@@ -13047,7 +13038,7 @@
         <v>573</v>
       </c>
       <c r="L206" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.2">
@@ -13085,10 +13076,10 @@
         <v>573</v>
       </c>
       <c r="L207" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="M207" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.2">
@@ -13111,7 +13102,7 @@
         <v>574</v>
       </c>
       <c r="G208" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H208" t="s">
         <v>573</v>
@@ -13126,7 +13117,7 @@
         <v>573</v>
       </c>
       <c r="L208" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.2">
@@ -13155,7 +13146,7 @@
         <v>573</v>
       </c>
       <c r="I209" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J209" t="s">
         <v>574</v>
@@ -13164,7 +13155,7 @@
         <v>573</v>
       </c>
       <c r="L209" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.2">
@@ -13187,10 +13178,10 @@
         <v>574</v>
       </c>
       <c r="G210" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H210" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I210" t="s">
         <v>573</v>
@@ -13202,10 +13193,10 @@
         <v>573</v>
       </c>
       <c r="L210" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M210" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.2">
@@ -13228,7 +13219,7 @@
         <v>574</v>
       </c>
       <c r="G211" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H211" t="s">
         <v>573</v>
@@ -13243,7 +13234,7 @@
         <v>573</v>
       </c>
       <c r="L211" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.2">
@@ -13272,7 +13263,7 @@
         <v>574</v>
       </c>
       <c r="I212" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J212" t="s">
         <v>574</v>
@@ -13281,10 +13272,10 @@
         <v>573</v>
       </c>
       <c r="L212" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M212" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.2">
@@ -13322,7 +13313,7 @@
         <v>573</v>
       </c>
       <c r="L213" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.2">
@@ -13345,7 +13336,7 @@
         <v>574</v>
       </c>
       <c r="G214" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H214" t="s">
         <v>573</v>
@@ -13360,7 +13351,7 @@
         <v>573</v>
       </c>
       <c r="L214" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.2">
@@ -13398,7 +13389,7 @@
         <v>573</v>
       </c>
       <c r="L215" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.2">
@@ -13421,7 +13412,7 @@
         <v>574</v>
       </c>
       <c r="G216" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="H216" t="s">
         <v>574</v>
@@ -13436,7 +13427,7 @@
         <v>573</v>
       </c>
       <c r="L216" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.2">
@@ -13465,7 +13456,7 @@
         <v>573</v>
       </c>
       <c r="I217" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J217" t="s">
         <v>574</v>
@@ -13474,7 +13465,7 @@
         <v>573</v>
       </c>
       <c r="L217" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.2">
@@ -13497,7 +13488,7 @@
         <v>574</v>
       </c>
       <c r="G218" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H218" s="6" t="s">
         <v>573</v>
@@ -13512,10 +13503,10 @@
         <v>573</v>
       </c>
       <c r="L218" s="6" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="M218" s="6" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.2">
@@ -13544,7 +13535,7 @@
         <v>573</v>
       </c>
       <c r="I219" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J219" t="s">
         <v>574</v>
@@ -13553,7 +13544,7 @@
         <v>573</v>
       </c>
       <c r="L219" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.2">
@@ -13582,7 +13573,7 @@
         <v>573</v>
       </c>
       <c r="I220" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J220" t="s">
         <v>574</v>
@@ -13591,7 +13582,7 @@
         <v>573</v>
       </c>
       <c r="L220" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.2">
@@ -13620,7 +13611,7 @@
         <v>573</v>
       </c>
       <c r="I221" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J221" t="s">
         <v>574</v>
@@ -13629,7 +13620,7 @@
         <v>573</v>
       </c>
       <c r="L221" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.2">
@@ -13652,7 +13643,7 @@
         <v>574</v>
       </c>
       <c r="G222" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="H222" t="s">
         <v>573</v>
@@ -13667,7 +13658,7 @@
         <v>573</v>
       </c>
       <c r="L222" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.2">
@@ -13690,7 +13681,7 @@
         <v>574</v>
       </c>
       <c r="G223" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H223" t="s">
         <v>573</v>
@@ -13705,10 +13696,10 @@
         <v>573</v>
       </c>
       <c r="L223" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="M223" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.2">
@@ -13737,7 +13728,7 @@
         <v>573</v>
       </c>
       <c r="I224" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J224" t="s">
         <v>574</v>
@@ -13746,7 +13737,7 @@
         <v>573</v>
       </c>
       <c r="L224" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.2">
@@ -13775,7 +13766,7 @@
         <v>573</v>
       </c>
       <c r="I225" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J225" t="s">
         <v>574</v>
@@ -13784,7 +13775,7 @@
         <v>573</v>
       </c>
       <c r="L225" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.2">
@@ -13813,7 +13804,7 @@
         <v>573</v>
       </c>
       <c r="I226" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J226" t="s">
         <v>574</v>
@@ -13822,7 +13813,7 @@
         <v>573</v>
       </c>
       <c r="L226" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.2">
@@ -13860,7 +13851,7 @@
         <v>573</v>
       </c>
       <c r="L227" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.2">
@@ -13889,7 +13880,7 @@
         <v>573</v>
       </c>
       <c r="I228" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J228" t="s">
         <v>574</v>
@@ -13898,10 +13889,10 @@
         <v>573</v>
       </c>
       <c r="L228" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="M228" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.2">
@@ -13924,7 +13915,7 @@
         <v>574</v>
       </c>
       <c r="G229" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="H229" t="s">
         <v>574</v>
@@ -13939,10 +13930,10 @@
         <v>573</v>
       </c>
       <c r="L229" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="M229" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.2">
@@ -13971,7 +13962,7 @@
         <v>573</v>
       </c>
       <c r="I230" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J230" t="s">
         <v>574</v>
@@ -13980,7 +13971,7 @@
         <v>573</v>
       </c>
       <c r="L230" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.2">
@@ -14009,7 +14000,7 @@
         <v>573</v>
       </c>
       <c r="I231" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J231" t="s">
         <v>574</v>
@@ -14018,7 +14009,7 @@
         <v>573</v>
       </c>
       <c r="L231" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.2">
@@ -14047,7 +14038,7 @@
         <v>573</v>
       </c>
       <c r="I232" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J232" t="s">
         <v>574</v>
@@ -14056,7 +14047,7 @@
         <v>573</v>
       </c>
       <c r="L232" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.2">
@@ -14085,7 +14076,7 @@
         <v>573</v>
       </c>
       <c r="I233" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J233" t="s">
         <v>574</v>
@@ -14094,7 +14085,7 @@
         <v>573</v>
       </c>
       <c r="L233" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.2">
@@ -14123,7 +14114,7 @@
         <v>573</v>
       </c>
       <c r="I234" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J234" t="s">
         <v>574</v>
@@ -14132,7 +14123,7 @@
         <v>573</v>
       </c>
       <c r="L234" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.2">
@@ -14161,7 +14152,7 @@
         <v>573</v>
       </c>
       <c r="I235" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J235" t="s">
         <v>574</v>
@@ -14170,7 +14161,7 @@
         <v>573</v>
       </c>
       <c r="L235" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.2">
@@ -14199,7 +14190,7 @@
         <v>573</v>
       </c>
       <c r="I236" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J236" t="s">
         <v>574</v>
@@ -14208,7 +14199,7 @@
         <v>573</v>
       </c>
       <c r="L236" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.2">
@@ -14237,7 +14228,7 @@
         <v>573</v>
       </c>
       <c r="I237" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J237" t="s">
         <v>574</v>
@@ -14246,7 +14237,7 @@
         <v>573</v>
       </c>
       <c r="L237" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.2">
@@ -14275,7 +14266,7 @@
         <v>573</v>
       </c>
       <c r="I238" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J238" t="s">
         <v>574</v>
@@ -14284,7 +14275,7 @@
         <v>573</v>
       </c>
       <c r="L238" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.2">
@@ -14313,7 +14304,7 @@
         <v>573</v>
       </c>
       <c r="I239" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J239" t="s">
         <v>574</v>
@@ -14322,7 +14313,7 @@
         <v>573</v>
       </c>
       <c r="L239" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.2">
@@ -14360,7 +14351,7 @@
         <v>573</v>
       </c>
       <c r="L240" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.2">
@@ -14398,10 +14389,10 @@
         <v>573</v>
       </c>
       <c r="L241" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="M241" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.2">
@@ -14424,10 +14415,10 @@
         <v>574</v>
       </c>
       <c r="G242" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="H242" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I242" t="s">
         <v>574</v>
@@ -14439,10 +14430,10 @@
         <v>573</v>
       </c>
       <c r="L242" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="M242" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.2">
@@ -14465,13 +14456,13 @@
         <v>574</v>
       </c>
       <c r="G243" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H243" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I243" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J243" t="s">
         <v>574</v>
@@ -14480,7 +14471,7 @@
         <v>573</v>
       </c>
       <c r="L243" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.2">
@@ -14506,10 +14497,10 @@
         <v>574</v>
       </c>
       <c r="H244" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I244" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J244" t="s">
         <v>574</v>
@@ -14518,7 +14509,7 @@
         <v>573</v>
       </c>
       <c r="L244" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.2">
@@ -14544,10 +14535,10 @@
         <v>574</v>
       </c>
       <c r="H245" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I245" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J245" t="s">
         <v>574</v>
@@ -14556,7 +14547,7 @@
         <v>573</v>
       </c>
       <c r="L245" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.2">
@@ -14579,13 +14570,13 @@
         <v>574</v>
       </c>
       <c r="G246" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="H246" t="s">
         <v>574</v>
       </c>
       <c r="I246" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J246" t="s">
         <v>574</v>
@@ -14594,7 +14585,7 @@
         <v>573</v>
       </c>
       <c r="L246" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.2">
@@ -14632,7 +14623,7 @@
         <v>573</v>
       </c>
       <c r="L247" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.2">
@@ -14661,7 +14652,7 @@
         <v>573</v>
       </c>
       <c r="I248" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J248" t="s">
         <v>574</v>
@@ -14670,7 +14661,7 @@
         <v>573</v>
       </c>
       <c r="L248" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.2">
@@ -14708,7 +14699,7 @@
         <v>573</v>
       </c>
       <c r="L249" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.2">
@@ -14746,10 +14737,10 @@
         <v>573</v>
       </c>
       <c r="L250" t="s">
-        <v>643</v>
+        <v>752</v>
       </c>
       <c r="M250" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.2">
@@ -14778,7 +14769,7 @@
         <v>573</v>
       </c>
       <c r="I251" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J251" t="s">
         <v>574</v>
@@ -14787,7 +14778,7 @@
         <v>573</v>
       </c>
       <c r="L251" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.2">
@@ -14810,7 +14801,7 @@
         <v>574</v>
       </c>
       <c r="G252" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H252" t="s">
         <v>573</v>
@@ -14825,7 +14816,7 @@
         <v>573</v>
       </c>
       <c r="L252" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.2">
@@ -14851,10 +14842,10 @@
         <v>574</v>
       </c>
       <c r="H253" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I253" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J253" t="s">
         <v>574</v>
@@ -14863,10 +14854,10 @@
         <v>573</v>
       </c>
       <c r="L253" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="M253" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.2">
@@ -14889,7 +14880,7 @@
         <v>574</v>
       </c>
       <c r="G254" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H254" t="s">
         <v>573</v>
@@ -14904,7 +14895,7 @@
         <v>573</v>
       </c>
       <c r="L254" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.2">
@@ -14927,7 +14918,7 @@
         <v>574</v>
       </c>
       <c r="G255" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H255" t="s">
         <v>573</v>
@@ -14942,10 +14933,10 @@
         <v>573</v>
       </c>
       <c r="L255" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="M255" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.2">
@@ -14974,7 +14965,7 @@
         <v>573</v>
       </c>
       <c r="I256" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J256" t="s">
         <v>574</v>
@@ -14983,7 +14974,7 @@
         <v>573</v>
       </c>
       <c r="L256" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.2">
@@ -15006,13 +14997,13 @@
         <v>574</v>
       </c>
       <c r="G257" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H257" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I257" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J257" t="s">
         <v>574</v>
@@ -15021,10 +15012,10 @@
         <v>573</v>
       </c>
       <c r="L257" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="M257" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.2">
@@ -15062,7 +15053,7 @@
         <v>573</v>
       </c>
       <c r="L258" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.2">
@@ -15091,7 +15082,7 @@
         <v>573</v>
       </c>
       <c r="I259" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J259" t="s">
         <v>574</v>
@@ -15100,7 +15091,7 @@
         <v>573</v>
       </c>
       <c r="L259" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.2">
@@ -15123,7 +15114,7 @@
         <v>574</v>
       </c>
       <c r="G260" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H260" t="s">
         <v>573</v>
@@ -15138,10 +15129,10 @@
         <v>573</v>
       </c>
       <c r="L260" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="M260" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.2">
@@ -15179,7 +15170,7 @@
         <v>573</v>
       </c>
       <c r="L261" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.2">
@@ -15217,7 +15208,7 @@
         <v>573</v>
       </c>
       <c r="L262" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.2">
@@ -15240,13 +15231,13 @@
         <v>574</v>
       </c>
       <c r="G263" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="H263" t="s">
         <v>573</v>
       </c>
       <c r="I263" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J263" t="s">
         <v>574</v>
@@ -15255,7 +15246,7 @@
         <v>573</v>
       </c>
       <c r="L263" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.2">
@@ -15278,7 +15269,7 @@
         <v>574</v>
       </c>
       <c r="G264" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H264" t="s">
         <v>573</v>
@@ -15293,7 +15284,7 @@
         <v>573</v>
       </c>
       <c r="L264" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.2">
@@ -15322,7 +15313,7 @@
         <v>573</v>
       </c>
       <c r="I265" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J265" t="s">
         <v>574</v>
@@ -15331,7 +15322,7 @@
         <v>573</v>
       </c>
       <c r="L265" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.2">
@@ -15360,7 +15351,7 @@
         <v>573</v>
       </c>
       <c r="I266" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J266" t="s">
         <v>574</v>
@@ -15369,7 +15360,7 @@
         <v>573</v>
       </c>
       <c r="L266" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.2">
@@ -15392,7 +15383,7 @@
         <v>574</v>
       </c>
       <c r="G267" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H267" t="s">
         <v>573</v>
@@ -15407,7 +15398,7 @@
         <v>573</v>
       </c>
       <c r="L267" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.2">
@@ -15430,7 +15421,7 @@
         <v>574</v>
       </c>
       <c r="G268" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="H268" t="s">
         <v>573</v>
@@ -15445,7 +15436,7 @@
         <v>573</v>
       </c>
       <c r="L268" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.2">
@@ -15474,7 +15465,7 @@
         <v>573</v>
       </c>
       <c r="I269" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J269" t="s">
         <v>574</v>
@@ -15483,10 +15474,10 @@
         <v>573</v>
       </c>
       <c r="L269" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="M269" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.2">
@@ -15509,13 +15500,13 @@
         <v>574</v>
       </c>
       <c r="G270" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H270" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I270" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J270" t="s">
         <v>574</v>
@@ -15524,7 +15515,7 @@
         <v>573</v>
       </c>
       <c r="L270" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.2">
@@ -15547,13 +15538,13 @@
         <v>574</v>
       </c>
       <c r="G271" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="H271" t="s">
         <v>573</v>
       </c>
       <c r="I271" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J271" t="s">
         <v>574</v>
@@ -15562,7 +15553,7 @@
         <v>573</v>
       </c>
       <c r="L271" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.2">
@@ -15591,7 +15582,7 @@
         <v>573</v>
       </c>
       <c r="I272" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J272" t="s">
         <v>574</v>
@@ -15600,7 +15591,7 @@
         <v>573</v>
       </c>
       <c r="L272" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.2">
@@ -15623,7 +15614,7 @@
         <v>574</v>
       </c>
       <c r="G273" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H273" t="s">
         <v>573</v>
@@ -15638,7 +15629,7 @@
         <v>573</v>
       </c>
       <c r="L273" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.2">
@@ -15676,7 +15667,7 @@
         <v>573</v>
       </c>
       <c r="L274" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.2">
@@ -15699,10 +15690,10 @@
         <v>574</v>
       </c>
       <c r="G275" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H275" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I275" t="s">
         <v>573</v>
@@ -15714,7 +15705,7 @@
         <v>573</v>
       </c>
       <c r="L275" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.2">
@@ -15743,7 +15734,7 @@
         <v>573</v>
       </c>
       <c r="I276" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J276" t="s">
         <v>574</v>
@@ -15752,10 +15743,10 @@
         <v>573</v>
       </c>
       <c r="L276" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="M276" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.2">
@@ -15784,7 +15775,7 @@
         <v>573</v>
       </c>
       <c r="I277" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J277" t="s">
         <v>574</v>
@@ -15793,7 +15784,7 @@
         <v>573</v>
       </c>
       <c r="L277" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.2">
@@ -15822,7 +15813,7 @@
         <v>573</v>
       </c>
       <c r="I278" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J278" t="s">
         <v>574</v>
@@ -15831,7 +15822,7 @@
         <v>573</v>
       </c>
       <c r="L278" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.2">
@@ -15860,7 +15851,7 @@
         <v>573</v>
       </c>
       <c r="I279" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J279" t="s">
         <v>574</v>
@@ -15869,7 +15860,7 @@
         <v>573</v>
       </c>
       <c r="L279" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.2">
@@ -15898,7 +15889,7 @@
         <v>574</v>
       </c>
       <c r="I280" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J280" t="s">
         <v>574</v>
@@ -15907,7 +15898,7 @@
         <v>573</v>
       </c>
       <c r="L280" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.2">
@@ -15936,7 +15927,7 @@
         <v>574</v>
       </c>
       <c r="I281" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J281" t="s">
         <v>574</v>
@@ -15945,7 +15936,7 @@
         <v>573</v>
       </c>
       <c r="L281" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.2">
@@ -15974,7 +15965,7 @@
         <v>573</v>
       </c>
       <c r="I282" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J282" t="s">
         <v>574</v>
@@ -15983,7 +15974,7 @@
         <v>573</v>
       </c>
       <c r="L282" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.2">
@@ -16006,10 +15997,10 @@
         <v>574</v>
       </c>
       <c r="G283" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H283" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I283" t="s">
         <v>574</v>
@@ -16021,10 +16012,10 @@
         <v>573</v>
       </c>
       <c r="L283" t="s">
-        <v>643</v>
+        <v>752</v>
       </c>
       <c r="M283" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.2">
@@ -16053,7 +16044,7 @@
         <v>573</v>
       </c>
       <c r="I284" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J284" t="s">
         <v>574</v>
@@ -16062,7 +16053,7 @@
         <v>573</v>
       </c>
       <c r="L284" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.2">
@@ -16091,7 +16082,7 @@
         <v>573</v>
       </c>
       <c r="I285" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J285" t="s">
         <v>574</v>
@@ -16100,7 +16091,7 @@
         <v>573</v>
       </c>
       <c r="L285" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.2">
@@ -16129,7 +16120,7 @@
         <v>573</v>
       </c>
       <c r="I286" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J286" t="s">
         <v>574</v>
@@ -16138,7 +16129,7 @@
         <v>573</v>
       </c>
       <c r="L286" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.2">
@@ -16167,7 +16158,7 @@
         <v>573</v>
       </c>
       <c r="I287" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J287" t="s">
         <v>574</v>
@@ -16176,7 +16167,7 @@
         <v>573</v>
       </c>
       <c r="L287" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.2">
@@ -16205,7 +16196,7 @@
         <v>573</v>
       </c>
       <c r="I288" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J288" t="s">
         <v>574</v>
@@ -16214,7 +16205,7 @@
         <v>573</v>
       </c>
       <c r="L288" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.2">
@@ -16243,7 +16234,7 @@
         <v>573</v>
       </c>
       <c r="I289" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J289" t="s">
         <v>574</v>
@@ -16252,7 +16243,7 @@
         <v>573</v>
       </c>
       <c r="L289" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.2">
@@ -16281,7 +16272,7 @@
         <v>573</v>
       </c>
       <c r="I290" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J290" t="s">
         <v>574</v>
@@ -16290,7 +16281,7 @@
         <v>573</v>
       </c>
       <c r="L290" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.2">
@@ -16319,7 +16310,7 @@
         <v>573</v>
       </c>
       <c r="I291" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J291" t="s">
         <v>574</v>
@@ -16328,7 +16319,7 @@
         <v>573</v>
       </c>
       <c r="L291" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.2">
@@ -16357,7 +16348,7 @@
         <v>573</v>
       </c>
       <c r="I292" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J292" t="s">
         <v>574</v>
@@ -16366,7 +16357,7 @@
         <v>573</v>
       </c>
       <c r="L292" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.2">
@@ -16395,7 +16386,7 @@
         <v>573</v>
       </c>
       <c r="I293" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J293" t="s">
         <v>574</v>
@@ -16404,7 +16395,7 @@
         <v>573</v>
       </c>
       <c r="L293" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.2">
@@ -16433,7 +16424,7 @@
         <v>573</v>
       </c>
       <c r="I294" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J294" t="s">
         <v>574</v>
@@ -16442,7 +16433,7 @@
         <v>573</v>
       </c>
       <c r="L294" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.2">
@@ -16471,7 +16462,7 @@
         <v>573</v>
       </c>
       <c r="I295" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J295" t="s">
         <v>574</v>
@@ -16480,7 +16471,7 @@
         <v>573</v>
       </c>
       <c r="L295" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.2">
@@ -16509,7 +16500,7 @@
         <v>573</v>
       </c>
       <c r="I296" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J296" t="s">
         <v>574</v>
@@ -16518,7 +16509,7 @@
         <v>573</v>
       </c>
       <c r="L296" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.2">
@@ -16547,7 +16538,7 @@
         <v>573</v>
       </c>
       <c r="I297" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J297" t="s">
         <v>574</v>
@@ -16556,7 +16547,7 @@
         <v>573</v>
       </c>
       <c r="L297" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.2">
@@ -16585,7 +16576,7 @@
         <v>573</v>
       </c>
       <c r="I298" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J298" t="s">
         <v>574</v>
@@ -16594,7 +16585,7 @@
         <v>573</v>
       </c>
       <c r="L298" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.2">
@@ -16623,7 +16614,7 @@
         <v>573</v>
       </c>
       <c r="I299" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J299" t="s">
         <v>574</v>
@@ -16632,7 +16623,7 @@
         <v>573</v>
       </c>
       <c r="L299" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.2">
@@ -16661,7 +16652,7 @@
         <v>573</v>
       </c>
       <c r="I300" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J300" t="s">
         <v>574</v>
@@ -16670,7 +16661,7 @@
         <v>573</v>
       </c>
       <c r="L300" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.2">
@@ -16699,7 +16690,7 @@
         <v>573</v>
       </c>
       <c r="I301" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J301" t="s">
         <v>574</v>
@@ -16708,13 +16699,14 @@
         <v>573</v>
       </c>
       <c r="L301" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
       <c r="M301" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M301" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/part_1_df_abstract_subset.xlsx
+++ b/data/part_1_df_abstract_subset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC3DD46-680B-6449-B20A-A06AC6CBF0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B883329-294A-6746-A1C0-9B206C6F07E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3880" yWindow="760" windowWidth="26140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$301</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$301</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3153" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3455" uniqueCount="737">
   <si>
     <t>type</t>
   </si>
@@ -3891,42 +3891,21 @@
     <t>No</t>
   </si>
   <si>
-    <t>includes figure, disclosures</t>
-  </si>
-  <si>
-    <t>original language but no language attribute</t>
-  </si>
-  <si>
     <t>includes table</t>
   </si>
   <si>
     <t>table is wrapped in jats tags</t>
   </si>
   <si>
-    <t>includes both "ru" and "en" versions</t>
-  </si>
-  <si>
     <t>lovely structured abstract</t>
   </si>
   <si>
-    <t>includes script from the landing page</t>
-  </si>
-  <si>
     <t>includes links and script from the landing page that have been cut and paste into the abstract</t>
   </si>
   <si>
-    <t>includes figure, discosures; non-Latin char; MathML</t>
-  </si>
-  <si>
     <t>has U+2008 General Punctuation non-Latin char; has journal level lang</t>
   </si>
   <si>
-    <t>non-Latin char; includes 3 languages in three &lt;jats:p&gt; elements</t>
-  </si>
-  <si>
-    <t>non-Latin char; includes disclosures</t>
-  </si>
-  <si>
     <t>has U+2009 Thin Space General Punc char; lovely structured abstract</t>
   </si>
   <si>
@@ -3942,15 +3921,9 @@
     <t>contains U+00A0 No Break Space</t>
   </si>
   <si>
-    <t xml:space="preserve">MathML; </t>
-  </si>
-  <si>
     <t>includes U+2771 Dingbat char</t>
   </si>
   <si>
-    <t xml:space="preserve">non-Latin char;  </t>
-  </si>
-  <si>
     <t>includes links to png files but they are within the jats tags</t>
   </si>
   <si>
@@ -3978,9 +3951,6 @@
     <t>includes U+200A Hair spaces, General Punctuation, includes hyperlinks</t>
   </si>
   <si>
-    <t>non-Latin char;  includes hyperlinnks</t>
-  </si>
-  <si>
     <t>includes hyperlinks</t>
   </si>
   <si>
@@ -4008,15 +3978,6 @@
     <t>includes disclosures</t>
   </si>
   <si>
-    <t>includes 2 languages</t>
-  </si>
-  <si>
-    <t>includes 2 languages; non-Latin char</t>
-  </si>
-  <si>
-    <t>includes 2 languages; "ru" assigned to journal level but missing in abstract</t>
-  </si>
-  <si>
     <t>"ru" and "en" included in the same abstract metadata element; latin and cyrillinc;</t>
   </si>
   <si>
@@ -4026,21 +3987,12 @@
     <t>U+2008 punctuation space from general punc</t>
   </si>
   <si>
-    <t>non-Latin char;  includes figure; includes disclosures</t>
-  </si>
-  <si>
     <t>all in same element; includes U+200A Hair spaces; includes keywords</t>
   </si>
   <si>
-    <t>includes 3 languages; non-Latin char</t>
-  </si>
-  <si>
     <t>"en", "kz", "ru" in article and same metadata element; Latin and Cyrillic char sets</t>
   </si>
   <si>
-    <t>includes full citation format in the abstract</t>
-  </si>
-  <si>
     <t>medical abstract</t>
   </si>
   <si>
@@ -4050,9 +4002,6 @@
     <t>includes figure, acknowledgements</t>
   </si>
   <si>
-    <t>non-Latin char; includes disclosures; includes figure</t>
-  </si>
-  <si>
     <t>U+2009 thin space from general punc; lovely structured abstract</t>
   </si>
   <si>
@@ -4074,9 +4023,6 @@
     <t>U+200a hair space and U+2009 thin space</t>
   </si>
   <si>
-    <t>non-Latin char; includes hyperlinks</t>
-  </si>
-  <si>
     <t>front matter</t>
   </si>
   <si>
@@ -4095,9 +4041,6 @@
     <t>"ru"  and "en" in separate &lt;jats:p&gt; elements; latin and cyrillic</t>
   </si>
   <si>
-    <t>includes tables, and full citation format</t>
-  </si>
-  <si>
     <t>includes tex-math, not MathML</t>
   </si>
   <si>
@@ -4110,9 +4053,6 @@
     <t>"pt" and "en" in article, both in the same metadata element</t>
   </si>
   <si>
-    <t>non-Latin char; MathML</t>
-  </si>
-  <si>
     <t xml:space="preserve">U+2009 thin space from general punc; </t>
   </si>
   <si>
@@ -4125,9 +4065,6 @@
     <t>"bs" and "en" in article, but only "en" in metadata</t>
   </si>
   <si>
-    <t>non-Latin char;  includes disclosures</t>
-  </si>
-  <si>
     <t>"en" and "id" in abstract metadata in one &lt;jats:p&gt; element</t>
   </si>
   <si>
@@ -4143,9 +4080,6 @@
     <t>artwork</t>
   </si>
   <si>
-    <t>empty; issue-level doi</t>
-  </si>
-  <si>
     <t>article in "en"; no abstract on article</t>
   </si>
   <si>
@@ -4176,9 +4110,6 @@
     <t>bad url</t>
   </si>
   <si>
-    <t>empty; landing page has "en" abstract</t>
-  </si>
-  <si>
     <t xml:space="preserve">"ko" landing page, but has "en" abstract available. </t>
   </si>
   <si>
@@ -4326,9 +4257,6 @@
     <t>two abstracts in article in "es" and "en"</t>
   </si>
   <si>
-    <t>non-Latin char; no abstract in article</t>
-  </si>
-  <si>
     <t>book review</t>
   </si>
   <si>
@@ -4341,9 +4269,6 @@
     <t>only first sentence used; two abstract elements</t>
   </si>
   <si>
-    <t>no abstract in article; article title used as abstract</t>
-  </si>
-  <si>
     <t>two abstract elements</t>
   </si>
   <si>
@@ -4386,18 +4311,15 @@
     <t>only "en" used in &lt;abstract&gt; but "ru" and "en" in article</t>
   </si>
   <si>
-    <t>non-Latin char;  can't verify</t>
-  </si>
-  <si>
-    <t>includes references not in the PDF</t>
-  </si>
-  <si>
     <t>abstract is different than the PDf with addition of references</t>
   </si>
   <si>
     <t>abstract attribute is "en" but is in "pt"</t>
   </si>
   <si>
+    <t>abstract is longer in the metadata</t>
+  </si>
+  <si>
     <t>abstract is longer in the metadata; XML shows update after initial deposit</t>
   </si>
   <si>
@@ -4413,9 +4335,6 @@
     <t>"ru" and "en" in PDF</t>
   </si>
   <si>
-    <t>less than and greater than markup</t>
-  </si>
-  <si>
     <t>permitted by crossref but may need to remove?</t>
   </si>
   <si>
@@ -4423,6 +4342,39 @@
   </si>
   <si>
     <t>article version includes two languages</t>
+  </si>
+  <si>
+    <t>includes both "ru" and "en" versions;  "ru" assigned to journal level but missing in abstract</t>
+  </si>
+  <si>
+    <t>non_latin_char</t>
+  </si>
+  <si>
+    <t>includes multiple languages</t>
+  </si>
+  <si>
+    <t>includes disclosures; includes figure</t>
+  </si>
+  <si>
+    <t>MathML</t>
+  </si>
+  <si>
+    <t>includes full citation format in the metadata</t>
+  </si>
+  <si>
+    <t>includes tables; includes full citation format in the metadata</t>
+  </si>
+  <si>
+    <t>tex-math</t>
+  </si>
+  <si>
+    <t>includes U+2009 Thin Space General Punc char</t>
+  </si>
+  <si>
+    <t xml:space="preserve">empty; </t>
+  </si>
+  <si>
+    <t>HTML</t>
   </si>
 </sst>
 </file>
@@ -4523,7 +4475,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4821,12 +4794,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M301"/>
+  <dimension ref="A1:N301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L173" sqref="L173"/>
+      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4839,12 +4812,12 @@
     <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5" customWidth="1"/>
-    <col min="12" max="12" width="42.1640625" customWidth="1"/>
-    <col min="13" max="13" width="75" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.5" customWidth="1"/>
+    <col min="13" max="13" width="37.1640625" customWidth="1"/>
+    <col min="14" max="14" width="75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4873,16 +4846,19 @@
         <v>571</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4899,7 +4875,7 @@
         <v>10871</v>
       </c>
       <c r="F2" t="s">
-        <v>573</v>
+        <v>730</v>
       </c>
       <c r="G2" t="s">
         <v>574</v>
@@ -4917,10 +4893,13 @@
         <v>573</v>
       </c>
       <c r="L2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4937,7 +4916,7 @@
         <v>10055</v>
       </c>
       <c r="F3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G3" t="s">
         <v>574</v>
@@ -4955,10 +4934,13 @@
         <v>573</v>
       </c>
       <c r="L3" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M3" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4993,10 +4975,13 @@
         <v>573</v>
       </c>
       <c r="L4" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M4" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -5031,13 +5016,16 @@
         <v>573</v>
       </c>
       <c r="L5" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="M5" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>575</v>
+      </c>
+      <c r="N5" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5072,13 +5060,16 @@
         <v>573</v>
       </c>
       <c r="L6" t="s">
-        <v>616</v>
+        <v>574</v>
       </c>
       <c r="M6" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>728</v>
+      </c>
+      <c r="N6" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5113,10 +5104,13 @@
         <v>573</v>
       </c>
       <c r="L7" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M7" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5151,13 +5145,16 @@
         <v>573</v>
       </c>
       <c r="L8" t="s">
-        <v>632</v>
+        <v>574</v>
       </c>
       <c r="M8" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+      <c r="N8" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5174,7 +5171,7 @@
         <v>6937</v>
       </c>
       <c r="F9" t="s">
-        <v>573</v>
+        <v>733</v>
       </c>
       <c r="G9" t="s">
         <v>574</v>
@@ -5192,13 +5189,16 @@
         <v>573</v>
       </c>
       <c r="L9" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="M9" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+        <v>720</v>
+      </c>
+      <c r="N9" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -5208,14 +5208,14 @@
       <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E10">
         <v>6602</v>
       </c>
       <c r="F10" t="s">
-        <v>573</v>
+        <v>730</v>
       </c>
       <c r="G10" t="s">
         <v>573</v>
@@ -5233,10 +5233,13 @@
         <v>573</v>
       </c>
       <c r="L10" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M10" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -5253,7 +5256,7 @@
         <v>6576</v>
       </c>
       <c r="F11" t="s">
-        <v>573</v>
+        <v>730</v>
       </c>
       <c r="G11" t="s">
         <v>574</v>
@@ -5271,13 +5274,16 @@
         <v>573</v>
       </c>
       <c r="L11" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="M11" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+        <v>729</v>
+      </c>
+      <c r="N11" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -5312,13 +5318,16 @@
         <v>573</v>
       </c>
       <c r="L12" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="M12" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <v>728</v>
+      </c>
+      <c r="N12" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -5353,13 +5362,16 @@
         <v>573</v>
       </c>
       <c r="L13" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="M13" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+        <v>603</v>
+      </c>
+      <c r="N13" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -5382,7 +5394,7 @@
         <v>574</v>
       </c>
       <c r="H14" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="I14" t="s">
         <v>574</v>
@@ -5394,13 +5406,16 @@
         <v>573</v>
       </c>
       <c r="L14" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="M14" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+        <v>728</v>
+      </c>
+      <c r="N14" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5435,10 +5450,13 @@
         <v>573</v>
       </c>
       <c r="L15" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M15" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5455,7 +5473,7 @@
         <v>5878</v>
       </c>
       <c r="F16" t="s">
-        <v>573</v>
+        <v>730</v>
       </c>
       <c r="G16" t="s">
         <v>574</v>
@@ -5473,13 +5491,16 @@
         <v>573</v>
       </c>
       <c r="L16" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="M16" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+        <v>730</v>
+      </c>
+      <c r="N16" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5508,19 +5529,22 @@
         <v>573</v>
       </c>
       <c r="J17" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K17" t="s">
         <v>573</v>
       </c>
       <c r="L17" t="s">
-        <v>594</v>
+        <v>573</v>
       </c>
       <c r="M17" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+      <c r="N17" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5537,7 +5561,7 @@
         <v>5526</v>
       </c>
       <c r="F18" t="s">
-        <v>573</v>
+        <v>730</v>
       </c>
       <c r="G18" t="s">
         <v>574</v>
@@ -5555,13 +5579,16 @@
         <v>573</v>
       </c>
       <c r="L18" t="s">
-        <v>605</v>
+        <v>574</v>
       </c>
       <c r="M18" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5596,13 +5623,16 @@
         <v>573</v>
       </c>
       <c r="L19" t="s">
-        <v>614</v>
+        <v>574</v>
       </c>
       <c r="M19" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+        <v>728</v>
+      </c>
+      <c r="N19" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -5619,7 +5649,7 @@
         <v>5490</v>
       </c>
       <c r="F20" t="s">
-        <v>573</v>
+        <v>730</v>
       </c>
       <c r="G20" t="s">
         <v>574</v>
@@ -5637,10 +5667,13 @@
         <v>573</v>
       </c>
       <c r="L20" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M20" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -5663,7 +5696,7 @@
         <v>574</v>
       </c>
       <c r="H21" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="I21" t="s">
         <v>573</v>
@@ -5675,13 +5708,16 @@
         <v>573</v>
       </c>
       <c r="L21" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="M21" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+        <v>728</v>
+      </c>
+      <c r="N21" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -5716,13 +5752,16 @@
         <v>573</v>
       </c>
       <c r="L22" t="s">
-        <v>594</v>
+        <v>573</v>
       </c>
       <c r="M22" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+        <v>734</v>
+      </c>
+      <c r="N22" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -5739,7 +5778,7 @@
         <v>5272</v>
       </c>
       <c r="F23" t="s">
-        <v>573</v>
+        <v>730</v>
       </c>
       <c r="G23" t="s">
         <v>574</v>
@@ -5757,13 +5796,16 @@
         <v>573</v>
       </c>
       <c r="L23" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="M23" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+        <v>730</v>
+      </c>
+      <c r="N23" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -5780,7 +5822,7 @@
         <v>5209</v>
       </c>
       <c r="F24" t="s">
-        <v>573</v>
+        <v>730</v>
       </c>
       <c r="G24" t="s">
         <v>574</v>
@@ -5798,13 +5840,16 @@
         <v>573</v>
       </c>
       <c r="L24" t="s">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="M24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+        <v>590</v>
+      </c>
+      <c r="N24" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -5824,7 +5869,7 @@
         <v>574</v>
       </c>
       <c r="G25" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H25" t="s">
         <v>573</v>
@@ -5839,13 +5884,16 @@
         <v>573</v>
       </c>
       <c r="L25" t="s">
-        <v>632</v>
+        <v>574</v>
       </c>
       <c r="M25" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+      <c r="N25" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -5862,7 +5910,7 @@
         <v>5162</v>
       </c>
       <c r="F26" t="s">
-        <v>573</v>
+        <v>730</v>
       </c>
       <c r="G26" t="s">
         <v>574</v>
@@ -5880,13 +5928,16 @@
         <v>573</v>
       </c>
       <c r="L26" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="M26" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+        <v>730</v>
+      </c>
+      <c r="N26" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -5906,7 +5957,7 @@
         <v>574</v>
       </c>
       <c r="G27" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H27" t="s">
         <v>573</v>
@@ -5921,10 +5972,13 @@
         <v>573</v>
       </c>
       <c r="L27" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M27" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -5959,13 +6013,16 @@
         <v>573</v>
       </c>
       <c r="L28" t="s">
-        <v>601</v>
+        <v>574</v>
       </c>
       <c r="M28" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+        <v>592</v>
+      </c>
+      <c r="N28" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -6000,13 +6057,16 @@
         <v>573</v>
       </c>
       <c r="L29" t="s">
-        <v>604</v>
+        <v>573</v>
       </c>
       <c r="M29" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+        <v>595</v>
+      </c>
+      <c r="N29" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -6032,7 +6092,7 @@
         <v>573</v>
       </c>
       <c r="I30" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J30" t="s">
         <v>574</v>
@@ -6041,10 +6101,13 @@
         <v>573</v>
       </c>
       <c r="L30" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M30" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -6079,13 +6142,16 @@
         <v>573</v>
       </c>
       <c r="L31" t="s">
-        <v>632</v>
+        <v>574</v>
       </c>
       <c r="M31" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+      <c r="N31" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -6105,7 +6171,7 @@
         <v>574</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>573</v>
@@ -6120,13 +6186,16 @@
         <v>574</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>632</v>
+        <v>574</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -6146,7 +6215,7 @@
         <v>574</v>
       </c>
       <c r="G33" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H33" t="s">
         <v>574</v>
@@ -6161,13 +6230,16 @@
         <v>573</v>
       </c>
       <c r="L33" t="s">
-        <v>615</v>
+        <v>573</v>
       </c>
       <c r="M33" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+        <v>728</v>
+      </c>
+      <c r="N33" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -6193,7 +6265,7 @@
         <v>573</v>
       </c>
       <c r="I34" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J34" t="s">
         <v>574</v>
@@ -6202,10 +6274,13 @@
         <v>573</v>
       </c>
       <c r="L34" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M34" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -6231,7 +6306,7 @@
         <v>573</v>
       </c>
       <c r="I35" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J35" t="s">
         <v>574</v>
@@ -6240,13 +6315,16 @@
         <v>573</v>
       </c>
       <c r="L35" t="s">
-        <v>615</v>
+        <v>573</v>
       </c>
       <c r="M35" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+        <v>728</v>
+      </c>
+      <c r="N35" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -6269,7 +6347,7 @@
         <v>574</v>
       </c>
       <c r="H36" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="I36" t="s">
         <v>573</v>
@@ -6281,13 +6359,16 @@
         <v>573</v>
       </c>
       <c r="L36" t="s">
-        <v>615</v>
+        <v>573</v>
       </c>
       <c r="M36" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+        <v>728</v>
+      </c>
+      <c r="N36" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -6310,7 +6391,7 @@
         <v>574</v>
       </c>
       <c r="H37" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="I37" t="s">
         <v>573</v>
@@ -6322,13 +6403,16 @@
         <v>573</v>
       </c>
       <c r="L37" t="s">
-        <v>615</v>
+        <v>573</v>
       </c>
       <c r="M37" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+        <v>728</v>
+      </c>
+      <c r="N37" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -6363,10 +6447,13 @@
         <v>573</v>
       </c>
       <c r="L38" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M38" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -6386,7 +6473,7 @@
         <v>574</v>
       </c>
       <c r="G39" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H39" t="s">
         <v>573</v>
@@ -6401,13 +6488,16 @@
         <v>573</v>
       </c>
       <c r="L39" t="s">
-        <v>632</v>
+        <v>574</v>
       </c>
       <c r="M39" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+      <c r="N39" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -6433,7 +6523,7 @@
         <v>573</v>
       </c>
       <c r="I40" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J40" t="s">
         <v>574</v>
@@ -6442,13 +6532,16 @@
         <v>573</v>
       </c>
       <c r="L40" t="s">
-        <v>620</v>
+        <v>573</v>
       </c>
       <c r="M40" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+        <v>729</v>
+      </c>
+      <c r="N40" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -6483,13 +6576,16 @@
         <v>573</v>
       </c>
       <c r="L41" t="s">
-        <v>615</v>
+        <v>573</v>
       </c>
       <c r="M41" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+        <v>728</v>
+      </c>
+      <c r="N41" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -6512,7 +6608,7 @@
         <v>574</v>
       </c>
       <c r="H42" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="I42" t="s">
         <v>573</v>
@@ -6524,13 +6620,16 @@
         <v>573</v>
       </c>
       <c r="L42" t="s">
-        <v>622</v>
+        <v>573</v>
       </c>
       <c r="M42" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+        <v>728</v>
+      </c>
+      <c r="N42" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -6565,10 +6664,13 @@
         <v>573</v>
       </c>
       <c r="L43" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M43" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -6603,10 +6705,13 @@
         <v>573</v>
       </c>
       <c r="L44" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M44" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -6629,7 +6734,7 @@
         <v>574</v>
       </c>
       <c r="H45" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="I45" t="s">
         <v>573</v>
@@ -6641,13 +6746,16 @@
         <v>573</v>
       </c>
       <c r="L45" t="s">
-        <v>615</v>
+        <v>573</v>
       </c>
       <c r="M45" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+        <v>728</v>
+      </c>
+      <c r="N45" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -6673,7 +6781,7 @@
         <v>573</v>
       </c>
       <c r="I46" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J46" t="s">
         <v>574</v>
@@ -6682,10 +6790,13 @@
         <v>573</v>
       </c>
       <c r="L46" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M46" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -6711,7 +6822,7 @@
         <v>573</v>
       </c>
       <c r="I47" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J47" t="s">
         <v>574</v>
@@ -6720,13 +6831,16 @@
         <v>573</v>
       </c>
       <c r="L47" t="s">
-        <v>632</v>
+        <v>574</v>
       </c>
       <c r="M47" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+      <c r="N47" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -6761,13 +6875,16 @@
         <v>573</v>
       </c>
       <c r="L48" t="s">
-        <v>632</v>
+        <v>574</v>
       </c>
       <c r="M48" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+      <c r="N48" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -6802,13 +6919,16 @@
         <v>573</v>
       </c>
       <c r="L49" t="s">
-        <v>632</v>
+        <v>574</v>
       </c>
       <c r="M49" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+      <c r="N49" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -6843,13 +6963,16 @@
         <v>573</v>
       </c>
       <c r="L50" t="s">
-        <v>632</v>
+        <v>574</v>
       </c>
       <c r="M50" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+      <c r="N50" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -6884,10 +7007,13 @@
         <v>573</v>
       </c>
       <c r="L51" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M51" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -6913,7 +7039,7 @@
         <v>573</v>
       </c>
       <c r="I52" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J52" t="s">
         <v>574</v>
@@ -6922,13 +7048,16 @@
         <v>573</v>
       </c>
       <c r="L52" t="s">
-        <v>627</v>
+        <v>574</v>
       </c>
       <c r="M52" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+        <v>611</v>
+      </c>
+      <c r="N52" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -6954,7 +7083,7 @@
         <v>573</v>
       </c>
       <c r="I53" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J53" t="s">
         <v>574</v>
@@ -6963,13 +7092,16 @@
         <v>573</v>
       </c>
       <c r="L53" t="s">
-        <v>628</v>
+        <v>573</v>
       </c>
       <c r="M53" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+        <v>729</v>
+      </c>
+      <c r="N53" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -6995,7 +7127,7 @@
         <v>573</v>
       </c>
       <c r="I54" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J54" t="s">
         <v>574</v>
@@ -7004,13 +7136,16 @@
         <v>573</v>
       </c>
       <c r="L54" t="s">
-        <v>628</v>
+        <v>573</v>
       </c>
       <c r="M54" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+        <v>729</v>
+      </c>
+      <c r="N54" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -7045,13 +7180,16 @@
         <v>573</v>
       </c>
       <c r="L55" t="s">
-        <v>594</v>
+        <v>573</v>
       </c>
       <c r="M55" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+        <v>734</v>
+      </c>
+      <c r="N55" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -7086,13 +7224,16 @@
         <v>573</v>
       </c>
       <c r="L56" t="s">
-        <v>594</v>
+        <v>573</v>
       </c>
       <c r="M56" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+        <v>734</v>
+      </c>
+      <c r="N56" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -7118,7 +7259,7 @@
         <v>573</v>
       </c>
       <c r="I57" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J57" t="s">
         <v>574</v>
@@ -7127,13 +7268,16 @@
         <v>573</v>
       </c>
       <c r="L57" t="s">
-        <v>615</v>
+        <v>573</v>
       </c>
       <c r="M57" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+        <v>728</v>
+      </c>
+      <c r="N57" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -7168,10 +7312,13 @@
         <v>573</v>
       </c>
       <c r="L58" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M58" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -7206,10 +7353,13 @@
         <v>573</v>
       </c>
       <c r="L59" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M59" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -7235,7 +7385,7 @@
         <v>573</v>
       </c>
       <c r="I60" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J60" t="s">
         <v>574</v>
@@ -7244,13 +7394,16 @@
         <v>573</v>
       </c>
       <c r="L60" t="s">
-        <v>634</v>
+        <v>574</v>
       </c>
       <c r="M60" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="N60" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -7285,13 +7438,16 @@
         <v>573</v>
       </c>
       <c r="L61" t="s">
-        <v>636</v>
+        <v>573</v>
       </c>
       <c r="M61" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+        <v>595</v>
+      </c>
+      <c r="N61" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -7326,10 +7482,13 @@
         <v>573</v>
       </c>
       <c r="L62" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M62" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -7349,7 +7508,7 @@
         <v>574</v>
       </c>
       <c r="G63" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H63" t="s">
         <v>573</v>
@@ -7364,10 +7523,13 @@
         <v>573</v>
       </c>
       <c r="L63" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M63" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -7387,7 +7549,7 @@
         <v>574</v>
       </c>
       <c r="G64" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H64" t="s">
         <v>573</v>
@@ -7402,10 +7564,13 @@
         <v>573</v>
       </c>
       <c r="L64" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M64" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -7422,7 +7587,7 @@
         <v>4362</v>
       </c>
       <c r="F65" t="s">
-        <v>573</v>
+        <v>730</v>
       </c>
       <c r="G65" t="s">
         <v>574</v>
@@ -7440,10 +7605,13 @@
         <v>573</v>
       </c>
       <c r="L65" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M65" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -7478,10 +7646,13 @@
         <v>573</v>
       </c>
       <c r="L66" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M66" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -7516,10 +7687,13 @@
         <v>573</v>
       </c>
       <c r="L67" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M67" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -7542,7 +7716,7 @@
         <v>574</v>
       </c>
       <c r="H68" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="I68" t="s">
         <v>573</v>
@@ -7554,13 +7728,16 @@
         <v>573</v>
       </c>
       <c r="L68" t="s">
-        <v>614</v>
+        <v>574</v>
       </c>
       <c r="M68" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+        <v>728</v>
+      </c>
+      <c r="N68" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -7595,10 +7772,13 @@
         <v>573</v>
       </c>
       <c r="L69" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M69" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -7633,13 +7813,16 @@
         <v>573</v>
       </c>
       <c r="L70" t="s">
-        <v>594</v>
+        <v>573</v>
       </c>
       <c r="M70" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="N70" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -7659,7 +7842,7 @@
         <v>574</v>
       </c>
       <c r="G71" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H71" t="s">
         <v>573</v>
@@ -7674,13 +7857,16 @@
         <v>573</v>
       </c>
       <c r="L71" t="s">
-        <v>752</v>
+        <v>574</v>
       </c>
       <c r="M71" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+        <v>725</v>
+      </c>
+      <c r="N71" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -7703,7 +7889,7 @@
         <v>574</v>
       </c>
       <c r="H72" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="I72" t="s">
         <v>573</v>
@@ -7715,13 +7901,16 @@
         <v>573</v>
       </c>
       <c r="L72" t="s">
-        <v>615</v>
+        <v>573</v>
       </c>
       <c r="M72" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+        <v>728</v>
+      </c>
+      <c r="N72" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -7756,13 +7945,16 @@
         <v>573</v>
       </c>
       <c r="L73" t="s">
-        <v>615</v>
+        <v>573</v>
       </c>
       <c r="M73" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+        <v>728</v>
+      </c>
+      <c r="N73" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -7788,7 +7980,7 @@
         <v>573</v>
       </c>
       <c r="I74" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J74" t="s">
         <v>574</v>
@@ -7797,10 +7989,13 @@
         <v>573</v>
       </c>
       <c r="L74" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M74" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -7820,7 +8015,7 @@
         <v>574</v>
       </c>
       <c r="G75" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H75" t="s">
         <v>573</v>
@@ -7835,13 +8030,16 @@
         <v>573</v>
       </c>
       <c r="L75" t="s">
-        <v>752</v>
+        <v>574</v>
       </c>
       <c r="M75" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+        <v>725</v>
+      </c>
+      <c r="N75" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -7858,7 +8056,7 @@
         <v>4185</v>
       </c>
       <c r="F76" t="s">
-        <v>574</v>
+        <v>733</v>
       </c>
       <c r="G76" t="s">
         <v>574</v>
@@ -7876,13 +8074,16 @@
         <v>573</v>
       </c>
       <c r="L76" t="s">
-        <v>644</v>
+        <v>574</v>
       </c>
       <c r="M76" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+      <c r="N76" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -7902,13 +8103,13 @@
         <v>574</v>
       </c>
       <c r="G77" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H77" t="s">
         <v>573</v>
       </c>
       <c r="I77" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J77" t="s">
         <v>574</v>
@@ -7917,13 +8118,16 @@
         <v>573</v>
       </c>
       <c r="L77" t="s">
-        <v>636</v>
+        <v>573</v>
       </c>
       <c r="M77" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+        <v>595</v>
+      </c>
+      <c r="N77" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -7958,13 +8162,16 @@
         <v>573</v>
       </c>
       <c r="L78" t="s">
-        <v>614</v>
+        <v>574</v>
       </c>
       <c r="M78" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+        <v>728</v>
+      </c>
+      <c r="N78" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -7999,10 +8206,13 @@
         <v>573</v>
       </c>
       <c r="L79" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M79" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -8019,10 +8229,10 @@
         <v>4162</v>
       </c>
       <c r="F80" t="s">
-        <v>573</v>
+        <v>730</v>
       </c>
       <c r="G80" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H80" t="s">
         <v>573</v>
@@ -8037,10 +8247,13 @@
         <v>573</v>
       </c>
       <c r="L80" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M80" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -8075,10 +8288,13 @@
         <v>573</v>
       </c>
       <c r="L81" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M81" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -8113,10 +8329,13 @@
         <v>573</v>
       </c>
       <c r="L82" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M82" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -8136,7 +8355,7 @@
         <v>574</v>
       </c>
       <c r="G83" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H83" t="s">
         <v>573</v>
@@ -8151,10 +8370,13 @@
         <v>573</v>
       </c>
       <c r="L83" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M83" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -8189,10 +8411,13 @@
         <v>573</v>
       </c>
       <c r="L84" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M84" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -8218,7 +8443,7 @@
         <v>573</v>
       </c>
       <c r="I85" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J85" t="s">
         <v>574</v>
@@ -8227,10 +8452,13 @@
         <v>573</v>
       </c>
       <c r="L85" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M85" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -8247,7 +8475,7 @@
         <v>4100</v>
       </c>
       <c r="F86" t="s">
-        <v>573</v>
+        <v>730</v>
       </c>
       <c r="G86" t="s">
         <v>574</v>
@@ -8265,13 +8493,16 @@
         <v>573</v>
       </c>
       <c r="L86" t="s">
-        <v>648</v>
+        <v>573</v>
       </c>
       <c r="M86" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+        <v>629</v>
+      </c>
+      <c r="N86" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -8306,13 +8537,16 @@
         <v>573</v>
       </c>
       <c r="L87" t="s">
-        <v>752</v>
+        <v>574</v>
       </c>
       <c r="M87" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+        <v>725</v>
+      </c>
+      <c r="N87" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -8347,10 +8581,13 @@
         <v>573</v>
       </c>
       <c r="L88" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M88" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -8370,7 +8607,7 @@
         <v>574</v>
       </c>
       <c r="G89" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="H89" t="s">
         <v>573</v>
@@ -8385,13 +8622,16 @@
         <v>574</v>
       </c>
       <c r="L89" t="s">
-        <v>632</v>
+        <v>574</v>
       </c>
       <c r="M89" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+      <c r="N89" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -8414,7 +8654,7 @@
         <v>574</v>
       </c>
       <c r="H90" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="I90" t="s">
         <v>574</v>
@@ -8426,13 +8666,16 @@
         <v>573</v>
       </c>
       <c r="L90" t="s">
-        <v>752</v>
+        <v>574</v>
       </c>
       <c r="M90" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+        <v>725</v>
+      </c>
+      <c r="N90" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -8467,10 +8710,13 @@
         <v>573</v>
       </c>
       <c r="L91" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M91" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -8487,10 +8733,10 @@
         <v>4045</v>
       </c>
       <c r="F92" t="s">
-        <v>573</v>
+        <v>730</v>
       </c>
       <c r="G92" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H92" t="s">
         <v>573</v>
@@ -8505,13 +8751,16 @@
         <v>573</v>
       </c>
       <c r="L92" t="s">
-        <v>648</v>
+        <v>573</v>
       </c>
       <c r="M92" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+        <v>629</v>
+      </c>
+      <c r="N92" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -8546,13 +8795,16 @@
         <v>573</v>
       </c>
       <c r="L93" t="s">
-        <v>594</v>
+        <v>573</v>
       </c>
       <c r="M93" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+        <v>629</v>
+      </c>
+      <c r="N93" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -8572,7 +8824,7 @@
         <v>574</v>
       </c>
       <c r="G94" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H94" t="s">
         <v>573</v>
@@ -8587,10 +8839,13 @@
         <v>573</v>
       </c>
       <c r="L94" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M94" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -8625,10 +8880,13 @@
         <v>573</v>
       </c>
       <c r="L95" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M95" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -8663,10 +8921,13 @@
         <v>573</v>
       </c>
       <c r="L96" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M96" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -8701,13 +8962,16 @@
         <v>573</v>
       </c>
       <c r="L97" t="s">
-        <v>653</v>
+        <v>573</v>
       </c>
       <c r="M97" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+        <v>603</v>
+      </c>
+      <c r="N97" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -8733,7 +8997,7 @@
         <v>573</v>
       </c>
       <c r="I98" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J98" t="s">
         <v>574</v>
@@ -8742,13 +9006,16 @@
         <v>573</v>
       </c>
       <c r="L98" t="s">
-        <v>614</v>
+        <v>574</v>
       </c>
       <c r="M98" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+        <v>728</v>
+      </c>
+      <c r="N98" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -8783,10 +9050,13 @@
         <v>573</v>
       </c>
       <c r="L99" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M99" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -8821,10 +9091,13 @@
         <v>573</v>
       </c>
       <c r="L100" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M100" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -8847,10 +9120,10 @@
         <v>574</v>
       </c>
       <c r="H101" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="I101" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J101" t="s">
         <v>574</v>
@@ -8859,13 +9132,16 @@
         <v>573</v>
       </c>
       <c r="L101" t="s">
-        <v>614</v>
+        <v>574</v>
       </c>
       <c r="M101" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+        <v>728</v>
+      </c>
+      <c r="N101" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -8885,13 +9161,13 @@
         <v>574</v>
       </c>
       <c r="G102" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H102" t="s">
         <v>574</v>
       </c>
       <c r="I102" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J102" t="s">
         <v>574</v>
@@ -8900,13 +9176,16 @@
         <v>573</v>
       </c>
       <c r="L102" t="s">
-        <v>717</v>
+        <v>574</v>
       </c>
       <c r="M102" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+        <v>694</v>
+      </c>
+      <c r="N102" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -8932,7 +9211,7 @@
         <v>573</v>
       </c>
       <c r="I103" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J103" t="s">
         <v>574</v>
@@ -8941,13 +9220,16 @@
         <v>573</v>
       </c>
       <c r="L103" t="s">
-        <v>717</v>
+        <v>574</v>
       </c>
       <c r="M103" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+        <v>694</v>
+      </c>
+      <c r="N103" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -8973,7 +9255,7 @@
         <v>573</v>
       </c>
       <c r="I104" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J104" t="s">
         <v>574</v>
@@ -8982,10 +9264,13 @@
         <v>573</v>
       </c>
       <c r="L104" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M104" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -9005,13 +9290,13 @@
         <v>574</v>
       </c>
       <c r="G105" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H105" t="s">
         <v>573</v>
       </c>
       <c r="I105" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J105" t="s">
         <v>574</v>
@@ -9020,10 +9305,13 @@
         <v>573</v>
       </c>
       <c r="L105" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M105" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -9058,13 +9346,16 @@
         <v>573</v>
       </c>
       <c r="L106" t="s">
-        <v>705</v>
+        <v>574</v>
       </c>
       <c r="M106" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+        <v>682</v>
+      </c>
+      <c r="N106" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -9099,13 +9390,16 @@
         <v>573</v>
       </c>
       <c r="L107" t="s">
-        <v>656</v>
+        <v>574</v>
       </c>
       <c r="M107" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+      <c r="N107" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -9140,10 +9434,13 @@
         <v>573</v>
       </c>
       <c r="L108" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M108" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -9163,7 +9460,7 @@
         <v>574</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>661</v>
+        <v>639</v>
       </c>
       <c r="H109" s="6" t="s">
         <v>574</v>
@@ -9177,14 +9474,17 @@
       <c r="K109" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="L109" t="s">
-        <v>666</v>
-      </c>
-      <c r="M109" s="6" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L109" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="M109" t="s">
+        <v>644</v>
+      </c>
+      <c r="N109" s="6" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -9204,13 +9504,13 @@
         <v>574</v>
       </c>
       <c r="G110" t="s">
-        <v>663</v>
+        <v>641</v>
       </c>
       <c r="H110" t="s">
         <v>574</v>
       </c>
       <c r="I110" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J110" t="s">
         <v>574</v>
@@ -9219,13 +9519,16 @@
         <v>573</v>
       </c>
       <c r="L110" t="s">
-        <v>717</v>
+        <v>574</v>
       </c>
       <c r="M110" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+        <v>694</v>
+      </c>
+      <c r="N110" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -9260,10 +9563,13 @@
         <v>573</v>
       </c>
       <c r="L111" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M111" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -9283,7 +9589,7 @@
         <v>574</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>661</v>
+        <v>639</v>
       </c>
       <c r="H112" t="s">
         <v>573</v>
@@ -9298,13 +9604,16 @@
         <v>574</v>
       </c>
       <c r="L112" t="s">
-        <v>666</v>
+        <v>574</v>
       </c>
       <c r="M112" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+        <v>644</v>
+      </c>
+      <c r="N112" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -9339,13 +9648,16 @@
         <v>573</v>
       </c>
       <c r="L113" t="s">
-        <v>705</v>
+        <v>574</v>
       </c>
       <c r="M113" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+        <v>682</v>
+      </c>
+      <c r="N113" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -9365,7 +9677,7 @@
         <v>574</v>
       </c>
       <c r="G114" t="s">
-        <v>668</v>
+        <v>646</v>
       </c>
       <c r="H114" t="s">
         <v>573</v>
@@ -9380,13 +9692,16 @@
         <v>573</v>
       </c>
       <c r="L114" t="s">
-        <v>656</v>
+        <v>574</v>
       </c>
       <c r="M114" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+      <c r="N114" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -9406,13 +9721,13 @@
         <v>574</v>
       </c>
       <c r="G115" t="s">
-        <v>663</v>
+        <v>641</v>
       </c>
       <c r="H115" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="I115" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J115" t="s">
         <v>574</v>
@@ -9421,10 +9736,13 @@
         <v>573</v>
       </c>
       <c r="L115" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M115" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -9444,13 +9762,13 @@
         <v>574</v>
       </c>
       <c r="G116" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H116" t="s">
         <v>574</v>
       </c>
       <c r="I116" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J116" t="s">
         <v>574</v>
@@ -9459,13 +9777,16 @@
         <v>573</v>
       </c>
       <c r="L116" t="s">
-        <v>670</v>
+        <v>574</v>
       </c>
       <c r="M116" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+        <v>735</v>
+      </c>
+      <c r="N116" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -9500,10 +9821,13 @@
         <v>573</v>
       </c>
       <c r="L117" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M117" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -9523,7 +9847,7 @@
         <v>574</v>
       </c>
       <c r="G118" t="s">
-        <v>672</v>
+        <v>649</v>
       </c>
       <c r="H118" t="s">
         <v>574</v>
@@ -9538,13 +9862,16 @@
         <v>574</v>
       </c>
       <c r="L118" t="s">
-        <v>666</v>
+        <v>574</v>
       </c>
       <c r="M118" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+        <v>644</v>
+      </c>
+      <c r="N118" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -9579,10 +9906,13 @@
         <v>573</v>
       </c>
       <c r="L119" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M119" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -9602,7 +9932,7 @@
         <v>574</v>
       </c>
       <c r="G120" t="s">
-        <v>674</v>
+        <v>651</v>
       </c>
       <c r="H120" t="s">
         <v>573</v>
@@ -9617,10 +9947,13 @@
         <v>573</v>
       </c>
       <c r="L120" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M120" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -9655,13 +9988,16 @@
         <v>573</v>
       </c>
       <c r="L121" t="s">
-        <v>717</v>
+        <v>574</v>
       </c>
       <c r="M121" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+        <v>694</v>
+      </c>
+      <c r="N121" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -9696,10 +10032,13 @@
         <v>573</v>
       </c>
       <c r="L122" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M122" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -9722,10 +10061,10 @@
         <v>574</v>
       </c>
       <c r="H123" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="I123" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J123" t="s">
         <v>574</v>
@@ -9734,10 +10073,13 @@
         <v>573</v>
       </c>
       <c r="L123" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M123" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -9772,10 +10114,13 @@
         <v>573</v>
       </c>
       <c r="L124" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M124" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -9810,13 +10155,16 @@
         <v>573</v>
       </c>
       <c r="L125" t="s">
-        <v>676</v>
+        <v>574</v>
       </c>
       <c r="M125" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+        <v>653</v>
+      </c>
+      <c r="N125" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -9836,7 +10184,7 @@
         <v>574</v>
       </c>
       <c r="G126" t="s">
-        <v>678</v>
+        <v>655</v>
       </c>
       <c r="H126" t="s">
         <v>573</v>
@@ -9851,13 +10199,16 @@
         <v>573</v>
       </c>
       <c r="L126" t="s">
-        <v>705</v>
+        <v>574</v>
       </c>
       <c r="M126" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+        <v>682</v>
+      </c>
+      <c r="N126" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -9892,10 +10243,13 @@
         <v>573</v>
       </c>
       <c r="L127" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M127" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -9930,10 +10284,13 @@
         <v>573</v>
       </c>
       <c r="L128" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M128" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -9959,7 +10316,7 @@
         <v>573</v>
       </c>
       <c r="I129" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J129" t="s">
         <v>574</v>
@@ -9968,13 +10325,16 @@
         <v>573</v>
       </c>
       <c r="L129" t="s">
-        <v>705</v>
+        <v>574</v>
       </c>
       <c r="M129" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+        <v>682</v>
+      </c>
+      <c r="N129" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -10009,13 +10369,16 @@
         <v>573</v>
       </c>
       <c r="L130" t="s">
-        <v>705</v>
+        <v>574</v>
       </c>
       <c r="M130" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+        <v>682</v>
+      </c>
+      <c r="N130" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -10041,7 +10404,7 @@
         <v>573</v>
       </c>
       <c r="I131" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J131" t="s">
         <v>574</v>
@@ -10050,10 +10413,13 @@
         <v>573</v>
       </c>
       <c r="L131" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M131" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -10088,13 +10454,16 @@
         <v>573</v>
       </c>
       <c r="L132" t="s">
-        <v>705</v>
+        <v>574</v>
       </c>
       <c r="M132" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+        <v>682</v>
+      </c>
+      <c r="N132" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -10129,13 +10498,16 @@
         <v>573</v>
       </c>
       <c r="L133" t="s">
-        <v>717</v>
+        <v>574</v>
       </c>
       <c r="M133" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+        <v>694</v>
+      </c>
+      <c r="N133" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -10170,10 +10542,13 @@
         <v>573</v>
       </c>
       <c r="L134" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M134" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -10208,13 +10583,16 @@
         <v>573</v>
       </c>
       <c r="L135" t="s">
-        <v>705</v>
+        <v>574</v>
       </c>
       <c r="M135" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+        <v>682</v>
+      </c>
+      <c r="N135" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -10249,10 +10627,13 @@
         <v>573</v>
       </c>
       <c r="L136" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M136" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -10287,13 +10668,16 @@
         <v>573</v>
       </c>
       <c r="L137" t="s">
-        <v>705</v>
+        <v>574</v>
       </c>
       <c r="M137" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+        <v>682</v>
+      </c>
+      <c r="N137" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -10328,13 +10712,16 @@
         <v>573</v>
       </c>
       <c r="L138" t="s">
-        <v>705</v>
+        <v>574</v>
       </c>
       <c r="M138" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+        <v>682</v>
+      </c>
+      <c r="N138" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -10357,7 +10744,7 @@
         <v>574</v>
       </c>
       <c r="H139" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="I139" t="s">
         <v>573</v>
@@ -10369,10 +10756,13 @@
         <v>573</v>
       </c>
       <c r="L139" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M139" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="7">
         <v>138</v>
       </c>
@@ -10392,7 +10782,7 @@
         <v>574</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>686</v>
+        <v>663</v>
       </c>
       <c r="H140" s="6" t="s">
         <v>574</v>
@@ -10406,14 +10796,17 @@
       <c r="K140" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="L140" t="s">
-        <v>717</v>
-      </c>
-      <c r="M140" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L140" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="M140" t="s">
+        <v>694</v>
+      </c>
+      <c r="N140" s="6" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -10448,10 +10841,13 @@
         <v>573</v>
       </c>
       <c r="L141" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M141" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -10486,10 +10882,13 @@
         <v>573</v>
       </c>
       <c r="L142" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M142" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -10524,13 +10923,16 @@
         <v>573</v>
       </c>
       <c r="L143" t="s">
-        <v>656</v>
+        <v>574</v>
       </c>
       <c r="M143" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+      <c r="N143" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -10550,7 +10952,7 @@
         <v>574</v>
       </c>
       <c r="G144" t="s">
-        <v>688</v>
+        <v>665</v>
       </c>
       <c r="H144" t="s">
         <v>573</v>
@@ -10565,10 +10967,13 @@
         <v>573</v>
       </c>
       <c r="L144" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M144" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -10594,7 +10999,7 @@
         <v>573</v>
       </c>
       <c r="I145" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J145" t="s">
         <v>574</v>
@@ -10603,13 +11008,16 @@
         <v>573</v>
       </c>
       <c r="L145" t="s">
-        <v>717</v>
+        <v>574</v>
       </c>
       <c r="M145" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+        <v>694</v>
+      </c>
+      <c r="N145" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -10644,13 +11052,16 @@
         <v>573</v>
       </c>
       <c r="L146" t="s">
-        <v>656</v>
+        <v>574</v>
       </c>
       <c r="M146" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+      <c r="N146" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -10685,13 +11096,16 @@
         <v>573</v>
       </c>
       <c r="L147" t="s">
-        <v>705</v>
+        <v>574</v>
       </c>
       <c r="M147" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+        <v>682</v>
+      </c>
+      <c r="N147" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -10726,13 +11140,16 @@
         <v>573</v>
       </c>
       <c r="L148" t="s">
-        <v>656</v>
+        <v>574</v>
       </c>
       <c r="M148" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+      <c r="N148" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -10767,10 +11184,13 @@
         <v>573</v>
       </c>
       <c r="L149" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M149" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -10805,13 +11225,16 @@
         <v>573</v>
       </c>
       <c r="L150" t="s">
-        <v>656</v>
+        <v>574</v>
       </c>
       <c r="M150" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+      <c r="N150" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -10846,13 +11269,16 @@
         <v>573</v>
       </c>
       <c r="L151" t="s">
-        <v>717</v>
+        <v>574</v>
       </c>
       <c r="M151" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+        <v>694</v>
+      </c>
+      <c r="N151" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -10887,13 +11313,16 @@
         <v>573</v>
       </c>
       <c r="L152" t="s">
-        <v>717</v>
+        <v>574</v>
       </c>
       <c r="M152" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+        <v>694</v>
+      </c>
+      <c r="N152" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -10928,10 +11357,13 @@
         <v>573</v>
       </c>
       <c r="L153" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M153" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -10966,13 +11398,16 @@
         <v>573</v>
       </c>
       <c r="L154" t="s">
-        <v>705</v>
+        <v>574</v>
       </c>
       <c r="M154" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+        <v>682</v>
+      </c>
+      <c r="N154" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -11007,10 +11442,13 @@
         <v>573</v>
       </c>
       <c r="L155" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M155" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -11045,13 +11483,16 @@
         <v>573</v>
       </c>
       <c r="L156" t="s">
-        <v>705</v>
+        <v>574</v>
       </c>
       <c r="M156" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+        <v>682</v>
+      </c>
+      <c r="N156" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -11086,13 +11527,16 @@
         <v>573</v>
       </c>
       <c r="L157" t="s">
-        <v>717</v>
+        <v>574</v>
       </c>
       <c r="M157" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N157" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -11112,7 +11556,7 @@
         <v>574</v>
       </c>
       <c r="G158" t="s">
-        <v>695</v>
+        <v>672</v>
       </c>
       <c r="H158" t="s">
         <v>573</v>
@@ -11127,13 +11571,16 @@
         <v>573</v>
       </c>
       <c r="L158" t="s">
-        <v>705</v>
+        <v>574</v>
       </c>
       <c r="M158" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+        <v>682</v>
+      </c>
+      <c r="N158" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -11168,13 +11615,16 @@
         <v>573</v>
       </c>
       <c r="L159" t="s">
-        <v>705</v>
+        <v>574</v>
       </c>
       <c r="M159" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+        <v>682</v>
+      </c>
+      <c r="N159" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -11209,13 +11659,16 @@
         <v>573</v>
       </c>
       <c r="L160" t="s">
-        <v>705</v>
+        <v>574</v>
       </c>
       <c r="M160" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+        <v>682</v>
+      </c>
+      <c r="N160" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" s="7">
         <v>159</v>
       </c>
@@ -11249,14 +11702,17 @@
       <c r="K161" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="L161" t="s">
-        <v>717</v>
-      </c>
-      <c r="M161" s="6" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L161" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="M161" t="s">
+        <v>694</v>
+      </c>
+      <c r="N161" s="6" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" s="7">
         <v>160</v>
       </c>
@@ -11290,14 +11746,17 @@
       <c r="K162" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="L162" t="s">
-        <v>705</v>
-      </c>
-      <c r="M162" s="6" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L162" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="M162" t="s">
+        <v>682</v>
+      </c>
+      <c r="N162" s="6" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -11332,13 +11791,16 @@
         <v>573</v>
       </c>
       <c r="L163" t="s">
-        <v>705</v>
+        <v>574</v>
       </c>
       <c r="M163" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+        <v>682</v>
+      </c>
+      <c r="N163" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -11373,13 +11835,16 @@
         <v>573</v>
       </c>
       <c r="L164" t="s">
-        <v>705</v>
+        <v>574</v>
       </c>
       <c r="M164" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+        <v>682</v>
+      </c>
+      <c r="N164" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -11414,10 +11879,13 @@
         <v>573</v>
       </c>
       <c r="L165" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M165" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -11440,10 +11908,10 @@
         <v>574</v>
       </c>
       <c r="H166" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="I166" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J166" t="s">
         <v>574</v>
@@ -11452,10 +11920,13 @@
         <v>573</v>
       </c>
       <c r="L166" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M166" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -11490,13 +11961,16 @@
         <v>573</v>
       </c>
       <c r="L167" t="s">
-        <v>717</v>
+        <v>574</v>
       </c>
       <c r="M167" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+        <v>694</v>
+      </c>
+      <c r="N167" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -11522,7 +11996,7 @@
         <v>573</v>
       </c>
       <c r="I168" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J168" t="s">
         <v>574</v>
@@ -11531,13 +12005,16 @@
         <v>573</v>
       </c>
       <c r="L168" t="s">
-        <v>594</v>
+        <v>573</v>
       </c>
       <c r="M168" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+        <v>679</v>
+      </c>
+      <c r="N168" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -11557,13 +12034,13 @@
         <v>574</v>
       </c>
       <c r="G169" t="s">
-        <v>703</v>
+        <v>680</v>
       </c>
       <c r="H169" t="s">
         <v>573</v>
       </c>
       <c r="I169" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J169" t="s">
         <v>573</v>
@@ -11572,10 +12049,13 @@
         <v>573</v>
       </c>
       <c r="L169" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M169" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -11595,7 +12075,7 @@
         <v>574</v>
       </c>
       <c r="G170" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H170" t="s">
         <v>573</v>
@@ -11610,13 +12090,16 @@
         <v>573</v>
       </c>
       <c r="L170" t="s">
-        <v>708</v>
+        <v>574</v>
       </c>
       <c r="M170" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+        <v>685</v>
+      </c>
+      <c r="N170" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -11636,7 +12119,7 @@
         <v>574</v>
       </c>
       <c r="G171" t="s">
-        <v>706</v>
+        <v>683</v>
       </c>
       <c r="H171" t="s">
         <v>573</v>
@@ -11651,13 +12134,16 @@
         <v>573</v>
       </c>
       <c r="L171" t="s">
-        <v>707</v>
+        <v>574</v>
       </c>
       <c r="M171" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+        <v>684</v>
+      </c>
+      <c r="N171" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -11692,10 +12178,13 @@
         <v>573</v>
       </c>
       <c r="L172" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M172" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -11715,7 +12204,7 @@
         <v>574</v>
       </c>
       <c r="G173" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H173" t="s">
         <v>573</v>
@@ -11730,10 +12219,13 @@
         <v>573</v>
       </c>
       <c r="L173" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M173" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -11753,7 +12245,7 @@
         <v>574</v>
       </c>
       <c r="G174" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H174" t="s">
         <v>573</v>
@@ -11768,10 +12260,13 @@
         <v>573</v>
       </c>
       <c r="L174" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M174" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -11791,7 +12286,7 @@
         <v>574</v>
       </c>
       <c r="G175" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H175" t="s">
         <v>573</v>
@@ -11806,10 +12301,13 @@
         <v>573</v>
       </c>
       <c r="L175" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M175" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -11829,7 +12327,7 @@
         <v>574</v>
       </c>
       <c r="G176" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H176" t="s">
         <v>573</v>
@@ -11844,10 +12342,13 @@
         <v>573</v>
       </c>
       <c r="L176" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M176" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -11867,7 +12368,7 @@
         <v>574</v>
       </c>
       <c r="G177" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H177" t="s">
         <v>573</v>
@@ -11882,10 +12383,13 @@
         <v>573</v>
       </c>
       <c r="L177" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M177" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -11920,10 +12424,13 @@
         <v>573</v>
       </c>
       <c r="L178" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M178" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -11958,13 +12465,16 @@
         <v>573</v>
       </c>
       <c r="L179" t="s">
-        <v>705</v>
+        <v>574</v>
       </c>
       <c r="M179" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+        <v>682</v>
+      </c>
+      <c r="N179" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -11999,13 +12509,16 @@
         <v>573</v>
       </c>
       <c r="L180" t="s">
-        <v>705</v>
+        <v>574</v>
       </c>
       <c r="M180" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+        <v>682</v>
+      </c>
+      <c r="N180" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -12040,13 +12553,16 @@
         <v>573</v>
       </c>
       <c r="L181" t="s">
-        <v>705</v>
+        <v>574</v>
       </c>
       <c r="M181" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+        <v>682</v>
+      </c>
+      <c r="N181" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -12063,7 +12579,7 @@
         <v>76</v>
       </c>
       <c r="F182" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G182" t="s">
         <v>574</v>
@@ -12081,13 +12597,16 @@
         <v>574</v>
       </c>
       <c r="L182" t="s">
-        <v>707</v>
+        <v>574</v>
       </c>
       <c r="M182" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+        <v>684</v>
+      </c>
+      <c r="N182" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -12110,10 +12629,10 @@
         <v>574</v>
       </c>
       <c r="H183" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="I183" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J183" t="s">
         <v>574</v>
@@ -12122,13 +12641,16 @@
         <v>573</v>
       </c>
       <c r="L183" t="s">
-        <v>713</v>
+        <v>574</v>
       </c>
       <c r="M183" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+        <v>690</v>
+      </c>
+      <c r="N183" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -12163,13 +12685,16 @@
         <v>573</v>
       </c>
       <c r="L184" t="s">
-        <v>705</v>
+        <v>574</v>
       </c>
       <c r="M184" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+        <v>682</v>
+      </c>
+      <c r="N184" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -12204,13 +12729,16 @@
         <v>573</v>
       </c>
       <c r="L185" s="5" t="s">
-        <v>632</v>
+        <v>574</v>
       </c>
       <c r="M185" s="5" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+      <c r="N185" s="5" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -12245,13 +12773,16 @@
         <v>574</v>
       </c>
       <c r="L186" t="s">
-        <v>717</v>
+        <v>574</v>
       </c>
       <c r="M186" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+        <v>694</v>
+      </c>
+      <c r="N186" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -12277,7 +12808,7 @@
         <v>573</v>
       </c>
       <c r="I187" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J187" t="s">
         <v>574</v>
@@ -12286,10 +12817,13 @@
         <v>573</v>
       </c>
       <c r="L187" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M187" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -12324,13 +12858,16 @@
         <v>573</v>
       </c>
       <c r="L188" t="s">
-        <v>752</v>
+        <v>574</v>
       </c>
       <c r="M188" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+        <v>725</v>
+      </c>
+      <c r="N188" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -12365,13 +12902,16 @@
         <v>573</v>
       </c>
       <c r="L189" t="s">
-        <v>720</v>
+        <v>573</v>
       </c>
       <c r="M189" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+        <v>682</v>
+      </c>
+      <c r="N189" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -12406,13 +12946,16 @@
         <v>573</v>
       </c>
       <c r="L190" t="s">
-        <v>705</v>
+        <v>574</v>
       </c>
       <c r="M190" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+        <v>682</v>
+      </c>
+      <c r="N190" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" s="7">
         <v>189</v>
       </c>
@@ -12447,13 +12990,16 @@
         <v>574</v>
       </c>
       <c r="L191" s="6" t="s">
-        <v>722</v>
+        <v>574</v>
       </c>
       <c r="M191" s="6" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+        <v>698</v>
+      </c>
+      <c r="N191" s="6" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -12473,7 +13019,7 @@
         <v>574</v>
       </c>
       <c r="G192" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H192" t="s">
         <v>573</v>
@@ -12488,10 +13034,13 @@
         <v>574</v>
       </c>
       <c r="L192" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M192" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -12517,7 +13066,7 @@
         <v>573</v>
       </c>
       <c r="I193" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J193" t="s">
         <v>574</v>
@@ -12526,10 +13075,13 @@
         <v>573</v>
       </c>
       <c r="L193" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M193" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -12564,13 +13116,16 @@
         <v>574</v>
       </c>
       <c r="L194" t="s">
-        <v>717</v>
+        <v>574</v>
       </c>
       <c r="M194" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+        <v>694</v>
+      </c>
+      <c r="N194" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -12605,13 +13160,16 @@
         <v>574</v>
       </c>
       <c r="L195" t="s">
-        <v>717</v>
+        <v>574</v>
       </c>
       <c r="M195" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+        <v>694</v>
+      </c>
+      <c r="N195" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -12646,10 +13204,16 @@
         <v>573</v>
       </c>
       <c r="L196" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M196" t="s">
+        <v>684</v>
+      </c>
+      <c r="N196" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -12684,13 +13248,16 @@
         <v>574</v>
       </c>
       <c r="L197" t="s">
-        <v>717</v>
+        <v>574</v>
       </c>
       <c r="M197" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+        <v>694</v>
+      </c>
+      <c r="N197" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -12716,7 +13283,7 @@
         <v>573</v>
       </c>
       <c r="I198" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J198" t="s">
         <v>574</v>
@@ -12725,13 +13292,16 @@
         <v>573</v>
       </c>
       <c r="L198" t="s">
-        <v>705</v>
+        <v>574</v>
       </c>
       <c r="M198" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+        <v>682</v>
+      </c>
+      <c r="N198" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -12757,7 +13327,7 @@
         <v>573</v>
       </c>
       <c r="I199" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J199" t="s">
         <v>574</v>
@@ -12766,10 +13336,13 @@
         <v>573</v>
       </c>
       <c r="L199" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M199" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -12804,10 +13377,13 @@
         <v>573</v>
       </c>
       <c r="L200" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M200" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" s="7">
         <v>199</v>
       </c>
@@ -12842,13 +13418,16 @@
         <v>574</v>
       </c>
       <c r="L201" s="6" t="s">
-        <v>717</v>
+        <v>574</v>
       </c>
       <c r="M201" s="6" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+        <v>694</v>
+      </c>
+      <c r="N201" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -12868,10 +13447,10 @@
         <v>574</v>
       </c>
       <c r="G202" t="s">
-        <v>678</v>
+        <v>655</v>
       </c>
       <c r="H202" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="I202" t="s">
         <v>573</v>
@@ -12883,10 +13462,13 @@
         <v>573</v>
       </c>
       <c r="L202" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M202" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -12906,10 +13488,10 @@
         <v>574</v>
       </c>
       <c r="G203" t="s">
-        <v>678</v>
+        <v>655</v>
       </c>
       <c r="H203" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="I203" t="s">
         <v>573</v>
@@ -12921,10 +13503,13 @@
         <v>573</v>
       </c>
       <c r="L203" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M203" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -12950,7 +13535,7 @@
         <v>573</v>
       </c>
       <c r="I204" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J204" t="s">
         <v>574</v>
@@ -12959,10 +13544,13 @@
         <v>573</v>
       </c>
       <c r="L204" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M204" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -12982,7 +13570,7 @@
         <v>574</v>
       </c>
       <c r="G205" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H205" t="s">
         <v>573</v>
@@ -12997,13 +13585,16 @@
         <v>573</v>
       </c>
       <c r="L205" t="s">
-        <v>730</v>
+        <v>574</v>
       </c>
       <c r="M205" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+        <v>705</v>
+      </c>
+      <c r="N205" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -13029,7 +13620,7 @@
         <v>573</v>
       </c>
       <c r="I206" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J206" t="s">
         <v>574</v>
@@ -13038,10 +13629,13 @@
         <v>573</v>
       </c>
       <c r="L206" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M206" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -13076,13 +13670,16 @@
         <v>573</v>
       </c>
       <c r="L207" t="s">
-        <v>730</v>
+        <v>574</v>
       </c>
       <c r="M207" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+        <v>705</v>
+      </c>
+      <c r="N207" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -13102,7 +13699,7 @@
         <v>574</v>
       </c>
       <c r="G208" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H208" t="s">
         <v>573</v>
@@ -13117,10 +13714,13 @@
         <v>573</v>
       </c>
       <c r="L208" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M208" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -13146,7 +13746,7 @@
         <v>573</v>
       </c>
       <c r="I209" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J209" t="s">
         <v>574</v>
@@ -13155,10 +13755,13 @@
         <v>573</v>
       </c>
       <c r="L209" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M209" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -13178,10 +13781,10 @@
         <v>574</v>
       </c>
       <c r="G210" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H210" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="I210" t="s">
         <v>573</v>
@@ -13193,13 +13796,16 @@
         <v>573</v>
       </c>
       <c r="L210" t="s">
-        <v>632</v>
+        <v>574</v>
       </c>
       <c r="M210" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+      <c r="N210" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -13219,7 +13825,7 @@
         <v>574</v>
       </c>
       <c r="G211" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H211" t="s">
         <v>573</v>
@@ -13234,10 +13840,13 @@
         <v>573</v>
       </c>
       <c r="L211" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M211" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -13263,7 +13872,7 @@
         <v>574</v>
       </c>
       <c r="I212" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J212" t="s">
         <v>574</v>
@@ -13272,13 +13881,16 @@
         <v>573</v>
       </c>
       <c r="L212" t="s">
-        <v>632</v>
+        <v>574</v>
       </c>
       <c r="M212" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+      <c r="N212" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -13313,10 +13925,13 @@
         <v>573</v>
       </c>
       <c r="L213" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M213" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -13336,7 +13951,7 @@
         <v>574</v>
       </c>
       <c r="G214" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H214" t="s">
         <v>573</v>
@@ -13351,10 +13966,13 @@
         <v>573</v>
       </c>
       <c r="L214" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M214" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -13389,10 +14007,13 @@
         <v>573</v>
       </c>
       <c r="L215" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M215" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -13412,7 +14033,7 @@
         <v>574</v>
       </c>
       <c r="G216" t="s">
-        <v>686</v>
+        <v>663</v>
       </c>
       <c r="H216" t="s">
         <v>574</v>
@@ -13427,10 +14048,13 @@
         <v>573</v>
       </c>
       <c r="L216" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M216" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -13456,7 +14080,7 @@
         <v>573</v>
       </c>
       <c r="I217" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J217" t="s">
         <v>574</v>
@@ -13465,10 +14089,13 @@
         <v>573</v>
       </c>
       <c r="L217" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M217" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" s="7">
         <v>216</v>
       </c>
@@ -13488,7 +14115,7 @@
         <v>574</v>
       </c>
       <c r="G218" s="6" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H218" s="6" t="s">
         <v>573</v>
@@ -13503,13 +14130,16 @@
         <v>573</v>
       </c>
       <c r="L218" s="6" t="s">
-        <v>730</v>
+        <v>574</v>
       </c>
       <c r="M218" s="6" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+        <v>705</v>
+      </c>
+      <c r="N218" s="6" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -13535,7 +14165,7 @@
         <v>573</v>
       </c>
       <c r="I219" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J219" t="s">
         <v>574</v>
@@ -13544,10 +14174,13 @@
         <v>573</v>
       </c>
       <c r="L219" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M219" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -13573,7 +14206,7 @@
         <v>573</v>
       </c>
       <c r="I220" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J220" t="s">
         <v>574</v>
@@ -13582,10 +14215,13 @@
         <v>573</v>
       </c>
       <c r="L220" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M220" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -13611,7 +14247,7 @@
         <v>573</v>
       </c>
       <c r="I221" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J221" t="s">
         <v>574</v>
@@ -13620,10 +14256,13 @@
         <v>573</v>
       </c>
       <c r="L221" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M221" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -13643,7 +14282,7 @@
         <v>574</v>
       </c>
       <c r="G222" t="s">
-        <v>678</v>
+        <v>655</v>
       </c>
       <c r="H222" t="s">
         <v>573</v>
@@ -13658,10 +14297,13 @@
         <v>573</v>
       </c>
       <c r="L222" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M222" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -13681,7 +14323,7 @@
         <v>574</v>
       </c>
       <c r="G223" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H223" t="s">
         <v>573</v>
@@ -13696,13 +14338,16 @@
         <v>573</v>
       </c>
       <c r="L223" t="s">
-        <v>730</v>
+        <v>574</v>
       </c>
       <c r="M223" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+        <v>705</v>
+      </c>
+      <c r="N223" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -13728,7 +14373,7 @@
         <v>573</v>
       </c>
       <c r="I224" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J224" t="s">
         <v>574</v>
@@ -13737,10 +14382,13 @@
         <v>573</v>
       </c>
       <c r="L224" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M224" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -13766,7 +14414,7 @@
         <v>573</v>
       </c>
       <c r="I225" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J225" t="s">
         <v>574</v>
@@ -13775,10 +14423,13 @@
         <v>573</v>
       </c>
       <c r="L225" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M225" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -13804,7 +14455,7 @@
         <v>573</v>
       </c>
       <c r="I226" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J226" t="s">
         <v>574</v>
@@ -13813,10 +14464,13 @@
         <v>573</v>
       </c>
       <c r="L226" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M226" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -13851,10 +14505,13 @@
         <v>573</v>
       </c>
       <c r="L227" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M227" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -13880,7 +14537,7 @@
         <v>573</v>
       </c>
       <c r="I228" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J228" t="s">
         <v>574</v>
@@ -13889,13 +14546,16 @@
         <v>573</v>
       </c>
       <c r="L228" t="s">
-        <v>637</v>
+        <v>574</v>
       </c>
       <c r="M228" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+        <v>619</v>
+      </c>
+      <c r="N228" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -13915,7 +14575,7 @@
         <v>574</v>
       </c>
       <c r="G229" t="s">
-        <v>686</v>
+        <v>663</v>
       </c>
       <c r="H229" t="s">
         <v>574</v>
@@ -13930,13 +14590,16 @@
         <v>573</v>
       </c>
       <c r="L229" t="s">
-        <v>698</v>
+        <v>574</v>
       </c>
       <c r="M229" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+        <v>705</v>
+      </c>
+      <c r="N229" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -13962,7 +14625,7 @@
         <v>573</v>
       </c>
       <c r="I230" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J230" t="s">
         <v>574</v>
@@ -13971,10 +14634,13 @@
         <v>573</v>
       </c>
       <c r="L230" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M230" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -14000,7 +14666,7 @@
         <v>573</v>
       </c>
       <c r="I231" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J231" t="s">
         <v>574</v>
@@ -14009,10 +14675,13 @@
         <v>573</v>
       </c>
       <c r="L231" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M231" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -14038,7 +14707,7 @@
         <v>573</v>
       </c>
       <c r="I232" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J232" t="s">
         <v>574</v>
@@ -14047,10 +14716,13 @@
         <v>573</v>
       </c>
       <c r="L232" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M232" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -14076,7 +14748,7 @@
         <v>573</v>
       </c>
       <c r="I233" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J233" t="s">
         <v>574</v>
@@ -14085,10 +14757,13 @@
         <v>573</v>
       </c>
       <c r="L233" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M233" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -14114,7 +14789,7 @@
         <v>573</v>
       </c>
       <c r="I234" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J234" t="s">
         <v>574</v>
@@ -14123,10 +14798,13 @@
         <v>573</v>
       </c>
       <c r="L234" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M234" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -14152,7 +14830,7 @@
         <v>573</v>
       </c>
       <c r="I235" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J235" t="s">
         <v>574</v>
@@ -14161,10 +14839,13 @@
         <v>573</v>
       </c>
       <c r="L235" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M235" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -14190,7 +14871,7 @@
         <v>573</v>
       </c>
       <c r="I236" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J236" t="s">
         <v>574</v>
@@ -14199,10 +14880,13 @@
         <v>573</v>
       </c>
       <c r="L236" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M236" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -14228,7 +14912,7 @@
         <v>573</v>
       </c>
       <c r="I237" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J237" t="s">
         <v>574</v>
@@ -14237,10 +14921,13 @@
         <v>573</v>
       </c>
       <c r="L237" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M237" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -14266,7 +14953,7 @@
         <v>573</v>
       </c>
       <c r="I238" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J238" t="s">
         <v>574</v>
@@ -14275,10 +14962,13 @@
         <v>573</v>
       </c>
       <c r="L238" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M238" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -14304,7 +14994,7 @@
         <v>573</v>
       </c>
       <c r="I239" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J239" t="s">
         <v>574</v>
@@ -14313,10 +15003,13 @@
         <v>573</v>
       </c>
       <c r="L239" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M239" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -14351,10 +15044,13 @@
         <v>573</v>
       </c>
       <c r="L240" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M240" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -14389,13 +15085,16 @@
         <v>573</v>
       </c>
       <c r="L241" t="s">
-        <v>707</v>
+        <v>574</v>
       </c>
       <c r="M241" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+        <v>684</v>
+      </c>
+      <c r="N241" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -14415,10 +15114,10 @@
         <v>574</v>
       </c>
       <c r="G242" t="s">
-        <v>686</v>
+        <v>663</v>
       </c>
       <c r="H242" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="I242" t="s">
         <v>574</v>
@@ -14430,13 +15129,16 @@
         <v>573</v>
       </c>
       <c r="L242" t="s">
-        <v>730</v>
+        <v>574</v>
       </c>
       <c r="M242" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+        <v>705</v>
+      </c>
+      <c r="N242" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -14456,13 +15158,13 @@
         <v>574</v>
       </c>
       <c r="G243" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H243" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="I243" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J243" t="s">
         <v>574</v>
@@ -14471,10 +15173,13 @@
         <v>573</v>
       </c>
       <c r="L243" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M243" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -14497,10 +15202,10 @@
         <v>574</v>
       </c>
       <c r="H244" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="I244" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J244" t="s">
         <v>574</v>
@@ -14509,10 +15214,13 @@
         <v>573</v>
       </c>
       <c r="L244" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M244" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -14535,10 +15243,10 @@
         <v>574</v>
       </c>
       <c r="H245" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="I245" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J245" t="s">
         <v>574</v>
@@ -14547,10 +15255,13 @@
         <v>573</v>
       </c>
       <c r="L245" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M245" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -14570,13 +15281,13 @@
         <v>574</v>
       </c>
       <c r="G246" t="s">
-        <v>678</v>
+        <v>655</v>
       </c>
       <c r="H246" t="s">
         <v>574</v>
       </c>
       <c r="I246" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J246" t="s">
         <v>574</v>
@@ -14585,10 +15296,13 @@
         <v>573</v>
       </c>
       <c r="L246" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M246" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -14623,10 +15337,13 @@
         <v>573</v>
       </c>
       <c r="L247" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M247" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -14652,7 +15369,7 @@
         <v>573</v>
       </c>
       <c r="I248" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J248" t="s">
         <v>574</v>
@@ -14661,10 +15378,13 @@
         <v>573</v>
       </c>
       <c r="L248" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M248" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -14699,10 +15419,13 @@
         <v>573</v>
       </c>
       <c r="L249" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M249" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -14737,13 +15460,16 @@
         <v>573</v>
       </c>
       <c r="L250" t="s">
-        <v>752</v>
+        <v>574</v>
       </c>
       <c r="M250" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+        <v>725</v>
+      </c>
+      <c r="N250" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -14769,7 +15495,7 @@
         <v>573</v>
       </c>
       <c r="I251" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J251" t="s">
         <v>574</v>
@@ -14778,10 +15504,13 @@
         <v>573</v>
       </c>
       <c r="L251" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M251" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -14801,7 +15530,7 @@
         <v>574</v>
       </c>
       <c r="G252" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H252" t="s">
         <v>573</v>
@@ -14816,10 +15545,13 @@
         <v>573</v>
       </c>
       <c r="L252" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M252" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -14842,10 +15574,10 @@
         <v>574</v>
       </c>
       <c r="H253" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="I253" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J253" t="s">
         <v>574</v>
@@ -14854,13 +15586,16 @@
         <v>573</v>
       </c>
       <c r="L253" t="s">
-        <v>740</v>
+        <v>573</v>
       </c>
       <c r="M253" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+        <v>690</v>
+      </c>
+      <c r="N253" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -14880,7 +15615,7 @@
         <v>574</v>
       </c>
       <c r="G254" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H254" t="s">
         <v>573</v>
@@ -14895,10 +15630,13 @@
         <v>573</v>
       </c>
       <c r="L254" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M254" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -14918,7 +15656,7 @@
         <v>574</v>
       </c>
       <c r="G255" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H255" t="s">
         <v>573</v>
@@ -14933,13 +15671,16 @@
         <v>573</v>
       </c>
       <c r="L255" t="s">
-        <v>741</v>
+        <v>574</v>
       </c>
       <c r="M255" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+        <v>592</v>
+      </c>
+      <c r="N255" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -14965,7 +15706,7 @@
         <v>573</v>
       </c>
       <c r="I256" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J256" t="s">
         <v>574</v>
@@ -14974,10 +15715,13 @@
         <v>573</v>
       </c>
       <c r="L256" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M256" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -14997,13 +15741,13 @@
         <v>574</v>
       </c>
       <c r="G257" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H257" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="I257" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J257" t="s">
         <v>574</v>
@@ -15012,13 +15756,16 @@
         <v>573</v>
       </c>
       <c r="L257" t="s">
-        <v>669</v>
+        <v>574</v>
       </c>
       <c r="M257" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+        <v>647</v>
+      </c>
+      <c r="N257" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -15053,10 +15800,13 @@
         <v>573</v>
       </c>
       <c r="L258" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M258" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -15082,7 +15832,7 @@
         <v>573</v>
       </c>
       <c r="I259" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J259" t="s">
         <v>574</v>
@@ -15091,10 +15841,13 @@
         <v>573</v>
       </c>
       <c r="L259" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M259" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -15114,7 +15867,7 @@
         <v>574</v>
       </c>
       <c r="G260" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H260" t="s">
         <v>573</v>
@@ -15129,13 +15882,16 @@
         <v>573</v>
       </c>
       <c r="L260" t="s">
-        <v>751</v>
+        <v>574</v>
       </c>
       <c r="M260" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+        <v>717</v>
+      </c>
+      <c r="N260" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -15170,10 +15926,13 @@
         <v>573</v>
       </c>
       <c r="L261" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M261" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -15208,10 +15967,13 @@
         <v>573</v>
       </c>
       <c r="L262" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M262" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -15231,13 +15993,13 @@
         <v>574</v>
       </c>
       <c r="G263" t="s">
-        <v>686</v>
+        <v>663</v>
       </c>
       <c r="H263" t="s">
         <v>573</v>
       </c>
       <c r="I263" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J263" t="s">
         <v>574</v>
@@ -15246,10 +16008,13 @@
         <v>573</v>
       </c>
       <c r="L263" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M263" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -15269,7 +16034,7 @@
         <v>574</v>
       </c>
       <c r="G264" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H264" t="s">
         <v>573</v>
@@ -15284,10 +16049,13 @@
         <v>573</v>
       </c>
       <c r="L264" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M264" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -15313,7 +16081,7 @@
         <v>573</v>
       </c>
       <c r="I265" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J265" t="s">
         <v>574</v>
@@ -15322,10 +16090,13 @@
         <v>573</v>
       </c>
       <c r="L265" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M265" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -15351,7 +16122,7 @@
         <v>573</v>
       </c>
       <c r="I266" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J266" t="s">
         <v>574</v>
@@ -15360,10 +16131,13 @@
         <v>573</v>
       </c>
       <c r="L266" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M266" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -15383,7 +16157,7 @@
         <v>574</v>
       </c>
       <c r="G267" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H267" t="s">
         <v>573</v>
@@ -15398,10 +16172,13 @@
         <v>573</v>
       </c>
       <c r="L267" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M267" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -15421,7 +16198,7 @@
         <v>574</v>
       </c>
       <c r="G268" t="s">
-        <v>745</v>
+        <v>719</v>
       </c>
       <c r="H268" t="s">
         <v>573</v>
@@ -15436,10 +16213,13 @@
         <v>573</v>
       </c>
       <c r="L268" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M268" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -15465,7 +16245,7 @@
         <v>573</v>
       </c>
       <c r="I269" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J269" t="s">
         <v>574</v>
@@ -15474,13 +16254,16 @@
         <v>573</v>
       </c>
       <c r="L269" t="s">
-        <v>746</v>
+        <v>574</v>
       </c>
       <c r="M269" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+        <v>720</v>
+      </c>
+      <c r="N269" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -15500,13 +16283,13 @@
         <v>574</v>
       </c>
       <c r="G270" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H270" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="I270" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J270" t="s">
         <v>574</v>
@@ -15515,10 +16298,13 @@
         <v>573</v>
       </c>
       <c r="L270" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M270" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -15538,13 +16324,13 @@
         <v>574</v>
       </c>
       <c r="G271" t="s">
-        <v>686</v>
+        <v>663</v>
       </c>
       <c r="H271" t="s">
         <v>573</v>
       </c>
       <c r="I271" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J271" t="s">
         <v>574</v>
@@ -15553,10 +16339,13 @@
         <v>573</v>
       </c>
       <c r="L271" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M271" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -15582,7 +16371,7 @@
         <v>573</v>
       </c>
       <c r="I272" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J272" t="s">
         <v>574</v>
@@ -15591,10 +16380,13 @@
         <v>573</v>
       </c>
       <c r="L272" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M272" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -15614,7 +16406,7 @@
         <v>574</v>
       </c>
       <c r="G273" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H273" t="s">
         <v>573</v>
@@ -15629,10 +16421,13 @@
         <v>573</v>
       </c>
       <c r="L273" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M273" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -15667,10 +16462,13 @@
         <v>573</v>
       </c>
       <c r="L274" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M274" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -15690,10 +16488,10 @@
         <v>574</v>
       </c>
       <c r="G275" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H275" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="I275" t="s">
         <v>573</v>
@@ -15705,10 +16503,13 @@
         <v>573</v>
       </c>
       <c r="L275" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M275" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -15734,7 +16535,7 @@
         <v>573</v>
       </c>
       <c r="I276" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J276" t="s">
         <v>574</v>
@@ -15743,13 +16544,16 @@
         <v>573</v>
       </c>
       <c r="L276" t="s">
-        <v>746</v>
+        <v>574</v>
       </c>
       <c r="M276" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
+        <v>720</v>
+      </c>
+      <c r="N276" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -15775,7 +16579,7 @@
         <v>573</v>
       </c>
       <c r="I277" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J277" t="s">
         <v>574</v>
@@ -15784,10 +16588,13 @@
         <v>573</v>
       </c>
       <c r="L277" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M277" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -15813,7 +16620,7 @@
         <v>573</v>
       </c>
       <c r="I278" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J278" t="s">
         <v>574</v>
@@ -15822,10 +16629,13 @@
         <v>573</v>
       </c>
       <c r="L278" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M278" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -15851,7 +16661,7 @@
         <v>573</v>
       </c>
       <c r="I279" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J279" t="s">
         <v>574</v>
@@ -15860,10 +16670,13 @@
         <v>573</v>
       </c>
       <c r="L279" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M279" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -15889,7 +16702,7 @@
         <v>574</v>
       </c>
       <c r="I280" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J280" t="s">
         <v>574</v>
@@ -15898,10 +16711,13 @@
         <v>573</v>
       </c>
       <c r="L280" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M280" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -15927,7 +16743,7 @@
         <v>574</v>
       </c>
       <c r="I281" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J281" t="s">
         <v>574</v>
@@ -15936,10 +16752,13 @@
         <v>573</v>
       </c>
       <c r="L281" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M281" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -15965,7 +16784,7 @@
         <v>573</v>
       </c>
       <c r="I282" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J282" t="s">
         <v>574</v>
@@ -15974,10 +16793,13 @@
         <v>573</v>
       </c>
       <c r="L282" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M282" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -15997,10 +16819,10 @@
         <v>574</v>
       </c>
       <c r="G283" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H283" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="I283" t="s">
         <v>574</v>
@@ -16012,13 +16834,16 @@
         <v>573</v>
       </c>
       <c r="L283" t="s">
-        <v>752</v>
+        <v>574</v>
       </c>
       <c r="M283" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+        <v>725</v>
+      </c>
+      <c r="N283" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -16044,7 +16869,7 @@
         <v>573</v>
       </c>
       <c r="I284" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J284" t="s">
         <v>574</v>
@@ -16053,10 +16878,13 @@
         <v>573</v>
       </c>
       <c r="L284" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M284" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -16082,7 +16910,7 @@
         <v>573</v>
       </c>
       <c r="I285" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J285" t="s">
         <v>574</v>
@@ -16091,10 +16919,13 @@
         <v>573</v>
       </c>
       <c r="L285" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M285" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -16120,7 +16951,7 @@
         <v>573</v>
       </c>
       <c r="I286" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J286" t="s">
         <v>574</v>
@@ -16129,10 +16960,13 @@
         <v>573</v>
       </c>
       <c r="L286" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M286" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -16158,7 +16992,7 @@
         <v>573</v>
       </c>
       <c r="I287" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J287" t="s">
         <v>574</v>
@@ -16167,10 +17001,13 @@
         <v>573</v>
       </c>
       <c r="L287" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M287" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -16196,7 +17033,7 @@
         <v>573</v>
       </c>
       <c r="I288" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J288" t="s">
         <v>574</v>
@@ -16205,10 +17042,13 @@
         <v>573</v>
       </c>
       <c r="L288" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M288" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -16234,7 +17074,7 @@
         <v>573</v>
       </c>
       <c r="I289" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J289" t="s">
         <v>574</v>
@@ -16243,10 +17083,13 @@
         <v>573</v>
       </c>
       <c r="L289" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M289" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -16272,7 +17115,7 @@
         <v>573</v>
       </c>
       <c r="I290" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J290" t="s">
         <v>574</v>
@@ -16281,10 +17124,13 @@
         <v>573</v>
       </c>
       <c r="L290" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M290" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -16310,7 +17156,7 @@
         <v>573</v>
       </c>
       <c r="I291" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J291" t="s">
         <v>574</v>
@@ -16319,10 +17165,13 @@
         <v>573</v>
       </c>
       <c r="L291" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M291" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -16348,7 +17197,7 @@
         <v>573</v>
       </c>
       <c r="I292" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J292" t="s">
         <v>574</v>
@@ -16357,10 +17206,13 @@
         <v>573</v>
       </c>
       <c r="L292" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M292" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -16386,7 +17238,7 @@
         <v>573</v>
       </c>
       <c r="I293" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J293" t="s">
         <v>574</v>
@@ -16395,10 +17247,13 @@
         <v>573</v>
       </c>
       <c r="L293" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M293" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -16424,7 +17279,7 @@
         <v>573</v>
       </c>
       <c r="I294" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J294" t="s">
         <v>574</v>
@@ -16433,10 +17288,13 @@
         <v>573</v>
       </c>
       <c r="L294" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M294" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -16462,7 +17320,7 @@
         <v>573</v>
       </c>
       <c r="I295" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J295" t="s">
         <v>574</v>
@@ -16471,10 +17329,13 @@
         <v>573</v>
       </c>
       <c r="L295" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M295" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -16500,7 +17361,7 @@
         <v>573</v>
       </c>
       <c r="I296" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J296" t="s">
         <v>574</v>
@@ -16509,10 +17370,13 @@
         <v>573</v>
       </c>
       <c r="L296" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M296" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -16538,7 +17402,7 @@
         <v>573</v>
       </c>
       <c r="I297" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J297" t="s">
         <v>574</v>
@@ -16547,10 +17411,13 @@
         <v>573</v>
       </c>
       <c r="L297" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M297" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -16576,7 +17443,7 @@
         <v>573</v>
       </c>
       <c r="I298" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J298" t="s">
         <v>574</v>
@@ -16585,10 +17452,13 @@
         <v>573</v>
       </c>
       <c r="L298" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M298" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -16614,7 +17484,7 @@
         <v>573</v>
       </c>
       <c r="I299" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J299" t="s">
         <v>574</v>
@@ -16623,10 +17493,13 @@
         <v>573</v>
       </c>
       <c r="L299" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M299" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -16652,7 +17525,7 @@
         <v>573</v>
       </c>
       <c r="I300" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J300" t="s">
         <v>574</v>
@@ -16661,10 +17534,13 @@
         <v>573</v>
       </c>
       <c r="L300" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M300" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -16681,7 +17557,7 @@
         <v>266</v>
       </c>
       <c r="F301" t="s">
-        <v>573</v>
+        <v>736</v>
       </c>
       <c r="G301" t="s">
         <v>574</v>
@@ -16690,7 +17566,7 @@
         <v>573</v>
       </c>
       <c r="I301" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J301" t="s">
         <v>574</v>
@@ -16699,14 +17575,17 @@
         <v>573</v>
       </c>
       <c r="L301" t="s">
-        <v>749</v>
+        <v>574</v>
       </c>
       <c r="M301" t="s">
-        <v>750</v>
+        <v>720</v>
+      </c>
+      <c r="N301" t="s">
+        <v>723</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M301" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:N301" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/part_1_df_abstract_subset.xlsx
+++ b/data/part_1_df_abstract_subset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B883329-294A-6746-A1C0-9B206C6F07E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B31678B-D4A6-EB41-A64B-0076A7F8201D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3880" yWindow="760" windowWidth="26140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3455" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3455" uniqueCount="735">
   <si>
     <t>type</t>
   </si>
@@ -4071,9 +4071,6 @@
     <t xml:space="preserve">bad url </t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>landing page in "en" and "ko"</t>
   </si>
   <si>
@@ -4369,9 +4366,6 @@
   </si>
   <si>
     <t>includes U+2009 Thin Space General Punc char</t>
-  </si>
-  <si>
-    <t xml:space="preserve">empty; </t>
   </si>
   <si>
     <t>HTML</t>
@@ -4475,28 +4469,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4796,10 +4769,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomLeft" activeCell="L150" sqref="L150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4849,7 +4822,7 @@
         <v>598</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>570</v>
@@ -4875,7 +4848,7 @@
         <v>10871</v>
       </c>
       <c r="F2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G2" t="s">
         <v>574</v>
@@ -4896,7 +4869,7 @@
         <v>574</v>
       </c>
       <c r="M2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -4937,7 +4910,7 @@
         <v>574</v>
       </c>
       <c r="M3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -5063,10 +5036,10 @@
         <v>574</v>
       </c>
       <c r="M6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="N6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -5171,7 +5144,7 @@
         <v>6937</v>
       </c>
       <c r="F9" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G9" t="s">
         <v>574</v>
@@ -5192,7 +5165,7 @@
         <v>574</v>
       </c>
       <c r="M9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="N9" t="s">
         <v>578</v>
@@ -5215,7 +5188,7 @@
         <v>6602</v>
       </c>
       <c r="F10" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G10" t="s">
         <v>573</v>
@@ -5236,7 +5209,7 @@
         <v>574</v>
       </c>
       <c r="M10" t="s">
-        <v>615</v>
+        <v>729</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -5256,7 +5229,7 @@
         <v>6576</v>
       </c>
       <c r="F11" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G11" t="s">
         <v>574</v>
@@ -5277,7 +5250,7 @@
         <v>573</v>
       </c>
       <c r="M11" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="N11" t="s">
         <v>579</v>
@@ -5321,7 +5294,7 @@
         <v>573</v>
       </c>
       <c r="M12" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="N12" t="s">
         <v>582</v>
@@ -5409,7 +5382,7 @@
         <v>573</v>
       </c>
       <c r="M14" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="N14" t="s">
         <v>581</v>
@@ -5473,7 +5446,7 @@
         <v>5878</v>
       </c>
       <c r="F16" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G16" t="s">
         <v>574</v>
@@ -5491,10 +5464,10 @@
         <v>573</v>
       </c>
       <c r="L16" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M16" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="N16" t="s">
         <v>584</v>
@@ -5561,7 +5534,7 @@
         <v>5526</v>
       </c>
       <c r="F18" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G18" t="s">
         <v>574</v>
@@ -5626,7 +5599,7 @@
         <v>574</v>
       </c>
       <c r="M19" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="N19" t="s">
         <v>587</v>
@@ -5649,7 +5622,7 @@
         <v>5490</v>
       </c>
       <c r="F20" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G20" t="s">
         <v>574</v>
@@ -5670,7 +5643,7 @@
         <v>574</v>
       </c>
       <c r="M20" t="s">
-        <v>615</v>
+        <v>729</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -5711,7 +5684,7 @@
         <v>573</v>
       </c>
       <c r="M21" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="N21" t="s">
         <v>588</v>
@@ -5755,7 +5728,7 @@
         <v>573</v>
       </c>
       <c r="M22" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="N22" t="s">
         <v>580</v>
@@ -5778,7 +5751,7 @@
         <v>5272</v>
       </c>
       <c r="F23" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G23" t="s">
         <v>574</v>
@@ -5799,7 +5772,7 @@
         <v>574</v>
       </c>
       <c r="M23" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="N23" t="s">
         <v>589</v>
@@ -5822,7 +5795,7 @@
         <v>5209</v>
       </c>
       <c r="F24" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G24" t="s">
         <v>574</v>
@@ -5910,7 +5883,7 @@
         <v>5162</v>
       </c>
       <c r="F26" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G26" t="s">
         <v>574</v>
@@ -5928,10 +5901,10 @@
         <v>573</v>
       </c>
       <c r="L26" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M26" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="N26" t="s">
         <v>580</v>
@@ -6233,7 +6206,7 @@
         <v>573</v>
       </c>
       <c r="M33" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="N33" t="s">
         <v>600</v>
@@ -6318,7 +6291,7 @@
         <v>573</v>
       </c>
       <c r="M35" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="N35" t="s">
         <v>604</v>
@@ -6362,7 +6335,7 @@
         <v>573</v>
       </c>
       <c r="M36" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="N36" t="s">
         <v>604</v>
@@ -6406,7 +6379,7 @@
         <v>573</v>
       </c>
       <c r="M37" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="N37" t="s">
         <v>604</v>
@@ -6535,7 +6508,7 @@
         <v>573</v>
       </c>
       <c r="M40" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="N40" t="s">
         <v>606</v>
@@ -6579,7 +6552,7 @@
         <v>573</v>
       </c>
       <c r="M41" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="N41" t="s">
         <v>607</v>
@@ -6623,7 +6596,7 @@
         <v>573</v>
       </c>
       <c r="M42" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="N42" t="s">
         <v>608</v>
@@ -6749,7 +6722,7 @@
         <v>573</v>
       </c>
       <c r="M45" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="N45" t="s">
         <v>604</v>
@@ -6793,7 +6766,7 @@
         <v>574</v>
       </c>
       <c r="M46" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
@@ -7095,7 +7068,7 @@
         <v>573</v>
       </c>
       <c r="M53" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="N53" t="s">
         <v>613</v>
@@ -7139,7 +7112,7 @@
         <v>573</v>
       </c>
       <c r="M54" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="N54" t="s">
         <v>613</v>
@@ -7183,7 +7156,7 @@
         <v>573</v>
       </c>
       <c r="M55" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="N55" t="s">
         <v>612</v>
@@ -7227,7 +7200,7 @@
         <v>573</v>
       </c>
       <c r="M56" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="N56" t="s">
         <v>614</v>
@@ -7271,7 +7244,7 @@
         <v>573</v>
       </c>
       <c r="M57" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="N57" t="s">
         <v>604</v>
@@ -7587,7 +7560,7 @@
         <v>4362</v>
       </c>
       <c r="F65" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G65" t="s">
         <v>574</v>
@@ -7608,7 +7581,7 @@
         <v>574</v>
       </c>
       <c r="M65" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
@@ -7731,7 +7704,7 @@
         <v>574</v>
       </c>
       <c r="M68" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="N68" t="s">
         <v>621</v>
@@ -7775,7 +7748,7 @@
         <v>574</v>
       </c>
       <c r="M69" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
@@ -7860,7 +7833,7 @@
         <v>574</v>
       </c>
       <c r="M71" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="N71" t="s">
         <v>623</v>
@@ -7904,7 +7877,7 @@
         <v>573</v>
       </c>
       <c r="M72" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="N72" t="s">
         <v>604</v>
@@ -7948,7 +7921,7 @@
         <v>573</v>
       </c>
       <c r="M73" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="N73" t="s">
         <v>624</v>
@@ -7992,7 +7965,7 @@
         <v>574</v>
       </c>
       <c r="M74" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
@@ -8033,7 +8006,7 @@
         <v>574</v>
       </c>
       <c r="M75" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="N75" t="s">
         <v>623</v>
@@ -8056,7 +8029,7 @@
         <v>4185</v>
       </c>
       <c r="F76" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G76" t="s">
         <v>574</v>
@@ -8165,7 +8138,7 @@
         <v>574</v>
       </c>
       <c r="M78" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="N78" t="s">
         <v>628</v>
@@ -8209,7 +8182,7 @@
         <v>574</v>
       </c>
       <c r="M79" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
@@ -8229,7 +8202,7 @@
         <v>4162</v>
       </c>
       <c r="F80" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G80" t="s">
         <v>601</v>
@@ -8250,7 +8223,7 @@
         <v>574</v>
       </c>
       <c r="M80" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
@@ -8455,7 +8428,7 @@
         <v>574</v>
       </c>
       <c r="M85" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
@@ -8475,7 +8448,7 @@
         <v>4100</v>
       </c>
       <c r="F86" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G86" t="s">
         <v>574</v>
@@ -8540,7 +8513,7 @@
         <v>574</v>
       </c>
       <c r="M87" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="N87" t="s">
         <v>630</v>
@@ -8669,7 +8642,7 @@
         <v>574</v>
       </c>
       <c r="M90" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="N90" t="s">
         <v>632</v>
@@ -8733,7 +8706,7 @@
         <v>4045</v>
       </c>
       <c r="F92" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G92" t="s">
         <v>601</v>
@@ -9009,7 +8982,7 @@
         <v>574</v>
       </c>
       <c r="M98" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="N98" t="s">
         <v>633</v>
@@ -9135,7 +9108,7 @@
         <v>574</v>
       </c>
       <c r="M101" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="N101" t="s">
         <v>634</v>
@@ -9179,10 +9152,10 @@
         <v>574</v>
       </c>
       <c r="M102" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N102" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
@@ -9223,10 +9196,10 @@
         <v>574</v>
       </c>
       <c r="M103" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N103" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
@@ -9349,10 +9322,10 @@
         <v>574</v>
       </c>
       <c r="M106" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N106" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
@@ -9393,10 +9366,10 @@
         <v>574</v>
       </c>
       <c r="M107" t="s">
-        <v>635</v>
+        <v>681</v>
       </c>
       <c r="N107" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
@@ -9437,7 +9410,7 @@
         <v>574</v>
       </c>
       <c r="M108" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
@@ -9460,28 +9433,28 @@
         <v>574</v>
       </c>
       <c r="G109" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="H109" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="I109" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="J109" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="K109" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="L109" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="M109" t="s">
+        <v>643</v>
+      </c>
+      <c r="N109" s="6" t="s">
         <v>639</v>
-      </c>
-      <c r="H109" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="I109" s="6" t="s">
-        <v>573</v>
-      </c>
-      <c r="J109" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="K109" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="L109" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="M109" t="s">
-        <v>644</v>
-      </c>
-      <c r="N109" s="6" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
@@ -9504,7 +9477,7 @@
         <v>574</v>
       </c>
       <c r="G110" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H110" t="s">
         <v>574</v>
@@ -9522,10 +9495,10 @@
         <v>574</v>
       </c>
       <c r="M110" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N110" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
@@ -9566,7 +9539,7 @@
         <v>574</v>
       </c>
       <c r="M111" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
@@ -9589,7 +9562,7 @@
         <v>574</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H112" t="s">
         <v>573</v>
@@ -9607,10 +9580,10 @@
         <v>574</v>
       </c>
       <c r="M112" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="N112" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
@@ -9651,10 +9624,10 @@
         <v>574</v>
       </c>
       <c r="M113" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N113" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
@@ -9677,7 +9650,7 @@
         <v>574</v>
       </c>
       <c r="G114" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H114" t="s">
         <v>573</v>
@@ -9695,10 +9668,10 @@
         <v>574</v>
       </c>
       <c r="M114" t="s">
-        <v>635</v>
+        <v>681</v>
       </c>
       <c r="N114" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
@@ -9721,7 +9694,7 @@
         <v>574</v>
       </c>
       <c r="G115" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H115" t="s">
         <v>583</v>
@@ -9739,7 +9712,7 @@
         <v>574</v>
       </c>
       <c r="M115" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
@@ -9780,10 +9753,10 @@
         <v>574</v>
       </c>
       <c r="M116" t="s">
-        <v>735</v>
+        <v>693</v>
       </c>
       <c r="N116" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
@@ -9824,7 +9797,7 @@
         <v>574</v>
       </c>
       <c r="M117" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
@@ -9847,28 +9820,28 @@
         <v>574</v>
       </c>
       <c r="G118" t="s">
+        <v>648</v>
+      </c>
+      <c r="H118" t="s">
+        <v>574</v>
+      </c>
+      <c r="I118" t="s">
+        <v>574</v>
+      </c>
+      <c r="J118" t="s">
+        <v>574</v>
+      </c>
+      <c r="K118" t="s">
+        <v>574</v>
+      </c>
+      <c r="L118" t="s">
+        <v>574</v>
+      </c>
+      <c r="M118" t="s">
+        <v>643</v>
+      </c>
+      <c r="N118" t="s">
         <v>649</v>
-      </c>
-      <c r="H118" t="s">
-        <v>574</v>
-      </c>
-      <c r="I118" t="s">
-        <v>574</v>
-      </c>
-      <c r="J118" t="s">
-        <v>574</v>
-      </c>
-      <c r="K118" t="s">
-        <v>574</v>
-      </c>
-      <c r="L118" t="s">
-        <v>574</v>
-      </c>
-      <c r="M118" t="s">
-        <v>644</v>
-      </c>
-      <c r="N118" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
@@ -9909,7 +9882,7 @@
         <v>574</v>
       </c>
       <c r="M119" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
@@ -9932,7 +9905,7 @@
         <v>574</v>
       </c>
       <c r="G120" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H120" t="s">
         <v>573</v>
@@ -9950,7 +9923,7 @@
         <v>574</v>
       </c>
       <c r="M120" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
@@ -9991,10 +9964,10 @@
         <v>574</v>
       </c>
       <c r="M121" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N121" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
@@ -10035,7 +10008,7 @@
         <v>574</v>
       </c>
       <c r="M122" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
@@ -10076,7 +10049,7 @@
         <v>574</v>
       </c>
       <c r="M123" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
@@ -10117,7 +10090,7 @@
         <v>574</v>
       </c>
       <c r="M124" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
@@ -10158,10 +10131,10 @@
         <v>574</v>
       </c>
       <c r="M125" t="s">
+        <v>652</v>
+      </c>
+      <c r="N125" t="s">
         <v>653</v>
-      </c>
-      <c r="N125" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
@@ -10184,28 +10157,28 @@
         <v>574</v>
       </c>
       <c r="G126" t="s">
+        <v>654</v>
+      </c>
+      <c r="H126" t="s">
+        <v>573</v>
+      </c>
+      <c r="I126" t="s">
+        <v>573</v>
+      </c>
+      <c r="J126" t="s">
+        <v>574</v>
+      </c>
+      <c r="K126" t="s">
+        <v>573</v>
+      </c>
+      <c r="L126" t="s">
+        <v>574</v>
+      </c>
+      <c r="M126" t="s">
+        <v>681</v>
+      </c>
+      <c r="N126" t="s">
         <v>655</v>
-      </c>
-      <c r="H126" t="s">
-        <v>573</v>
-      </c>
-      <c r="I126" t="s">
-        <v>573</v>
-      </c>
-      <c r="J126" t="s">
-        <v>574</v>
-      </c>
-      <c r="K126" t="s">
-        <v>573</v>
-      </c>
-      <c r="L126" t="s">
-        <v>574</v>
-      </c>
-      <c r="M126" t="s">
-        <v>682</v>
-      </c>
-      <c r="N126" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
@@ -10246,7 +10219,7 @@
         <v>574</v>
       </c>
       <c r="M127" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
@@ -10287,7 +10260,7 @@
         <v>574</v>
       </c>
       <c r="M128" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
@@ -10328,10 +10301,10 @@
         <v>574</v>
       </c>
       <c r="M129" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N129" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
@@ -10372,10 +10345,10 @@
         <v>574</v>
       </c>
       <c r="M130" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N130" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
@@ -10416,7 +10389,7 @@
         <v>574</v>
       </c>
       <c r="M131" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
@@ -10457,10 +10430,10 @@
         <v>574</v>
       </c>
       <c r="M132" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N132" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
@@ -10501,10 +10474,10 @@
         <v>574</v>
       </c>
       <c r="M133" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N133" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
@@ -10545,7 +10518,7 @@
         <v>574</v>
       </c>
       <c r="M134" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
@@ -10586,10 +10559,10 @@
         <v>574</v>
       </c>
       <c r="M135" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N135" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
@@ -10630,7 +10603,7 @@
         <v>574</v>
       </c>
       <c r="M136" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
@@ -10671,10 +10644,10 @@
         <v>574</v>
       </c>
       <c r="M137" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N137" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
@@ -10712,13 +10685,13 @@
         <v>573</v>
       </c>
       <c r="L138" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M138" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N138" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
@@ -10759,7 +10732,7 @@
         <v>574</v>
       </c>
       <c r="M139" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
@@ -10782,28 +10755,28 @@
         <v>574</v>
       </c>
       <c r="G140" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="H140" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="I140" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="J140" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="K140" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="L140" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="M140" t="s">
+        <v>693</v>
+      </c>
+      <c r="N140" s="6" t="s">
         <v>663</v>
-      </c>
-      <c r="H140" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="I140" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="J140" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="K140" s="6" t="s">
-        <v>573</v>
-      </c>
-      <c r="L140" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="M140" t="s">
-        <v>694</v>
-      </c>
-      <c r="N140" s="6" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
@@ -10844,7 +10817,7 @@
         <v>574</v>
       </c>
       <c r="M141" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
@@ -10885,7 +10858,7 @@
         <v>574</v>
       </c>
       <c r="M142" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
@@ -10926,10 +10899,10 @@
         <v>574</v>
       </c>
       <c r="M143" t="s">
-        <v>635</v>
+        <v>681</v>
       </c>
       <c r="N143" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
@@ -10952,7 +10925,7 @@
         <v>574</v>
       </c>
       <c r="G144" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H144" t="s">
         <v>573</v>
@@ -10970,7 +10943,7 @@
         <v>574</v>
       </c>
       <c r="M144" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.2">
@@ -11011,10 +10984,10 @@
         <v>574</v>
       </c>
       <c r="M145" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N145" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.2">
@@ -11055,10 +11028,10 @@
         <v>574</v>
       </c>
       <c r="M146" t="s">
-        <v>635</v>
+        <v>681</v>
       </c>
       <c r="N146" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.2">
@@ -11099,10 +11072,10 @@
         <v>574</v>
       </c>
       <c r="M147" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N147" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
@@ -11143,10 +11116,10 @@
         <v>574</v>
       </c>
       <c r="M148" t="s">
-        <v>635</v>
+        <v>681</v>
       </c>
       <c r="N148" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.2">
@@ -11187,7 +11160,7 @@
         <v>574</v>
       </c>
       <c r="M149" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.2">
@@ -11228,10 +11201,10 @@
         <v>574</v>
       </c>
       <c r="M150" t="s">
-        <v>635</v>
+        <v>681</v>
       </c>
       <c r="N150" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.2">
@@ -11272,10 +11245,10 @@
         <v>574</v>
       </c>
       <c r="M151" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N151" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.2">
@@ -11316,10 +11289,10 @@
         <v>574</v>
       </c>
       <c r="M152" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N152" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.2">
@@ -11360,7 +11333,7 @@
         <v>574</v>
       </c>
       <c r="M153" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.2">
@@ -11401,10 +11374,10 @@
         <v>574</v>
       </c>
       <c r="M154" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N154" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.2">
@@ -11445,7 +11418,7 @@
         <v>574</v>
       </c>
       <c r="M155" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
@@ -11486,10 +11459,10 @@
         <v>574</v>
       </c>
       <c r="M156" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N156" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.2">
@@ -11530,10 +11503,10 @@
         <v>574</v>
       </c>
       <c r="M157" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N157" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.2">
@@ -11556,28 +11529,28 @@
         <v>574</v>
       </c>
       <c r="G158" t="s">
+        <v>671</v>
+      </c>
+      <c r="H158" t="s">
+        <v>573</v>
+      </c>
+      <c r="I158" t="s">
+        <v>573</v>
+      </c>
+      <c r="J158" t="s">
+        <v>574</v>
+      </c>
+      <c r="K158" t="s">
+        <v>573</v>
+      </c>
+      <c r="L158" t="s">
+        <v>574</v>
+      </c>
+      <c r="M158" t="s">
+        <v>681</v>
+      </c>
+      <c r="N158" t="s">
         <v>672</v>
-      </c>
-      <c r="H158" t="s">
-        <v>573</v>
-      </c>
-      <c r="I158" t="s">
-        <v>573</v>
-      </c>
-      <c r="J158" t="s">
-        <v>574</v>
-      </c>
-      <c r="K158" t="s">
-        <v>573</v>
-      </c>
-      <c r="L158" t="s">
-        <v>574</v>
-      </c>
-      <c r="M158" t="s">
-        <v>682</v>
-      </c>
-      <c r="N158" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.2">
@@ -11618,10 +11591,10 @@
         <v>574</v>
       </c>
       <c r="M159" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N159" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
@@ -11662,10 +11635,10 @@
         <v>574</v>
       </c>
       <c r="M160" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N160" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
@@ -11706,10 +11679,10 @@
         <v>574</v>
       </c>
       <c r="M161" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N161" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
@@ -11750,10 +11723,10 @@
         <v>574</v>
       </c>
       <c r="M162" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N162" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
@@ -11794,10 +11767,10 @@
         <v>574</v>
       </c>
       <c r="M163" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N163" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
@@ -11838,10 +11811,10 @@
         <v>574</v>
       </c>
       <c r="M164" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N164" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
@@ -11882,7 +11855,7 @@
         <v>574</v>
       </c>
       <c r="M165" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
@@ -11923,7 +11896,7 @@
         <v>574</v>
       </c>
       <c r="M166" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
@@ -11964,10 +11937,10 @@
         <v>574</v>
       </c>
       <c r="M167" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N167" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
@@ -12008,10 +11981,10 @@
         <v>573</v>
       </c>
       <c r="M168" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N168" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
@@ -12034,7 +12007,7 @@
         <v>574</v>
       </c>
       <c r="G169" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H169" t="s">
         <v>573</v>
@@ -12093,10 +12066,10 @@
         <v>574</v>
       </c>
       <c r="M170" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="N170" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
@@ -12119,28 +12092,28 @@
         <v>574</v>
       </c>
       <c r="G171" t="s">
+        <v>682</v>
+      </c>
+      <c r="H171" t="s">
+        <v>573</v>
+      </c>
+      <c r="I171" t="s">
+        <v>573</v>
+      </c>
+      <c r="J171" t="s">
+        <v>574</v>
+      </c>
+      <c r="K171" t="s">
+        <v>573</v>
+      </c>
+      <c r="L171" t="s">
+        <v>574</v>
+      </c>
+      <c r="M171" t="s">
         <v>683</v>
       </c>
-      <c r="H171" t="s">
-        <v>573</v>
-      </c>
-      <c r="I171" t="s">
-        <v>573</v>
-      </c>
-      <c r="J171" t="s">
-        <v>574</v>
-      </c>
-      <c r="K171" t="s">
-        <v>573</v>
-      </c>
-      <c r="L171" t="s">
-        <v>574</v>
-      </c>
-      <c r="M171" t="s">
-        <v>684</v>
-      </c>
       <c r="N171" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
@@ -12181,7 +12154,7 @@
         <v>574</v>
       </c>
       <c r="M172" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
@@ -12427,7 +12400,7 @@
         <v>574</v>
       </c>
       <c r="M178" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.2">
@@ -12468,10 +12441,10 @@
         <v>574</v>
       </c>
       <c r="M179" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N179" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.2">
@@ -12512,10 +12485,10 @@
         <v>574</v>
       </c>
       <c r="M180" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N180" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.2">
@@ -12556,10 +12529,10 @@
         <v>574</v>
       </c>
       <c r="M181" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N181" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.2">
@@ -12600,10 +12573,10 @@
         <v>574</v>
       </c>
       <c r="M182" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="N182" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.2">
@@ -12644,10 +12617,10 @@
         <v>574</v>
       </c>
       <c r="M183" t="s">
+        <v>689</v>
+      </c>
+      <c r="N183" t="s">
         <v>690</v>
-      </c>
-      <c r="N183" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.2">
@@ -12688,10 +12661,10 @@
         <v>574</v>
       </c>
       <c r="M184" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N184" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.2">
@@ -12735,7 +12708,7 @@
         <v>615</v>
       </c>
       <c r="N185" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.2">
@@ -12776,10 +12749,10 @@
         <v>574</v>
       </c>
       <c r="M186" t="s">
+        <v>693</v>
+      </c>
+      <c r="N186" t="s">
         <v>694</v>
-      </c>
-      <c r="N186" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.2">
@@ -12861,10 +12834,10 @@
         <v>574</v>
       </c>
       <c r="M188" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="N188" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.2">
@@ -12905,10 +12878,10 @@
         <v>573</v>
       </c>
       <c r="M189" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N189" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.2">
@@ -12949,10 +12922,10 @@
         <v>574</v>
       </c>
       <c r="M190" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N190" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.2">
@@ -12993,10 +12966,10 @@
         <v>574</v>
       </c>
       <c r="M191" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="N191" s="6" t="s">
         <v>698</v>
-      </c>
-      <c r="N191" s="6" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.2">
@@ -13119,10 +13092,10 @@
         <v>574</v>
       </c>
       <c r="M194" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N194" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.2">
@@ -13163,10 +13136,10 @@
         <v>574</v>
       </c>
       <c r="M195" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N195" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.2">
@@ -13207,10 +13180,10 @@
         <v>574</v>
       </c>
       <c r="M196" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="N196" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.2">
@@ -13251,10 +13224,10 @@
         <v>574</v>
       </c>
       <c r="M197" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N197" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.2">
@@ -13295,10 +13268,10 @@
         <v>574</v>
       </c>
       <c r="M198" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N198" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.2">
@@ -13339,7 +13312,7 @@
         <v>574</v>
       </c>
       <c r="M199" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.2">
@@ -13380,7 +13353,7 @@
         <v>574</v>
       </c>
       <c r="M200" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.2">
@@ -13421,10 +13394,10 @@
         <v>574</v>
       </c>
       <c r="M201" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N201" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.2">
@@ -13447,7 +13420,7 @@
         <v>574</v>
       </c>
       <c r="G202" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H202" t="s">
         <v>583</v>
@@ -13488,7 +13461,7 @@
         <v>574</v>
       </c>
       <c r="G203" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H203" t="s">
         <v>583</v>
@@ -13588,10 +13561,10 @@
         <v>574</v>
       </c>
       <c r="M205" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="N205" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.2">
@@ -13673,10 +13646,10 @@
         <v>574</v>
       </c>
       <c r="M207" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="N207" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.2">
@@ -13802,7 +13775,7 @@
         <v>615</v>
       </c>
       <c r="N210" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.2">
@@ -13887,7 +13860,7 @@
         <v>615</v>
       </c>
       <c r="N212" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.2">
@@ -14033,7 +14006,7 @@
         <v>574</v>
       </c>
       <c r="G216" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H216" t="s">
         <v>574</v>
@@ -14133,10 +14106,10 @@
         <v>574</v>
       </c>
       <c r="M218" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="N218" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.2">
@@ -14282,7 +14255,7 @@
         <v>574</v>
       </c>
       <c r="G222" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H222" t="s">
         <v>573</v>
@@ -14341,10 +14314,10 @@
         <v>574</v>
       </c>
       <c r="M223" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="N223" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.2">
@@ -14552,7 +14525,7 @@
         <v>619</v>
       </c>
       <c r="N228" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.2">
@@ -14575,7 +14548,7 @@
         <v>574</v>
       </c>
       <c r="G229" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H229" t="s">
         <v>574</v>
@@ -14593,10 +14566,10 @@
         <v>574</v>
       </c>
       <c r="M229" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="N229" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.2">
@@ -15088,10 +15061,10 @@
         <v>574</v>
       </c>
       <c r="M241" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="N241" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.2">
@@ -15114,7 +15087,7 @@
         <v>574</v>
       </c>
       <c r="G242" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H242" t="s">
         <v>583</v>
@@ -15132,10 +15105,10 @@
         <v>574</v>
       </c>
       <c r="M242" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="N242" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.2">
@@ -15176,7 +15149,7 @@
         <v>574</v>
       </c>
       <c r="M243" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.2">
@@ -15217,7 +15190,7 @@
         <v>574</v>
       </c>
       <c r="M244" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.2">
@@ -15258,7 +15231,7 @@
         <v>574</v>
       </c>
       <c r="M245" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.2">
@@ -15281,7 +15254,7 @@
         <v>574</v>
       </c>
       <c r="G246" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H246" t="s">
         <v>574</v>
@@ -15299,7 +15272,7 @@
         <v>574</v>
       </c>
       <c r="M246" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.2">
@@ -15463,10 +15436,10 @@
         <v>574</v>
       </c>
       <c r="M250" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="N250" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.2">
@@ -15589,7 +15562,7 @@
         <v>573</v>
       </c>
       <c r="M253" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N253" t="s">
         <v>604</v>
@@ -15677,7 +15650,7 @@
         <v>592</v>
       </c>
       <c r="N255" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.2">
@@ -15759,10 +15732,10 @@
         <v>574</v>
       </c>
       <c r="M257" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="N257" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.2">
@@ -15885,10 +15858,10 @@
         <v>574</v>
       </c>
       <c r="M260" t="s">
+        <v>716</v>
+      </c>
+      <c r="N260" t="s">
         <v>717</v>
-      </c>
-      <c r="N260" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.2">
@@ -15993,7 +15966,7 @@
         <v>574</v>
       </c>
       <c r="G263" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H263" t="s">
         <v>573</v>
@@ -16198,7 +16171,7 @@
         <v>574</v>
       </c>
       <c r="G268" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H268" t="s">
         <v>573</v>
@@ -16257,10 +16230,10 @@
         <v>574</v>
       </c>
       <c r="M269" t="s">
+        <v>719</v>
+      </c>
+      <c r="N269" t="s">
         <v>720</v>
-      </c>
-      <c r="N269" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.2">
@@ -16301,7 +16274,7 @@
         <v>574</v>
       </c>
       <c r="M270" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.2">
@@ -16324,7 +16297,7 @@
         <v>574</v>
       </c>
       <c r="G271" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H271" t="s">
         <v>573</v>
@@ -16547,10 +16520,10 @@
         <v>574</v>
       </c>
       <c r="M276" t="s">
+        <v>719</v>
+      </c>
+      <c r="N276" t="s">
         <v>720</v>
-      </c>
-      <c r="N276" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.2">
@@ -16714,7 +16687,7 @@
         <v>574</v>
       </c>
       <c r="M280" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.2">
@@ -16755,7 +16728,7 @@
         <v>574</v>
       </c>
       <c r="M281" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.2">
@@ -16837,10 +16810,10 @@
         <v>574</v>
       </c>
       <c r="M283" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="N283" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.2">
@@ -17557,7 +17530,7 @@
         <v>266</v>
       </c>
       <c r="F301" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="G301" t="s">
         <v>574</v>
@@ -17578,10 +17551,10 @@
         <v>574</v>
       </c>
       <c r="M301" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="N301" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
   </sheetData>

--- a/data/part_1_df_abstract_subset.xlsx
+++ b/data/part_1_df_abstract_subset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B31678B-D4A6-EB41-A64B-0076A7F8201D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36444796-692F-7047-8701-D58702DA1238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3880" yWindow="760" windowWidth="26140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34460" yWindow="1000" windowWidth="26140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3455" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3455" uniqueCount="734">
   <si>
     <t>type</t>
   </si>
@@ -4318,9 +4318,6 @@
   </si>
   <si>
     <t>abstract is longer in the metadata; XML shows update after initial deposit</t>
-  </si>
-  <si>
-    <t>"en</t>
   </si>
   <si>
     <t>includes HTML</t>
@@ -4769,10 +4766,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L150" sqref="L150"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4822,7 +4819,7 @@
         <v>598</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>570</v>
@@ -4848,7 +4845,7 @@
         <v>10871</v>
       </c>
       <c r="F2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G2" t="s">
         <v>574</v>
@@ -4869,7 +4866,7 @@
         <v>574</v>
       </c>
       <c r="M2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -4910,7 +4907,7 @@
         <v>574</v>
       </c>
       <c r="M3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -5036,10 +5033,10 @@
         <v>574</v>
       </c>
       <c r="M6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="N6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -5144,7 +5141,7 @@
         <v>6937</v>
       </c>
       <c r="F9" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G9" t="s">
         <v>574</v>
@@ -5165,7 +5162,7 @@
         <v>574</v>
       </c>
       <c r="M9" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="N9" t="s">
         <v>578</v>
@@ -5188,10 +5185,10 @@
         <v>6602</v>
       </c>
       <c r="F10" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G10" t="s">
-        <v>573</v>
+        <v>601</v>
       </c>
       <c r="H10" t="s">
         <v>573</v>
@@ -5209,7 +5206,7 @@
         <v>574</v>
       </c>
       <c r="M10" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -5229,7 +5226,7 @@
         <v>6576</v>
       </c>
       <c r="F11" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G11" t="s">
         <v>574</v>
@@ -5250,7 +5247,7 @@
         <v>573</v>
       </c>
       <c r="M11" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="N11" t="s">
         <v>579</v>
@@ -5294,7 +5291,7 @@
         <v>573</v>
       </c>
       <c r="M12" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="N12" t="s">
         <v>582</v>
@@ -5382,7 +5379,7 @@
         <v>573</v>
       </c>
       <c r="M14" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="N14" t="s">
         <v>581</v>
@@ -5446,7 +5443,7 @@
         <v>5878</v>
       </c>
       <c r="F16" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G16" t="s">
         <v>574</v>
@@ -5467,7 +5464,7 @@
         <v>573</v>
       </c>
       <c r="M16" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="N16" t="s">
         <v>584</v>
@@ -5534,7 +5531,7 @@
         <v>5526</v>
       </c>
       <c r="F18" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G18" t="s">
         <v>574</v>
@@ -5599,7 +5596,7 @@
         <v>574</v>
       </c>
       <c r="M19" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="N19" t="s">
         <v>587</v>
@@ -5622,7 +5619,7 @@
         <v>5490</v>
       </c>
       <c r="F20" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G20" t="s">
         <v>574</v>
@@ -5643,7 +5640,7 @@
         <v>574</v>
       </c>
       <c r="M20" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -5684,7 +5681,7 @@
         <v>573</v>
       </c>
       <c r="M21" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="N21" t="s">
         <v>588</v>
@@ -5728,7 +5725,7 @@
         <v>573</v>
       </c>
       <c r="M22" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="N22" t="s">
         <v>580</v>
@@ -5751,7 +5748,7 @@
         <v>5272</v>
       </c>
       <c r="F23" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G23" t="s">
         <v>574</v>
@@ -5772,7 +5769,7 @@
         <v>574</v>
       </c>
       <c r="M23" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="N23" t="s">
         <v>589</v>
@@ -5795,7 +5792,7 @@
         <v>5209</v>
       </c>
       <c r="F24" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G24" t="s">
         <v>574</v>
@@ -5883,7 +5880,7 @@
         <v>5162</v>
       </c>
       <c r="F26" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G26" t="s">
         <v>574</v>
@@ -5904,7 +5901,7 @@
         <v>573</v>
       </c>
       <c r="M26" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="N26" t="s">
         <v>580</v>
@@ -6206,7 +6203,7 @@
         <v>573</v>
       </c>
       <c r="M33" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="N33" t="s">
         <v>600</v>
@@ -6291,7 +6288,7 @@
         <v>573</v>
       </c>
       <c r="M35" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="N35" t="s">
         <v>604</v>
@@ -6335,7 +6332,7 @@
         <v>573</v>
       </c>
       <c r="M36" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="N36" t="s">
         <v>604</v>
@@ -6379,7 +6376,7 @@
         <v>573</v>
       </c>
       <c r="M37" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="N37" t="s">
         <v>604</v>
@@ -6508,7 +6505,7 @@
         <v>573</v>
       </c>
       <c r="M40" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="N40" t="s">
         <v>606</v>
@@ -6552,7 +6549,7 @@
         <v>573</v>
       </c>
       <c r="M41" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="N41" t="s">
         <v>607</v>
@@ -6596,7 +6593,7 @@
         <v>573</v>
       </c>
       <c r="M42" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="N42" t="s">
         <v>608</v>
@@ -6722,7 +6719,7 @@
         <v>573</v>
       </c>
       <c r="M45" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="N45" t="s">
         <v>604</v>
@@ -6766,7 +6763,7 @@
         <v>574</v>
       </c>
       <c r="M46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
@@ -7068,7 +7065,7 @@
         <v>573</v>
       </c>
       <c r="M53" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="N53" t="s">
         <v>613</v>
@@ -7112,7 +7109,7 @@
         <v>573</v>
       </c>
       <c r="M54" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="N54" t="s">
         <v>613</v>
@@ -7156,7 +7153,7 @@
         <v>573</v>
       </c>
       <c r="M55" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="N55" t="s">
         <v>612</v>
@@ -7200,7 +7197,7 @@
         <v>573</v>
       </c>
       <c r="M56" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="N56" t="s">
         <v>614</v>
@@ -7244,7 +7241,7 @@
         <v>573</v>
       </c>
       <c r="M57" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="N57" t="s">
         <v>604</v>
@@ -7560,7 +7557,7 @@
         <v>4362</v>
       </c>
       <c r="F65" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G65" t="s">
         <v>574</v>
@@ -7581,7 +7578,7 @@
         <v>574</v>
       </c>
       <c r="M65" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
@@ -7704,7 +7701,7 @@
         <v>574</v>
       </c>
       <c r="M68" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="N68" t="s">
         <v>621</v>
@@ -7748,7 +7745,7 @@
         <v>574</v>
       </c>
       <c r="M69" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
@@ -7833,7 +7830,7 @@
         <v>574</v>
       </c>
       <c r="M71" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="N71" t="s">
         <v>623</v>
@@ -7877,7 +7874,7 @@
         <v>573</v>
       </c>
       <c r="M72" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="N72" t="s">
         <v>604</v>
@@ -7921,7 +7918,7 @@
         <v>573</v>
       </c>
       <c r="M73" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="N73" t="s">
         <v>624</v>
@@ -7965,7 +7962,7 @@
         <v>574</v>
       </c>
       <c r="M74" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
@@ -8006,7 +8003,7 @@
         <v>574</v>
       </c>
       <c r="M75" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="N75" t="s">
         <v>623</v>
@@ -8029,7 +8026,7 @@
         <v>4185</v>
       </c>
       <c r="F76" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G76" t="s">
         <v>574</v>
@@ -8138,7 +8135,7 @@
         <v>574</v>
       </c>
       <c r="M78" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="N78" t="s">
         <v>628</v>
@@ -8182,7 +8179,7 @@
         <v>574</v>
       </c>
       <c r="M79" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
@@ -8202,7 +8199,7 @@
         <v>4162</v>
       </c>
       <c r="F80" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G80" t="s">
         <v>601</v>
@@ -8223,7 +8220,7 @@
         <v>574</v>
       </c>
       <c r="M80" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
@@ -8428,7 +8425,7 @@
         <v>574</v>
       </c>
       <c r="M85" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
@@ -8448,7 +8445,7 @@
         <v>4100</v>
       </c>
       <c r="F86" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G86" t="s">
         <v>574</v>
@@ -8513,7 +8510,7 @@
         <v>574</v>
       </c>
       <c r="M87" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="N87" t="s">
         <v>630</v>
@@ -8642,7 +8639,7 @@
         <v>574</v>
       </c>
       <c r="M90" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="N90" t="s">
         <v>632</v>
@@ -8706,7 +8703,7 @@
         <v>4045</v>
       </c>
       <c r="F92" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G92" t="s">
         <v>601</v>
@@ -8982,7 +8979,7 @@
         <v>574</v>
       </c>
       <c r="M98" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="N98" t="s">
         <v>633</v>
@@ -9108,7 +9105,7 @@
         <v>574</v>
       </c>
       <c r="M101" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="N101" t="s">
         <v>634</v>
@@ -12834,7 +12831,7 @@
         <v>574</v>
       </c>
       <c r="M188" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="N188" t="s">
         <v>695</v>
@@ -15436,7 +15433,7 @@
         <v>574</v>
       </c>
       <c r="M250" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="N250" t="s">
         <v>713</v>
@@ -16171,7 +16168,7 @@
         <v>574</v>
       </c>
       <c r="G268" t="s">
-        <v>718</v>
+        <v>601</v>
       </c>
       <c r="H268" t="s">
         <v>573</v>
@@ -16230,10 +16227,10 @@
         <v>574</v>
       </c>
       <c r="M269" t="s">
+        <v>718</v>
+      </c>
+      <c r="N269" t="s">
         <v>719</v>
-      </c>
-      <c r="N269" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.2">
@@ -16520,10 +16517,10 @@
         <v>574</v>
       </c>
       <c r="M276" t="s">
+        <v>718</v>
+      </c>
+      <c r="N276" t="s">
         <v>719</v>
-      </c>
-      <c r="N276" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.2">
@@ -16687,7 +16684,7 @@
         <v>574</v>
       </c>
       <c r="M280" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.2">
@@ -16728,7 +16725,7 @@
         <v>574</v>
       </c>
       <c r="M281" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.2">
@@ -16810,10 +16807,10 @@
         <v>574</v>
       </c>
       <c r="M283" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="N283" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.2">
@@ -17530,7 +17527,7 @@
         <v>266</v>
       </c>
       <c r="F301" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G301" t="s">
         <v>574</v>
@@ -17551,10 +17548,10 @@
         <v>574</v>
       </c>
       <c r="M301" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="N301" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
   </sheetData>

--- a/data/part_1_df_abstract_subset.xlsx
+++ b/data/part_1_df_abstract_subset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36444796-692F-7047-8701-D58702DA1238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5214CF02-0346-4C4B-9345-8B80021FFC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34460" yWindow="1000" windowWidth="26140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1420" yWindow="760" windowWidth="26140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4764,12 +4764,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4828,7 +4829,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="23" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4869,7 +4870,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="22" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4910,7 +4911,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4951,7 +4952,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4995,7 +4996,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5039,7 +5040,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5080,7 +5081,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5124,7 +5125,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5168,7 +5169,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -5209,7 +5210,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -5253,7 +5254,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -5297,7 +5298,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -5341,7 +5342,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -5385,7 +5386,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5426,7 +5427,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5470,7 +5471,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5514,7 +5515,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5558,7 +5559,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5602,7 +5603,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -5643,7 +5644,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -5687,7 +5688,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -5731,7 +5732,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -5775,7 +5776,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -5819,7 +5820,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -5863,7 +5864,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -5907,7 +5908,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -5948,7 +5949,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -5992,7 +5993,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -6036,7 +6037,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -6077,7 +6078,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -6121,7 +6122,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -6165,7 +6166,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -6209,7 +6210,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -6250,7 +6251,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -6294,7 +6295,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -6338,7 +6339,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -6382,7 +6383,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -6423,7 +6424,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -6467,7 +6468,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -6511,7 +6512,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -6555,7 +6556,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -6599,7 +6600,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -6640,7 +6641,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -6681,7 +6682,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -6725,7 +6726,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -6766,7 +6767,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -6810,7 +6811,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -6854,7 +6855,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -6898,7 +6899,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -6942,7 +6943,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -6983,7 +6984,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -7027,7 +7028,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -7071,7 +7072,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -7115,7 +7116,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -7159,7 +7160,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -7203,7 +7204,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -7247,7 +7248,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -7288,7 +7289,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -7329,7 +7330,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -7373,7 +7374,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -7417,7 +7418,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -7458,7 +7459,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -7499,7 +7500,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -7540,7 +7541,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -7581,7 +7582,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -7622,7 +7623,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -7663,7 +7664,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -7707,7 +7708,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -7748,7 +7749,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -7792,7 +7793,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -7836,7 +7837,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -7880,7 +7881,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -7924,7 +7925,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -7965,7 +7966,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -8009,7 +8010,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -8053,7 +8054,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -8097,7 +8098,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -8141,7 +8142,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -8182,7 +8183,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -8223,7 +8224,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -8264,7 +8265,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -8305,7 +8306,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -8346,7 +8347,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -8387,7 +8388,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -8428,7 +8429,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -8472,7 +8473,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -8516,7 +8517,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -8557,7 +8558,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -8601,7 +8602,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -8645,7 +8646,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -8686,7 +8687,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -8730,7 +8731,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -8774,7 +8775,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -8815,7 +8816,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -8856,7 +8857,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -8897,7 +8898,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -8941,7 +8942,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -8985,7 +8986,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -9026,7 +9027,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -9067,7 +9068,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -9111,7 +9112,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -9155,7 +9156,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -9199,7 +9200,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -9240,7 +9241,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -9410,7 +9411,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -9454,7 +9455,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -9539,7 +9540,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -9671,7 +9672,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -9712,7 +9713,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -9797,7 +9798,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -9923,7 +9924,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -10008,7 +10009,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -10090,7 +10091,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -10433,7 +10434,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -10732,7 +10733,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="7">
         <v>138</v>
       </c>
@@ -10943,7 +10944,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -11204,7 +11205,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -11248,7 +11249,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -11462,7 +11463,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -11638,7 +11639,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="7">
         <v>159</v>
       </c>
@@ -11855,7 +11856,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -11896,7 +11897,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -11940,7 +11941,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -11984,7 +11985,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -12025,7 +12026,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -12069,7 +12070,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -12154,7 +12155,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -12195,7 +12196,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -12236,7 +12237,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -12277,7 +12278,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -12318,7 +12319,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -12532,7 +12533,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -12576,7 +12577,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -12664,7 +12665,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -12708,7 +12709,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -12752,7 +12753,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -12793,7 +12794,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -12925,7 +12926,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="7">
         <v>189</v>
       </c>
@@ -12969,7 +12970,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -13010,7 +13011,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -13051,7 +13052,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -13095,7 +13096,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -13139,7 +13140,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -13183,7 +13184,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -13271,7 +13272,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -13353,7 +13354,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="7">
         <v>199</v>
       </c>
@@ -13397,7 +13398,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -13438,7 +13439,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -13479,7 +13480,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -13520,7 +13521,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -13564,7 +13565,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -13605,7 +13606,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -13649,7 +13650,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -13690,7 +13691,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -13731,7 +13732,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -13775,7 +13776,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -13816,7 +13817,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -13860,7 +13861,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -13901,7 +13902,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -13942,7 +13943,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -13983,7 +13984,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -14024,7 +14025,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -14065,7 +14066,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="7">
         <v>216</v>
       </c>
@@ -14109,7 +14110,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -14150,7 +14151,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -14191,7 +14192,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -14232,7 +14233,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -14273,7 +14274,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -14317,7 +14318,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -14358,7 +14359,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -14399,7 +14400,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -14440,7 +14441,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -14481,7 +14482,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -14525,7 +14526,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -14569,7 +14570,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -14610,7 +14611,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -14651,7 +14652,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -14692,7 +14693,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -14733,7 +14734,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -14774,7 +14775,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -14815,7 +14816,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -14856,7 +14857,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -14897,7 +14898,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -14938,7 +14939,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -14979,7 +14980,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -15020,7 +15021,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -15064,7 +15065,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -15108,7 +15109,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -15149,7 +15150,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -15190,7 +15191,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -15231,7 +15232,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -15272,7 +15273,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -15313,7 +15314,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -15354,7 +15355,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -15395,7 +15396,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -15439,7 +15440,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -15480,7 +15481,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -15521,7 +15522,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -15565,7 +15566,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -15606,7 +15607,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -15650,7 +15651,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -15691,7 +15692,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -15735,7 +15736,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -15776,7 +15777,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -15817,7 +15818,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -15861,7 +15862,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -15902,7 +15903,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -15943,7 +15944,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -15984,7 +15985,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -16025,7 +16026,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -16066,7 +16067,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -16107,7 +16108,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -16148,7 +16149,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -16189,7 +16190,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -16233,7 +16234,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -16274,7 +16275,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -16315,7 +16316,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -16356,7 +16357,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -16397,7 +16398,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -16438,7 +16439,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -16479,7 +16480,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -16523,7 +16524,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -16564,7 +16565,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -16605,7 +16606,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -16646,7 +16647,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -16687,7 +16688,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -16728,7 +16729,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -16769,7 +16770,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -16813,7 +16814,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -16854,7 +16855,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -16895,7 +16896,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -16936,7 +16937,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -16977,7 +16978,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -17018,7 +17019,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -17059,7 +17060,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -17100,7 +17101,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -17141,7 +17142,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -17182,7 +17183,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -17223,7 +17224,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -17264,7 +17265,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -17305,7 +17306,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -17346,7 +17347,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -17387,7 +17388,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -17428,7 +17429,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -17469,7 +17470,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -17510,7 +17511,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -17555,7 +17556,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N301" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:N301" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="12">
+      <filters>
+        <filter val="no abstract in article"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/part_1_df_abstract_subset.xlsx
+++ b/data/part_1_df_abstract_subset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5214CF02-0346-4C4B-9345-8B80021FFC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CFF3EB-0266-E748-AF75-A910DD8E2608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="760" windowWidth="26140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1420" yWindow="760" windowWidth="27980" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4764,13 +4764,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:N301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C106" sqref="C106"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4783,7 +4782,8 @@
     <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.5" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
     <col min="13" max="13" width="37.1640625" customWidth="1"/>
     <col min="14" max="14" width="75" bestFit="1" customWidth="1"/>
   </cols>
@@ -4829,7 +4829,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="23" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="22" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -6767,7 +6767,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -7116,7 +7116,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -7248,7 +7248,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -7749,7 +7749,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -8010,7 +8010,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -8142,7 +8142,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -8183,7 +8183,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -8306,7 +8306,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -8517,7 +8517,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -8646,7 +8646,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -8687,7 +8687,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -8731,7 +8731,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -8775,7 +8775,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -8816,7 +8816,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -8898,7 +8898,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -8942,7 +8942,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -8986,7 +8986,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -9027,7 +9027,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -9068,7 +9068,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -9156,7 +9156,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -9200,7 +9200,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -9241,7 +9241,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -9411,7 +9411,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -9540,7 +9540,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -9672,7 +9672,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -9713,7 +9713,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -9798,7 +9798,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -9924,7 +9924,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -10009,7 +10009,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -10091,7 +10091,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -10434,7 +10434,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -10733,7 +10733,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="7">
         <v>138</v>
       </c>
@@ -10944,7 +10944,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -11205,7 +11205,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="151" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -11249,7 +11249,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -11463,7 +11463,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="157" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -11639,7 +11639,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="161" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" s="7">
         <v>159</v>
       </c>
@@ -11856,7 +11856,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -11897,7 +11897,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="167" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -11941,7 +11941,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="168" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -11985,7 +11985,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="169" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -12026,7 +12026,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="170" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -12070,7 +12070,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="171" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -12155,7 +12155,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="173" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -12196,7 +12196,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="174" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -12237,7 +12237,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="175" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -12278,7 +12278,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="176" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -12319,7 +12319,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="177" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -12533,7 +12533,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="182" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -12577,7 +12577,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="183" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -12665,7 +12665,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="185" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -12709,7 +12709,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="186" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -12753,7 +12753,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="187" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -12794,7 +12794,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="188" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -12926,7 +12926,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="191" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" s="7">
         <v>189</v>
       </c>
@@ -12970,7 +12970,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="192" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -13011,7 +13011,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="193" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -13052,7 +13052,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="194" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -13096,7 +13096,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="195" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -13140,7 +13140,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="196" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -13184,7 +13184,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="197" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -13272,7 +13272,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -13354,7 +13354,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="201" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" s="7">
         <v>199</v>
       </c>
@@ -13398,7 +13398,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="202" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -13439,7 +13439,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="203" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -13480,7 +13480,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="204" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -13521,7 +13521,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="205" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -13565,7 +13565,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="206" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -13606,7 +13606,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="207" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -13650,7 +13650,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="208" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -13691,7 +13691,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="209" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -13732,7 +13732,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="210" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -13776,7 +13776,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="211" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -13817,7 +13817,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="212" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -13861,7 +13861,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="213" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -13902,7 +13902,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="214" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -13943,7 +13943,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="215" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -13984,7 +13984,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="216" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -14025,7 +14025,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="217" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -14066,7 +14066,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="218" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" s="7">
         <v>216</v>
       </c>
@@ -14110,7 +14110,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="219" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -14151,7 +14151,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="220" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -14192,7 +14192,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="221" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -14233,7 +14233,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="222" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -14274,7 +14274,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="223" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -14318,7 +14318,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="224" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -14359,7 +14359,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="225" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -14400,7 +14400,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="226" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -14441,7 +14441,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="227" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -14482,7 +14482,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -14526,7 +14526,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="229" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -14570,7 +14570,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="230" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -14611,7 +14611,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="231" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -14652,7 +14652,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="232" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -14693,7 +14693,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="233" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -14734,7 +14734,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="234" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -14775,7 +14775,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -14816,7 +14816,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -14857,7 +14857,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -14898,7 +14898,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="238" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -14939,7 +14939,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="239" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -14980,7 +14980,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="240" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -15021,7 +15021,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="241" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -15065,7 +15065,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="242" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -15109,7 +15109,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="243" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -15150,7 +15150,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="244" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -15191,7 +15191,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="245" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -15232,7 +15232,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="246" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -15273,7 +15273,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="247" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -15314,7 +15314,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="248" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -15355,7 +15355,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="249" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -15396,7 +15396,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="250" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -15440,7 +15440,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="251" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -15481,7 +15481,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="252" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -15522,7 +15522,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="253" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -15566,7 +15566,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="254" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -15607,7 +15607,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="255" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -15651,7 +15651,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="256" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -15692,7 +15692,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="257" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -15736,7 +15736,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="258" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -15777,7 +15777,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="259" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -15818,7 +15818,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="260" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -15862,7 +15862,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="261" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -15903,7 +15903,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="262" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -15944,7 +15944,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="263" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -15985,7 +15985,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="264" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -16026,7 +16026,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="265" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -16067,7 +16067,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="266" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -16108,7 +16108,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="267" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -16149,7 +16149,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -16190,7 +16190,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -16234,7 +16234,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -16275,7 +16275,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -16316,7 +16316,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="272" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -16357,7 +16357,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="273" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -16398,7 +16398,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="274" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -16439,7 +16439,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="275" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -16480,7 +16480,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="276" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -16524,7 +16524,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="277" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -16565,7 +16565,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="278" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -16606,7 +16606,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="279" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -16647,7 +16647,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="280" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -16688,7 +16688,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="281" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -16729,7 +16729,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="282" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -16770,7 +16770,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="283" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -16814,7 +16814,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="284" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -16855,7 +16855,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="285" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -16896,7 +16896,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="286" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -16937,7 +16937,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="287" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -16978,7 +16978,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="288" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -17019,7 +17019,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="289" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -17060,7 +17060,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="290" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -17101,7 +17101,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="291" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -17142,7 +17142,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="292" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -17183,7 +17183,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="293" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -17224,7 +17224,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="294" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -17265,7 +17265,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="295" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -17306,7 +17306,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="296" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -17347,7 +17347,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="297" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -17388,7 +17388,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="298" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -17429,7 +17429,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="299" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -17470,7 +17470,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="300" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -17511,7 +17511,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="301" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -17556,13 +17556,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N301" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="12">
-      <filters>
-        <filter val="no abstract in article"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:N301" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/part_1_df_abstract_subset.xlsx
+++ b/data/part_1_df_abstract_subset.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CFF3EB-0266-E748-AF75-A910DD8E2608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DF1118-D0AA-9945-AF13-D55D08CA29CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1420" yWindow="760" windowWidth="27980" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$301</definedName>
@@ -4766,10 +4767,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17558,5 +17559,18 @@
   </sheetData>
   <autoFilter ref="A1:N301" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DF2070-F136-784D-BA47-CFD8C9ED2C5F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/part_1_df_abstract_subset.xlsx
+++ b/data/part_1_df_abstract_subset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DF1118-D0AA-9945-AF13-D55D08CA29CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47AA9D7-08B7-AD44-B418-9D31762C5188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="760" windowWidth="27980" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1420" yWindow="780" windowWidth="27980" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
